--- a/restaurants.xlsx
+++ b/restaurants.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kroli\PycharmProjects\Карта_аудитов\audits_map\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kroli\PycharmProjects\MAP_JS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E8E553-4CE4-4C13-B58D-2E423734F3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EDD159-7C4D-436E-9BE5-EEFCAEF15369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{38334122-D6CB-41C0-898C-DC56B1951378}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="414">
   <si>
     <t>Дата аудита</t>
   </si>
@@ -1702,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C7E0F2-4CF5-4E0D-8C81-180A66B4648E}">
   <dimension ref="A1:P128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G115" sqref="G115"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4831,173 +4831,233 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>133</v>
+        <v>238</v>
       </c>
       <c r="B110" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="C110" s="3">
-        <v>60.007587000000001</v>
+        <v>59.642857999999997</v>
       </c>
       <c r="D110" s="3">
-        <v>30.259732</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>134</v>
-      </c>
-      <c r="B111" t="s">
-        <v>81</v>
-      </c>
-      <c r="C111" s="3">
-        <v>59.823701999999997</v>
-      </c>
-      <c r="D111" s="3">
-        <v>30.319182999999999</v>
+        <v>33.547027</v>
+      </c>
+      <c r="E110" s="6">
+        <v>45759</v>
+      </c>
+      <c r="F110" t="s">
+        <v>3</v>
+      </c>
+      <c r="G110" t="s">
+        <v>110</v>
+      </c>
+      <c r="H110" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C111" s="4">
+        <v>59.126367000000002</v>
+      </c>
+      <c r="D111" s="4">
+        <v>37.920817</v>
       </c>
       <c r="E111" s="6">
-        <v>45768</v>
+        <v>45759</v>
       </c>
       <c r="F111" t="s">
         <v>3</v>
       </c>
       <c r="G111" t="s">
-        <v>109</v>
+        <v>403</v>
       </c>
       <c r="H111" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>136</v>
-      </c>
-      <c r="B112" t="s">
-        <v>11</v>
-      </c>
-      <c r="C112" s="3">
-        <v>60.002080999999997</v>
-      </c>
-      <c r="D112" s="3">
-        <v>30.272632000000002</v>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C112" s="4">
+        <v>59.089959</v>
+      </c>
+      <c r="D112" s="4">
+        <v>37.915553000000003</v>
+      </c>
+      <c r="E112" s="6">
+        <v>45759</v>
+      </c>
+      <c r="F112" t="s">
+        <v>265</v>
+      </c>
+      <c r="G112" t="s">
+        <v>403</v>
+      </c>
+      <c r="H112" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>151</v>
+        <v>246</v>
       </c>
       <c r="B113" t="s">
-        <v>64</v>
-      </c>
-      <c r="C113" s="3">
-        <v>59.989381999999999</v>
-      </c>
-      <c r="D113" s="3">
-        <v>30.257289</v>
+        <v>127</v>
+      </c>
+      <c r="C113" s="4">
+        <v>59.202885999999999</v>
+      </c>
+      <c r="D113" s="4">
+        <v>39.812596999999997</v>
+      </c>
+      <c r="E113" s="6">
+        <v>45760</v>
+      </c>
+      <c r="F113" t="s">
+        <v>3</v>
+      </c>
+      <c r="G113" t="s">
+        <v>403</v>
+      </c>
+      <c r="H113" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="B114" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C114" s="3">
-        <v>59.746709000000003</v>
+        <v>59.823701999999997</v>
       </c>
       <c r="D114" s="3">
-        <v>30.497157000000001</v>
+        <v>30.319182999999999</v>
       </c>
       <c r="E114" s="6">
-        <v>45773</v>
+        <v>45768</v>
       </c>
       <c r="F114" t="s">
         <v>3</v>
       </c>
       <c r="G114" t="s">
         <v>109</v>
+      </c>
+      <c r="H114" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B115" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C115" s="3">
-        <v>59.946049000000002</v>
+        <v>59.819806999999997</v>
       </c>
       <c r="D115" s="3">
-        <v>30.498647999999999</v>
+        <v>30.317252</v>
+      </c>
+      <c r="E115" s="6">
+        <v>45768</v>
+      </c>
+      <c r="F115" t="s">
+        <v>3</v>
+      </c>
+      <c r="G115" t="s">
+        <v>109</v>
+      </c>
+      <c r="H115" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="B116" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C116" s="3">
-        <v>59.723677000000002</v>
+        <v>59.868921</v>
       </c>
       <c r="D116" s="3">
-        <v>30.080950000000001</v>
+        <v>30.350265</v>
+      </c>
+      <c r="E116" s="6">
+        <v>45770</v>
+      </c>
+      <c r="F116" t="s">
+        <v>3</v>
+      </c>
+      <c r="G116" t="s">
+        <v>109</v>
+      </c>
+      <c r="H116" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>170</v>
+        <v>262</v>
       </c>
       <c r="B117" t="s">
-        <v>41</v>
-      </c>
-      <c r="C117" s="3">
-        <v>59.819806999999997</v>
-      </c>
-      <c r="D117" s="3">
-        <v>30.317252</v>
+        <v>259</v>
+      </c>
+      <c r="C117" s="4">
+        <v>64.557015000000007</v>
+      </c>
+      <c r="D117" s="4">
+        <v>39.774903000000002</v>
       </c>
       <c r="E117" s="6">
-        <v>45768</v>
+        <v>45771</v>
       </c>
       <c r="F117" t="s">
-        <v>3</v>
+        <v>265</v>
       </c>
       <c r="G117" t="s">
         <v>109</v>
       </c>
       <c r="H117" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="B118" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C118" s="3">
-        <v>59.868921</v>
+        <v>59.746709000000003</v>
       </c>
       <c r="D118" s="3">
-        <v>30.350265</v>
+        <v>30.497157000000001</v>
       </c>
       <c r="E118" s="6">
-        <v>45770</v>
+        <v>45773</v>
       </c>
       <c r="F118" t="s">
         <v>3</v>
       </c>
       <c r="G118" t="s">
         <v>109</v>
-      </c>
-      <c r="H118" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -5013,177 +5073,126 @@
       <c r="D119" s="3">
         <v>30.431221000000001</v>
       </c>
+      <c r="E119" s="6">
+        <v>45774</v>
+      </c>
+      <c r="F119" t="s">
+        <v>3</v>
+      </c>
+      <c r="G119" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>233</v>
+        <v>133</v>
       </c>
       <c r="B120" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="C120" s="3">
-        <v>60.052154999999999</v>
+        <v>60.007587000000001</v>
       </c>
       <c r="D120" s="3">
-        <v>30.435487999999999</v>
+        <v>30.259732</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>237</v>
+        <v>136</v>
       </c>
       <c r="B121" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="C121" s="3">
-        <v>59.444727</v>
+        <v>60.002080999999997</v>
       </c>
       <c r="D121" s="3">
-        <v>32.042394000000002</v>
+        <v>30.272632000000002</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>238</v>
+        <v>151</v>
       </c>
       <c r="B122" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="C122" s="3">
-        <v>59.642857999999997</v>
+        <v>59.989381999999999</v>
       </c>
       <c r="D122" s="3">
-        <v>33.547027</v>
-      </c>
-      <c r="E122" s="6">
-        <v>45759</v>
-      </c>
-      <c r="F122" t="s">
-        <v>3</v>
-      </c>
-      <c r="G122" t="s">
-        <v>110</v>
-      </c>
-      <c r="H122" t="s">
-        <v>409</v>
+        <v>30.257289</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>246</v>
+        <v>166</v>
       </c>
       <c r="B123" t="s">
-        <v>127</v>
-      </c>
-      <c r="C123" s="4">
-        <v>59.202885999999999</v>
-      </c>
-      <c r="D123" s="4">
-        <v>39.812596999999997</v>
-      </c>
-      <c r="E123" s="6">
-        <v>45760</v>
-      </c>
-      <c r="F123" t="s">
-        <v>3</v>
-      </c>
-      <c r="G123" t="s">
-        <v>403</v>
-      </c>
-      <c r="H123" t="s">
-        <v>408</v>
+        <v>69</v>
+      </c>
+      <c r="C123" s="3">
+        <v>59.946049000000002</v>
+      </c>
+      <c r="D123" s="3">
+        <v>30.498647999999999</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>262</v>
+        <v>167</v>
       </c>
       <c r="B124" t="s">
-        <v>259</v>
-      </c>
-      <c r="C124" s="4">
-        <v>64.557015000000007</v>
-      </c>
-      <c r="D124" s="4">
-        <v>39.774903000000002</v>
-      </c>
-      <c r="E124" s="6">
-        <v>45771</v>
-      </c>
-      <c r="F124" t="s">
-        <v>265</v>
-      </c>
-      <c r="G124" t="s">
-        <v>109</v>
-      </c>
-      <c r="H124" t="s">
-        <v>413</v>
+        <v>86</v>
+      </c>
+      <c r="C124" s="3">
+        <v>59.723677000000002</v>
+      </c>
+      <c r="D124" s="3">
+        <v>30.080950000000001</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>233</v>
+      </c>
+      <c r="B125" t="s">
+        <v>112</v>
+      </c>
+      <c r="C125" s="3">
+        <v>60.052154999999999</v>
+      </c>
+      <c r="D125" s="3">
+        <v>30.435487999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>237</v>
+      </c>
+      <c r="B126" t="s">
+        <v>116</v>
+      </c>
+      <c r="C126" s="3">
+        <v>59.444727</v>
+      </c>
+      <c r="D126" s="3">
+        <v>32.042394000000002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>263</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B127" t="s">
         <v>260</v>
       </c>
-      <c r="C125" s="4">
+      <c r="C127" s="4">
         <v>64.531290999999996</v>
       </c>
-      <c r="D125" s="4">
+      <c r="D127" s="4">
         <v>40.615519999999997</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="C126" s="4">
-        <v>59.126367000000002</v>
-      </c>
-      <c r="D126" s="4">
-        <v>37.920817</v>
-      </c>
-      <c r="E126" s="6">
-        <v>45759</v>
-      </c>
-      <c r="F126" t="s">
-        <v>3</v>
-      </c>
-      <c r="G126" t="s">
-        <v>403</v>
-      </c>
-      <c r="H126" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="C127" s="4">
-        <v>59.089959</v>
-      </c>
-      <c r="D127" s="4">
-        <v>37.915553000000003</v>
-      </c>
-      <c r="E127" s="6">
-        <v>45759</v>
-      </c>
-      <c r="F127" t="s">
-        <v>265</v>
-      </c>
-      <c r="G127" t="s">
-        <v>403</v>
-      </c>
-      <c r="H127" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5203,7 +5212,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F42 J2:J12 N89 J36 J19:J20 J41 J15:J17 J25:J34 J22 J43:J44 J46:J1048576" xr:uid="{03745927-94AE-4209-8723-9E55A3D49B44}">
       <formula1>"Зеленый , Красный"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N42 F2:F41 J42 J13:J14 J37:J40 J18 J21 J35 J23:J24 F43:F1048576 J45" xr:uid="{211AAABF-0A7D-4C24-BC69-0BF1E1114FDC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N42 F2:F41 J42 J13:J14 J37:J40 J18 J21 J35 J23:J24 J45 F43:F1048576" xr:uid="{211AAABF-0A7D-4C24-BC69-0BF1E1114FDC}">
       <formula1>"Зеленый , Красный , Золотой"</formula1>
     </dataValidation>
   </dataValidations>

--- a/restaurants.xlsx
+++ b/restaurants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kroli\PycharmProjects\MAP_JS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EDD159-7C4D-436E-9BE5-EEFCAEF15369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF088F3-BB6B-4921-92C4-808B87926297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{38334122-D6CB-41C0-898C-DC56B1951378}"/>
   </bookViews>
@@ -1703,7 +1703,7 @@
   <dimension ref="A1:P128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E119" sqref="E119"/>
+      <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5074,7 +5074,7 @@
         <v>30.431221000000001</v>
       </c>
       <c r="E119" s="6">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="F119" t="s">
         <v>3</v>

--- a/restaurants.xlsx
+++ b/restaurants.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kroli\PycharmProjects\MAP_JS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF088F3-BB6B-4921-92C4-808B87926297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C477C8-13A4-4C3C-9F0C-5A9A5C860383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{38334122-D6CB-41C0-898C-DC56B1951378}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{38334122-D6CB-41C0-898C-DC56B1951378}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$P$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$R$127</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="437">
   <si>
     <t>Дата аудита</t>
   </si>
@@ -1279,6 +1279,75 @@
   </si>
   <si>
     <t>https://portal.irb.rest/view_play_resource.html?object_id=7149807268655481643</t>
+  </si>
+  <si>
+    <t>Маркет</t>
+  </si>
+  <si>
+    <t>Территория</t>
+  </si>
+  <si>
+    <t>Румянцев Валентин Николаевич</t>
+  </si>
+  <si>
+    <t>Галдина Валерия Юрьевна</t>
+  </si>
+  <si>
+    <t>Маслов Юрий Игоревич</t>
+  </si>
+  <si>
+    <t>Мангишева Елена Николаевна</t>
+  </si>
+  <si>
+    <t>Савельев Алексей Сергеевич</t>
+  </si>
+  <si>
+    <t>Мельник Сергей Станиславович</t>
+  </si>
+  <si>
+    <t>Цыпилов Жаргал Сергеевич</t>
+  </si>
+  <si>
+    <t>Быстрова Елена Алексеевна</t>
+  </si>
+  <si>
+    <t>Суханов Олег Игоревич</t>
+  </si>
+  <si>
+    <t>Абросимова Елизавета Ильинична</t>
+  </si>
+  <si>
+    <t>Морокова Анна Сергеевна</t>
+  </si>
+  <si>
+    <t>Козлова Ольга Алексеевна</t>
+  </si>
+  <si>
+    <t>Бикбов Николай Ильдарович</t>
+  </si>
+  <si>
+    <t>Александров Олег Вячеславович</t>
+  </si>
+  <si>
+    <t>Багаутдинов Тимур Фергатович</t>
+  </si>
+  <si>
+    <t>Денисова Ирина Анатольевна</t>
+  </si>
+  <si>
+    <t>Семенов Алексей Дмитриевич</t>
+  </si>
+  <si>
+    <t>Смирнов Дмитрий Яковлевич</t>
+  </si>
+  <si>
+    <t>Попов Артем Юрьевич</t>
+  </si>
+  <si>
+    <t>Федосеенкова Евгения Алексеевна</t>
+  </si>
+  <si>
+    <t>Шевченко Татьяна Викторовна</t>
   </si>
 </sst>
 </file>
@@ -1700,10 +1769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C7E0F2-4CF5-4E0D-8C81-180A66B4648E}">
-  <dimension ref="A1:P128"/>
+  <dimension ref="A1:R128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+    <sheetView tabSelected="1" topLeftCell="B70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1712,17 +1781,19 @@
     <col min="2" max="2" width="117.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
-    <col min="8" max="8" width="74.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" customWidth="1"/>
-    <col min="12" max="12" width="74.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="74.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="14" max="14" width="74.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>97</v>
       </c>
@@ -1735,44 +1806,50 @@
       <c r="D1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>126</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>248</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>251</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>252</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>283</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>206</v>
       </c>
@@ -1785,20 +1862,26 @@
       <c r="D2" s="3">
         <v>30.371158999999999</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="G2" s="6">
         <v>45667</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>128</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>268</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>220</v>
       </c>
@@ -1811,20 +1894,26 @@
       <c r="D3" s="3">
         <v>30.404083</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G3" s="6">
         <v>45667</v>
       </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
         <v>268</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>223</v>
       </c>
@@ -1837,20 +1926,26 @@
       <c r="D4" s="3">
         <v>30.349509999999999</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="G4" s="6">
         <v>45667</v>
       </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
         <v>268</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>164</v>
       </c>
@@ -1863,20 +1958,26 @@
       <c r="D5" s="3">
         <v>30.248172032325829</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="G5" s="6">
         <v>45668</v>
       </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
         <v>268</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>180</v>
       </c>
@@ -1889,20 +1990,26 @@
       <c r="D6" s="3">
         <v>30.268383</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="G6" s="6">
         <v>45668</v>
       </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
         <v>268</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>219</v>
       </c>
@@ -1915,20 +2022,26 @@
       <c r="D7" s="3">
         <v>30.224481999999998</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="G7" s="6">
         <v>45668</v>
       </c>
-      <c r="F7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
         <v>268</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>131</v>
       </c>
@@ -1941,20 +2054,26 @@
       <c r="D8" s="3">
         <v>30.261116000000001</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="G8" s="6">
         <v>45669</v>
       </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
         <v>268</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>225</v>
       </c>
@@ -1967,20 +2086,26 @@
       <c r="D9" s="3">
         <v>28.289952</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="G9" s="6">
         <v>45670</v>
       </c>
-      <c r="F9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
         <v>268</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>227</v>
       </c>
@@ -1993,20 +2118,26 @@
       <c r="D10" s="3">
         <v>28.416497</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="G10" s="6">
         <v>45670</v>
       </c>
-      <c r="F10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
         <v>268</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>217</v>
       </c>
@@ -2019,20 +2150,26 @@
       <c r="D11" s="3">
         <v>30.374600000000001</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="G11" s="6">
         <v>45671</v>
       </c>
-      <c r="F11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" t="s">
         <v>268</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>230</v>
       </c>
@@ -2045,20 +2182,26 @@
       <c r="D12" s="3">
         <v>31.231593</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="G12" s="6">
         <v>45682</v>
       </c>
-      <c r="F12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" t="s">
-        <v>109</v>
-      </c>
       <c r="H12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>183</v>
       </c>
@@ -2071,20 +2214,26 @@
       <c r="D13" s="3">
         <v>30.354575928408831</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="G13" s="6">
         <v>45684</v>
       </c>
-      <c r="F13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" t="s">
-        <v>109</v>
-      </c>
       <c r="H13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>194</v>
       </c>
@@ -2097,20 +2246,26 @@
       <c r="D14" s="3">
         <v>30.359607</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="G14" s="6">
         <v>45684</v>
       </c>
-      <c r="F14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" t="s">
-        <v>109</v>
-      </c>
       <c r="H14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>153</v>
       </c>
@@ -2123,20 +2278,26 @@
       <c r="D15" s="3">
         <v>30.353912000000001</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G15" s="6">
         <v>45685</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>128</v>
       </c>
-      <c r="G15" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
+        <v>109</v>
+      </c>
+      <c r="J15" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>209</v>
       </c>
@@ -2149,20 +2310,26 @@
       <c r="D16" s="3">
         <v>30.367647000000002</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G16" s="6">
         <v>45685</v>
       </c>
-      <c r="F16" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" t="s">
-        <v>109</v>
-      </c>
       <c r="H16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>109</v>
+      </c>
+      <c r="J16" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>172</v>
       </c>
@@ -2175,20 +2342,26 @@
       <c r="D17" s="3">
         <v>30.443258</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="G17" s="6">
         <v>45686</v>
       </c>
-      <c r="F17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" t="s">
-        <v>109</v>
-      </c>
       <c r="H17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>229</v>
       </c>
@@ -2201,20 +2374,26 @@
       <c r="D18" s="3">
         <v>30.514641999999998</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="G18" s="6">
         <v>45686</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>128</v>
       </c>
-      <c r="G18" t="s">
-        <v>109</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
+        <v>109</v>
+      </c>
+      <c r="J18" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>148</v>
       </c>
@@ -2227,20 +2406,26 @@
       <c r="D19" s="3">
         <v>30.165687999999999</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="G19" s="6">
         <v>45687</v>
       </c>
-      <c r="F19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" t="s">
-        <v>109</v>
-      </c>
       <c r="H19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" t="s">
+        <v>109</v>
+      </c>
+      <c r="J19" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>208</v>
       </c>
@@ -2253,20 +2438,26 @@
       <c r="D20" s="3">
         <v>30.114124</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="G20" s="6">
         <v>45687</v>
       </c>
-      <c r="F20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" t="s">
-        <v>109</v>
-      </c>
       <c r="H20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>192</v>
       </c>
@@ -2279,20 +2470,26 @@
       <c r="D21" s="3">
         <v>30.311420999999999</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="G21" s="6">
         <v>45688</v>
       </c>
-      <c r="F21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" t="s">
-        <v>109</v>
-      </c>
       <c r="H21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" t="s">
+        <v>109</v>
+      </c>
+      <c r="J21" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>215</v>
       </c>
@@ -2305,20 +2502,26 @@
       <c r="D22" s="3">
         <v>30.289556000000001</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="G22" s="6">
         <v>45688</v>
       </c>
-      <c r="F22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" t="s">
-        <v>109</v>
-      </c>
       <c r="H22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" t="s">
+        <v>109</v>
+      </c>
+      <c r="J22" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>137</v>
       </c>
@@ -2331,20 +2534,26 @@
       <c r="D23" s="3">
         <v>30.377960000000002</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="G23" s="6">
         <v>45697</v>
       </c>
-      <c r="F23" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" t="s">
-        <v>109</v>
-      </c>
       <c r="H23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>147</v>
       </c>
@@ -2357,20 +2566,26 @@
       <c r="D24" s="3">
         <v>30.390364999999999</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="G24" s="6">
         <v>45697</v>
       </c>
-      <c r="F24" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" t="s">
-        <v>109</v>
-      </c>
       <c r="H24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" t="s">
+        <v>109</v>
+      </c>
+      <c r="J24" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>141</v>
       </c>
@@ -2383,20 +2598,26 @@
       <c r="D25" s="3">
         <v>30.370504</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="G25" s="6">
         <v>45698</v>
       </c>
-      <c r="F25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" t="s">
-        <v>109</v>
-      </c>
       <c r="H25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" t="s">
+        <v>109</v>
+      </c>
+      <c r="J25" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>176</v>
       </c>
@@ -2409,20 +2630,26 @@
       <c r="D26" s="3">
         <v>30.379325000000001</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="G26" s="6">
         <v>45698</v>
       </c>
-      <c r="F26" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" t="s">
-        <v>109</v>
-      </c>
       <c r="H26" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" t="s">
+        <v>109</v>
+      </c>
+      <c r="J26" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>213</v>
       </c>
@@ -2435,20 +2662,26 @@
       <c r="D27" s="3">
         <v>30.370405000000002</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="G27" s="6">
         <v>45698</v>
       </c>
-      <c r="F27" t="s">
+      <c r="H27" t="s">
         <v>128</v>
       </c>
-      <c r="G27" t="s">
-        <v>109</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
+        <v>109</v>
+      </c>
+      <c r="J27" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>155</v>
       </c>
@@ -2461,20 +2694,26 @@
       <c r="D28" s="3">
         <v>30.347363000000001</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="G28" s="6">
         <v>45700</v>
       </c>
-      <c r="F28" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" t="s">
-        <v>109</v>
-      </c>
       <c r="H28" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" t="s">
+        <v>109</v>
+      </c>
+      <c r="J28" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -2487,32 +2726,38 @@
       <c r="D29" s="3">
         <v>30.572095000000001</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="G29" s="6">
         <v>45709</v>
       </c>
-      <c r="F29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" t="s">
-        <v>109</v>
-      </c>
       <c r="H29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" t="s">
+        <v>109</v>
+      </c>
+      <c r="J29" t="s">
         <v>314</v>
       </c>
-      <c r="I29" s="6">
+      <c r="K29" s="6">
         <v>45666</v>
       </c>
-      <c r="J29" t="s">
+      <c r="L29" t="s">
         <v>5</v>
       </c>
-      <c r="K29" t="s">
+      <c r="M29" t="s">
         <v>268</v>
       </c>
-      <c r="L29" t="s">
+      <c r="N29" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>207</v>
       </c>
@@ -2525,32 +2770,38 @@
       <c r="D30" s="3">
         <v>30.471869999999999</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="G30" s="6">
         <v>45709</v>
       </c>
-      <c r="F30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" t="s">
-        <v>109</v>
-      </c>
       <c r="H30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" t="s">
+        <v>109</v>
+      </c>
+      <c r="J30" t="s">
         <v>317</v>
       </c>
-      <c r="I30" s="6">
+      <c r="K30" s="6">
         <v>45671</v>
       </c>
-      <c r="J30" t="s">
+      <c r="L30" t="s">
         <v>5</v>
       </c>
-      <c r="K30" t="s">
+      <c r="M30" t="s">
         <v>268</v>
       </c>
-      <c r="L30" t="s">
+      <c r="N30" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -2563,20 +2814,26 @@
       <c r="D31" s="3">
         <v>30.406616</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="G31" s="6">
         <v>45712</v>
       </c>
-      <c r="F31" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" t="s">
-        <v>109</v>
-      </c>
       <c r="H31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" t="s">
+        <v>109</v>
+      </c>
+      <c r="J31" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>189</v>
       </c>
@@ -2589,20 +2846,26 @@
       <c r="D32" s="3">
         <v>30.418365999999999</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="G32" s="6">
         <v>45712</v>
       </c>
-      <c r="F32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" t="s">
         <v>110</v>
       </c>
-      <c r="H32" t="s">
+      <c r="J32" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>145</v>
       </c>
@@ -2615,20 +2878,26 @@
       <c r="D33" s="3">
         <v>30.256830999999998</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="G33" s="6">
         <v>45713</v>
       </c>
-      <c r="F33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" t="s">
-        <v>109</v>
-      </c>
       <c r="H33" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" t="s">
+        <v>109</v>
+      </c>
+      <c r="J33" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>168</v>
       </c>
@@ -2641,20 +2910,26 @@
       <c r="D34" s="3">
         <v>30.375803999999999</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="G34" s="6">
         <v>45713</v>
       </c>
-      <c r="F34" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" t="s">
         <v>110</v>
       </c>
-      <c r="H34" t="s">
+      <c r="J34" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>169</v>
       </c>
@@ -2667,20 +2942,26 @@
       <c r="D35" s="3">
         <v>30.367889999999999</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="G35" s="6">
         <v>45713</v>
       </c>
-      <c r="F35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" t="s">
         <v>110</v>
       </c>
-      <c r="H35" t="s">
+      <c r="J35" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>188</v>
       </c>
@@ -2693,20 +2974,26 @@
       <c r="D36" s="3">
         <v>30.260352000000001</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="G36" s="6">
         <v>45713</v>
       </c>
-      <c r="F36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G36" t="s">
-        <v>109</v>
-      </c>
       <c r="H36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36" t="s">
+        <v>109</v>
+      </c>
+      <c r="J36" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>204</v>
       </c>
@@ -2719,20 +3006,26 @@
       <c r="D37" s="3">
         <v>29.957279</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="G37" s="6">
         <v>45713</v>
       </c>
-      <c r="F37" t="s">
-        <v>3</v>
-      </c>
-      <c r="G37" t="s">
-        <v>109</v>
-      </c>
       <c r="H37" t="s">
+        <v>3</v>
+      </c>
+      <c r="I37" t="s">
+        <v>109</v>
+      </c>
+      <c r="J37" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>160</v>
       </c>
@@ -2745,20 +3038,26 @@
       <c r="D38" s="3">
         <v>30.358781</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="G38" s="6">
         <v>45714</v>
       </c>
-      <c r="F38" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" t="s">
-        <v>109</v>
-      </c>
       <c r="H38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I38" t="s">
+        <v>109</v>
+      </c>
+      <c r="J38" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>177</v>
       </c>
@@ -2771,20 +3070,26 @@
       <c r="D39" s="3">
         <v>30.205788999999999</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G39" s="6">
         <v>45714</v>
       </c>
-      <c r="F39" t="s">
-        <v>3</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
+        <v>3</v>
+      </c>
+      <c r="I39" t="s">
         <v>110</v>
       </c>
-      <c r="H39" t="s">
+      <c r="J39" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>193</v>
       </c>
@@ -2797,20 +3102,26 @@
       <c r="D40" s="3">
         <v>30.210315999999999</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="G40" s="6">
         <v>45714</v>
       </c>
-      <c r="F40" t="s">
-        <v>3</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
+        <v>3</v>
+      </c>
+      <c r="I40" t="s">
         <v>110</v>
       </c>
-      <c r="H40" t="s">
+      <c r="J40" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>195</v>
       </c>
@@ -2823,20 +3134,26 @@
       <c r="D41" s="3">
         <v>30.226108</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="G41" s="6">
         <v>45714</v>
       </c>
-      <c r="F41" t="s">
+      <c r="H41" t="s">
         <v>128</v>
       </c>
-      <c r="G41" t="s">
+      <c r="I41" t="s">
         <v>110</v>
       </c>
-      <c r="H41" t="s">
+      <c r="J41" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>186</v>
       </c>
@@ -2849,32 +3166,38 @@
       <c r="D42" s="3">
         <v>30.320665000000002</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="G42" s="6">
         <v>45715</v>
       </c>
-      <c r="F42" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" t="s">
-        <v>109</v>
-      </c>
       <c r="H42" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J42" t="s">
         <v>332</v>
       </c>
-      <c r="I42" s="6">
+      <c r="K42" s="6">
         <v>45683</v>
       </c>
-      <c r="J42" t="s">
+      <c r="L42" t="s">
         <v>5</v>
       </c>
-      <c r="K42" t="s">
-        <v>109</v>
-      </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
+        <v>109</v>
+      </c>
+      <c r="N42" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>191</v>
       </c>
@@ -2887,20 +3210,26 @@
       <c r="D43" s="3">
         <v>30.336296000000001</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="G43" s="6">
         <v>45715</v>
       </c>
-      <c r="F43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" t="s">
-        <v>109</v>
-      </c>
       <c r="H43" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" t="s">
+        <v>109</v>
+      </c>
+      <c r="J43" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>221</v>
       </c>
@@ -2913,20 +3242,26 @@
       <c r="D44" s="3">
         <v>30.308394</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="G44" s="6">
         <v>45715</v>
       </c>
-      <c r="F44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" t="s">
-        <v>109</v>
-      </c>
       <c r="H44" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" t="s">
+        <v>109</v>
+      </c>
+      <c r="J44" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>232</v>
       </c>
@@ -2939,32 +3274,38 @@
       <c r="D45" s="3">
         <v>29.085877</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G45" s="6">
         <v>45715</v>
       </c>
-      <c r="F45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" t="s">
         <v>110</v>
       </c>
-      <c r="H45" t="s">
+      <c r="J45" t="s">
         <v>334</v>
       </c>
-      <c r="I45" s="6">
+      <c r="K45" s="6">
         <v>45669</v>
       </c>
-      <c r="J45" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" t="s">
         <v>111</v>
       </c>
-      <c r="L45" t="s">
+      <c r="N45" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>161</v>
       </c>
@@ -2977,20 +3318,26 @@
       <c r="D46" s="3">
         <v>30.315885999999999</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="G46" s="6">
         <v>45716</v>
       </c>
-      <c r="F46" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" t="s">
         <v>110</v>
       </c>
-      <c r="H46" t="s">
+      <c r="J46" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>185</v>
       </c>
@@ -3003,20 +3350,26 @@
       <c r="D47" s="3">
         <v>30.349142000000001</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G47" s="6">
         <v>45716</v>
       </c>
-      <c r="F47" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" t="s">
         <v>110</v>
       </c>
-      <c r="H47" t="s">
+      <c r="J47" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>201</v>
       </c>
@@ -3029,32 +3382,38 @@
       <c r="D48" s="3">
         <v>31.267274</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="G48" s="6">
         <v>45716</v>
       </c>
-      <c r="F48" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" t="s">
-        <v>109</v>
-      </c>
       <c r="H48" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" t="s">
+        <v>109</v>
+      </c>
+      <c r="J48" t="s">
         <v>340</v>
       </c>
-      <c r="I48" s="6">
+      <c r="K48" s="6">
         <v>45682</v>
       </c>
-      <c r="J48" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" t="s">
-        <v>109</v>
-      </c>
       <c r="L48" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" t="s">
+        <v>109</v>
+      </c>
+      <c r="N48" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>231</v>
       </c>
@@ -3067,32 +3426,38 @@
       <c r="D49" s="3">
         <v>31.231107999999999</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="G49" s="6">
         <v>45716</v>
       </c>
-      <c r="F49" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" t="s">
-        <v>109</v>
-      </c>
       <c r="H49" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" t="s">
+        <v>109</v>
+      </c>
+      <c r="J49" t="s">
         <v>338</v>
       </c>
-      <c r="I49" s="6">
+      <c r="K49" s="6">
         <v>45682</v>
       </c>
-      <c r="J49" t="s">
+      <c r="L49" t="s">
         <v>5</v>
       </c>
-      <c r="K49" t="s">
-        <v>109</v>
-      </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
+        <v>109</v>
+      </c>
+      <c r="N49" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>173</v>
       </c>
@@ -3105,17 +3470,23 @@
       <c r="D50" s="3">
         <v>30.446878000000002</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G50" s="6">
         <v>45719</v>
       </c>
-      <c r="F50" t="s">
-        <v>3</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
+        <v>3</v>
+      </c>
+      <c r="I50" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>216</v>
       </c>
@@ -3128,32 +3499,38 @@
       <c r="D51" s="3">
         <v>30.377905999999999</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G51" s="6">
         <v>45719</v>
       </c>
-      <c r="F51" t="s">
-        <v>3</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
+        <v>3</v>
+      </c>
+      <c r="I51" t="s">
         <v>110</v>
       </c>
-      <c r="H51" t="s">
+      <c r="J51" t="s">
         <v>342</v>
       </c>
-      <c r="I51" s="6">
+      <c r="K51" s="6">
         <v>45685</v>
       </c>
-      <c r="J51" t="s">
+      <c r="L51" t="s">
         <v>5</v>
       </c>
-      <c r="K51" t="s">
-        <v>109</v>
-      </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
+        <v>109</v>
+      </c>
+      <c r="N51" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>242</v>
       </c>
@@ -3166,20 +3543,26 @@
       <c r="D52" s="3">
         <v>30.985507999999999</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="G52" s="6">
         <v>45719</v>
       </c>
-      <c r="F52" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" t="s">
-        <v>109</v>
-      </c>
       <c r="H52" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" t="s">
+        <v>109</v>
+      </c>
+      <c r="J52" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>243</v>
       </c>
@@ -3192,20 +3575,26 @@
       <c r="D53" s="4">
         <v>34.30782</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="G53" s="6">
         <v>45720</v>
       </c>
-      <c r="F53" t="s">
-        <v>3</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I53" t="s">
         <v>110</v>
       </c>
-      <c r="H53" t="s">
+      <c r="J53" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>244</v>
       </c>
@@ -3218,20 +3607,26 @@
       <c r="D54" s="4">
         <v>34.356696999999997</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="G54" s="6">
         <v>45720</v>
       </c>
-      <c r="F54" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
+        <v>3</v>
+      </c>
+      <c r="I54" t="s">
         <v>110</v>
       </c>
-      <c r="H54" t="s">
+      <c r="J54" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>245</v>
       </c>
@@ -3244,20 +3639,26 @@
       <c r="D55" s="4">
         <v>34.30782</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="G55" s="6">
         <v>45720</v>
       </c>
-      <c r="F55" t="s">
-        <v>3</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
+        <v>3</v>
+      </c>
+      <c r="I55" t="s">
         <v>110</v>
       </c>
-      <c r="H55" t="s">
+      <c r="J55" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>150</v>
       </c>
@@ -3270,20 +3671,26 @@
       <c r="D56" s="3">
         <v>30.335011000000002</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="G56" s="6">
         <v>45721</v>
       </c>
-      <c r="F56" t="s">
+      <c r="H56" t="s">
         <v>5</v>
       </c>
-      <c r="G56" t="s">
-        <v>109</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
+        <v>109</v>
+      </c>
+      <c r="J56" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>182</v>
       </c>
@@ -3296,20 +3703,26 @@
       <c r="D57" s="3">
         <v>30.378786000000002</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="G57" s="6">
         <v>45722</v>
       </c>
-      <c r="F57" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" t="s">
-        <v>109</v>
-      </c>
       <c r="H57" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" t="s">
+        <v>109</v>
+      </c>
+      <c r="J57" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>234</v>
       </c>
@@ -3322,20 +3735,26 @@
       <c r="D58" s="3">
         <v>30.655791000000001</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="G58" s="6">
         <v>45722</v>
       </c>
-      <c r="F58" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" t="s">
         <v>110</v>
       </c>
-      <c r="H58" t="s">
+      <c r="J58" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>235</v>
       </c>
@@ -3348,20 +3767,26 @@
       <c r="D59" s="3">
         <v>30.628446</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="G59" s="6">
         <v>45722</v>
       </c>
-      <c r="F59" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" t="s">
         <v>110</v>
       </c>
-      <c r="H59" t="s">
+      <c r="J59" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>174</v>
       </c>
@@ -3374,20 +3799,26 @@
       <c r="D60" s="3">
         <v>30.338137</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="G60" s="6">
         <v>45723</v>
       </c>
-      <c r="F60" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
+        <v>3</v>
+      </c>
+      <c r="I60" t="s">
         <v>110</v>
       </c>
-      <c r="H60" t="s">
+      <c r="J60" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>247</v>
       </c>
@@ -3400,20 +3831,26 @@
       <c r="D61" s="4">
         <v>28.749079999999999</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="G61" s="6">
         <v>45723</v>
       </c>
-      <c r="F61" t="s">
-        <v>3</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
+        <v>3</v>
+      </c>
+      <c r="I61" t="s">
         <v>110</v>
       </c>
-      <c r="H61" t="s">
+      <c r="J61" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>175</v>
       </c>
@@ -3426,20 +3863,26 @@
       <c r="D62" s="3">
         <v>30.379602999999999</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G62" s="6">
         <v>45725</v>
       </c>
-      <c r="F62" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" t="s">
-        <v>109</v>
-      </c>
       <c r="H62" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" t="s">
+        <v>109</v>
+      </c>
+      <c r="J62" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>200</v>
       </c>
@@ -3452,20 +3895,26 @@
       <c r="D63" s="3">
         <v>30.367754999999999</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="G63" s="6">
         <v>45725</v>
       </c>
-      <c r="F63" t="s">
-        <v>3</v>
-      </c>
-      <c r="G63" t="s">
-        <v>109</v>
-      </c>
       <c r="H63" t="s">
+        <v>3</v>
+      </c>
+      <c r="I63" t="s">
+        <v>109</v>
+      </c>
+      <c r="J63" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>179</v>
       </c>
@@ -3478,20 +3927,26 @@
       <c r="D64" s="3">
         <v>30.318006</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="G64" s="6">
         <v>45726</v>
       </c>
-      <c r="F64" t="s">
-        <v>3</v>
-      </c>
-      <c r="G64" t="s">
-        <v>109</v>
-      </c>
       <c r="H64" t="s">
+        <v>3</v>
+      </c>
+      <c r="I64" t="s">
+        <v>109</v>
+      </c>
+      <c r="J64" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>197</v>
       </c>
@@ -3504,20 +3959,26 @@
       <c r="D65" s="3">
         <v>30.320799999999998</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="G65" s="6">
         <v>45728</v>
       </c>
-      <c r="F65" t="s">
-        <v>3</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
+        <v>3</v>
+      </c>
+      <c r="I65" t="s">
         <v>130</v>
       </c>
-      <c r="H65" t="s">
+      <c r="J65" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>132</v>
       </c>
@@ -3530,20 +3991,26 @@
       <c r="D66" s="3">
         <v>30.397811999999998</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="G66" s="6">
         <v>45729</v>
       </c>
-      <c r="F66" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
+        <v>3</v>
+      </c>
+      <c r="I66" t="s">
         <v>130</v>
       </c>
-      <c r="H66" t="s">
+      <c r="J66" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>149</v>
       </c>
@@ -3556,20 +4023,26 @@
       <c r="D67" s="3">
         <v>30.414521000000001</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="G67" s="6">
         <v>45729</v>
       </c>
-      <c r="F67" t="s">
-        <v>3</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
+        <v>3</v>
+      </c>
+      <c r="I67" t="s">
         <v>130</v>
       </c>
-      <c r="H67" t="s">
+      <c r="J67" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>236</v>
       </c>
@@ -3582,20 +4055,26 @@
       <c r="D68" s="3">
         <v>30.443977</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G68" s="6">
         <v>45729</v>
       </c>
-      <c r="F68" t="s">
-        <v>3</v>
-      </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
+        <v>3</v>
+      </c>
+      <c r="I68" t="s">
         <v>130</v>
       </c>
-      <c r="H68" t="s">
+      <c r="J68" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>157</v>
       </c>
@@ -3608,20 +4087,26 @@
       <c r="D69" s="3">
         <v>30.309086000000001</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="G69" s="6">
         <v>45730</v>
       </c>
-      <c r="F69" t="s">
-        <v>3</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
+        <v>3</v>
+      </c>
+      <c r="I69" t="s">
         <v>130</v>
       </c>
-      <c r="H69" t="s">
+      <c r="J69" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>171</v>
       </c>
@@ -3634,32 +4119,38 @@
       <c r="D70" s="3">
         <v>30.358125000000001</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E70" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G70" s="6">
         <v>45730</v>
       </c>
-      <c r="F70" t="s">
-        <v>3</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I70" t="s">
         <v>130</v>
       </c>
-      <c r="H70" t="s">
+      <c r="J70" t="s">
         <v>360</v>
       </c>
-      <c r="I70" s="6">
+      <c r="K70" s="6">
         <v>45681</v>
       </c>
-      <c r="J70" t="s">
+      <c r="L70" t="s">
         <v>5</v>
       </c>
-      <c r="K70" t="s">
-        <v>109</v>
-      </c>
-      <c r="L70" t="s">
+      <c r="M70" t="s">
+        <v>109</v>
+      </c>
+      <c r="N70" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>152</v>
       </c>
@@ -3672,20 +4163,26 @@
       <c r="D71" s="3">
         <v>30.483539</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E71" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="G71" s="6">
         <v>45731</v>
       </c>
-      <c r="F71" t="s">
-        <v>3</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
+        <v>3</v>
+      </c>
+      <c r="I71" t="s">
         <v>130</v>
       </c>
-      <c r="H71" t="s">
+      <c r="J71" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>187</v>
       </c>
@@ -3698,20 +4195,26 @@
       <c r="D72" s="3">
         <v>30.480449</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E72" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="G72" s="6">
         <v>45731</v>
       </c>
-      <c r="F72" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" t="s">
         <v>130</v>
       </c>
-      <c r="H72" t="s">
+      <c r="J72" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>241</v>
       </c>
@@ -3724,20 +4227,26 @@
       <c r="D73" s="3">
         <v>30.511538999999999</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E73" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="G73" s="6">
         <v>45731</v>
       </c>
-      <c r="F73" t="s">
-        <v>3</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
+        <v>3</v>
+      </c>
+      <c r="I73" t="s">
         <v>130</v>
       </c>
-      <c r="H73" t="s">
+      <c r="J73" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>184</v>
       </c>
@@ -3750,32 +4259,38 @@
       <c r="D74" s="3">
         <v>30.331202000000001</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E74" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="G74" s="6">
         <v>45734</v>
       </c>
-      <c r="F74" t="s">
-        <v>3</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
+        <v>3</v>
+      </c>
+      <c r="I74" t="s">
         <v>130</v>
       </c>
-      <c r="H74" t="s">
+      <c r="J74" t="s">
         <v>364</v>
       </c>
-      <c r="I74" s="6">
+      <c r="K74" s="6">
         <v>45683</v>
       </c>
-      <c r="J74" t="s">
+      <c r="L74" t="s">
         <v>5</v>
       </c>
-      <c r="K74" t="s">
-        <v>109</v>
-      </c>
-      <c r="L74" t="s">
+      <c r="M74" t="s">
+        <v>109</v>
+      </c>
+      <c r="N74" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>214</v>
       </c>
@@ -3788,32 +4303,38 @@
       <c r="D75" s="3">
         <v>30.345880999999999</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E75" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="G75" s="6">
         <v>45734</v>
       </c>
-      <c r="F75" t="s">
-        <v>3</v>
-      </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
+        <v>3</v>
+      </c>
+      <c r="I75" t="s">
         <v>130</v>
       </c>
-      <c r="H75" t="s">
+      <c r="J75" t="s">
         <v>363</v>
       </c>
-      <c r="I75" s="6">
+      <c r="K75" s="6">
         <v>45683</v>
       </c>
-      <c r="J75" t="s">
+      <c r="L75" t="s">
         <v>5</v>
       </c>
-      <c r="K75" t="s">
-        <v>109</v>
-      </c>
-      <c r="L75" t="s">
+      <c r="M75" t="s">
+        <v>109</v>
+      </c>
+      <c r="N75" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>258</v>
       </c>
@@ -3826,20 +4347,26 @@
       <c r="D76" s="4">
         <v>33.096037000000003</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E76" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="G76" s="6">
         <v>45743</v>
       </c>
-      <c r="F76" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
+        <v>3</v>
+      </c>
+      <c r="I76" t="s">
         <v>110</v>
       </c>
-      <c r="H76" t="s">
+      <c r="J76" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>257</v>
       </c>
@@ -3852,20 +4379,26 @@
       <c r="D77" s="4">
         <v>33.110868000000004</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E77" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="G77" s="6">
         <v>45744</v>
       </c>
-      <c r="F77" t="s">
-        <v>3</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
+        <v>3</v>
+      </c>
+      <c r="I77" t="s">
         <v>110</v>
       </c>
-      <c r="H77" t="s">
+      <c r="J77" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>256</v>
       </c>
@@ -3878,20 +4411,26 @@
       <c r="D78" s="4">
         <v>33.070579000000002</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E78" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="G78" s="6">
         <v>45744</v>
       </c>
-      <c r="F78" t="s">
+      <c r="H78" t="s">
         <v>265</v>
       </c>
-      <c r="G78" t="s">
+      <c r="I78" t="s">
         <v>110</v>
       </c>
-      <c r="H78" t="s">
+      <c r="J78" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>264</v>
       </c>
@@ -3904,20 +4443,26 @@
       <c r="D79" s="4">
         <v>40.535030999999996</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E79" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="G79" s="6">
         <v>45745</v>
       </c>
-      <c r="F79" t="s">
+      <c r="H79" t="s">
         <v>265</v>
       </c>
-      <c r="G79" t="s">
+      <c r="I79" t="s">
         <v>110</v>
       </c>
-      <c r="H79" t="s">
+      <c r="J79" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>146</v>
       </c>
@@ -3930,44 +4475,50 @@
       <c r="D80" s="3">
         <v>30.360613000000001</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E80" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="G80" s="6">
         <v>45746</v>
       </c>
-      <c r="F80" t="s">
-        <v>3</v>
-      </c>
-      <c r="G80" t="s">
-        <v>109</v>
-      </c>
       <c r="H80" t="s">
+        <v>3</v>
+      </c>
+      <c r="I80" t="s">
+        <v>109</v>
+      </c>
+      <c r="J80" t="s">
         <v>370</v>
       </c>
-      <c r="I80" s="6">
+      <c r="K80" s="6">
         <v>45710</v>
       </c>
-      <c r="J80" t="s">
+      <c r="L80" t="s">
         <v>5</v>
       </c>
-      <c r="K80" t="s">
-        <v>109</v>
-      </c>
-      <c r="L80" t="s">
+      <c r="M80" t="s">
+        <v>109</v>
+      </c>
+      <c r="N80" t="s">
         <v>316</v>
       </c>
-      <c r="M80" s="6">
+      <c r="O80" s="6">
         <v>45681</v>
       </c>
-      <c r="N80" t="s">
-        <v>3</v>
-      </c>
-      <c r="O80" t="s">
-        <v>109</v>
-      </c>
       <c r="P80" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>109</v>
+      </c>
+      <c r="R80" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>196</v>
       </c>
@@ -3980,20 +4531,26 @@
       <c r="D81" s="3">
         <v>30.233115000000002</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E81" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="G81" s="6">
         <v>45746</v>
       </c>
-      <c r="F81" t="s">
+      <c r="H81" t="s">
         <v>265</v>
       </c>
-      <c r="G81" t="s">
-        <v>109</v>
-      </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
+        <v>109</v>
+      </c>
+      <c r="J81" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>203</v>
       </c>
@@ -4006,20 +4563,26 @@
       <c r="D82" s="3">
         <v>30.389655999999999</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E82" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="G82" s="6">
         <v>45746</v>
       </c>
-      <c r="F82" t="s">
-        <v>3</v>
-      </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
+        <v>3</v>
+      </c>
+      <c r="I82" t="s">
         <v>110</v>
       </c>
-      <c r="H82" t="s">
+      <c r="J82" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>205</v>
       </c>
@@ -4032,20 +4595,26 @@
       <c r="D83" s="3">
         <v>30.299060999999998</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E83" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="G83" s="6">
         <v>45746</v>
       </c>
-      <c r="F83" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" t="s">
         <v>110</v>
       </c>
-      <c r="H83" t="s">
+      <c r="J83" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>202</v>
       </c>
@@ -4058,20 +4627,26 @@
       <c r="D84" s="3">
         <v>30.505673000000002</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E84" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="G84" s="6">
         <v>45746</v>
       </c>
-      <c r="F84" t="s">
+      <c r="H84" t="s">
         <v>265</v>
       </c>
-      <c r="G84" t="s">
-        <v>109</v>
-      </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
+        <v>109</v>
+      </c>
+      <c r="J84" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>154</v>
       </c>
@@ -4084,32 +4659,38 @@
       <c r="D85" s="3">
         <v>30.144245000000002</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E85" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="G85" s="6">
         <v>45747</v>
       </c>
-      <c r="F85" t="s">
+      <c r="H85" t="s">
         <v>265</v>
       </c>
-      <c r="G85" t="s">
+      <c r="I85" t="s">
         <v>110</v>
       </c>
-      <c r="H85" t="s">
+      <c r="J85" t="s">
         <v>373</v>
       </c>
-      <c r="I85" s="6">
+      <c r="K85" s="6">
         <v>45687</v>
       </c>
-      <c r="J85" t="s">
-        <v>3</v>
-      </c>
-      <c r="K85" t="s">
-        <v>109</v>
-      </c>
       <c r="L85" t="s">
+        <v>3</v>
+      </c>
+      <c r="M85" t="s">
+        <v>109</v>
+      </c>
+      <c r="N85" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>142</v>
       </c>
@@ -4122,20 +4703,26 @@
       <c r="D86" s="3">
         <v>30.276001000000001</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E86" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="G86" s="6">
         <v>45747</v>
       </c>
-      <c r="F86" t="s">
-        <v>3</v>
-      </c>
-      <c r="G86" t="s">
-        <v>109</v>
-      </c>
       <c r="H86" t="s">
+        <v>3</v>
+      </c>
+      <c r="I86" t="s">
+        <v>109</v>
+      </c>
+      <c r="J86" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>224</v>
       </c>
@@ -4148,32 +4735,38 @@
       <c r="D87" s="3">
         <v>30.613292000000001</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E87" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="G87" s="6">
         <v>45748</v>
       </c>
-      <c r="F87" t="s">
-        <v>3</v>
-      </c>
-      <c r="G87" t="s">
-        <v>109</v>
-      </c>
       <c r="H87" t="s">
+        <v>3</v>
+      </c>
+      <c r="I87" t="s">
+        <v>109</v>
+      </c>
+      <c r="J87" t="s">
         <v>378</v>
       </c>
-      <c r="I87" s="6">
+      <c r="K87" s="6">
         <v>45709</v>
       </c>
-      <c r="J87" t="s">
-        <v>3</v>
-      </c>
-      <c r="K87" t="s">
-        <v>109</v>
-      </c>
       <c r="L87" t="s">
+        <v>3</v>
+      </c>
+      <c r="M87" t="s">
+        <v>109</v>
+      </c>
+      <c r="N87" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>159</v>
       </c>
@@ -4186,32 +4779,38 @@
       <c r="D88" s="3">
         <v>30.437643999999999</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E88" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="G88" s="6">
         <v>45748</v>
       </c>
-      <c r="F88" t="s">
-        <v>3</v>
-      </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
+        <v>3</v>
+      </c>
+      <c r="I88" t="s">
         <v>110</v>
       </c>
-      <c r="H88" t="s">
+      <c r="J88" t="s">
         <v>379</v>
       </c>
-      <c r="I88" s="6">
+      <c r="K88" s="6">
         <v>45712</v>
       </c>
-      <c r="J88" t="s">
-        <v>3</v>
-      </c>
-      <c r="K88" t="s">
+      <c r="L88" t="s">
+        <v>3</v>
+      </c>
+      <c r="M88" t="s">
         <v>110</v>
       </c>
-      <c r="L88" t="s">
+      <c r="N88" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>135</v>
       </c>
@@ -4224,20 +4823,26 @@
       <c r="D89" s="3">
         <v>30.454792999999999</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E89" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="G89" s="6">
         <v>45748</v>
       </c>
-      <c r="F89" t="s">
+      <c r="H89" t="s">
         <v>265</v>
       </c>
-      <c r="G89" t="s">
+      <c r="I89" t="s">
         <v>110</v>
       </c>
-      <c r="H89" t="s">
+      <c r="J89" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>156</v>
       </c>
@@ -4250,20 +4855,26 @@
       <c r="D90" s="3">
         <v>30.424205000000001</v>
       </c>
-      <c r="E90" s="6">
+      <c r="E90" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G90" s="6">
         <v>45748</v>
       </c>
-      <c r="F90" t="s">
-        <v>3</v>
-      </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
+        <v>3</v>
+      </c>
+      <c r="I90" t="s">
         <v>110</v>
       </c>
-      <c r="H90" t="s">
+      <c r="J90" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>211</v>
       </c>
@@ -4276,32 +4887,38 @@
       <c r="D91" s="3">
         <v>30.490016000000001</v>
       </c>
-      <c r="E91" s="6">
+      <c r="E91" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="G91" s="6">
         <v>45749</v>
       </c>
-      <c r="F91" t="s">
+      <c r="H91" t="s">
         <v>265</v>
       </c>
-      <c r="G91" t="s">
+      <c r="I91" t="s">
         <v>110</v>
       </c>
-      <c r="H91" t="s">
+      <c r="J91" t="s">
         <v>384</v>
       </c>
-      <c r="I91" s="6">
+      <c r="K91" s="6">
         <v>45686</v>
       </c>
-      <c r="J91" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" t="s">
-        <v>109</v>
-      </c>
       <c r="L91" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" t="s">
+        <v>109</v>
+      </c>
+      <c r="N91" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>222</v>
       </c>
@@ -4314,32 +4931,38 @@
       <c r="D92" s="3">
         <v>30.442944000000001</v>
       </c>
-      <c r="E92" s="6">
+      <c r="E92" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="G92" s="6">
         <v>45749</v>
       </c>
-      <c r="F92" t="s">
-        <v>3</v>
-      </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
+        <v>3</v>
+      </c>
+      <c r="I92" t="s">
         <v>110</v>
       </c>
-      <c r="H92" t="s">
+      <c r="J92" t="s">
         <v>385</v>
       </c>
-      <c r="I92" s="6">
+      <c r="K92" s="6">
         <v>45712</v>
       </c>
-      <c r="J92" t="s">
-        <v>3</v>
-      </c>
-      <c r="K92" t="s">
+      <c r="L92" t="s">
+        <v>3</v>
+      </c>
+      <c r="M92" t="s">
         <v>110</v>
       </c>
-      <c r="L92" t="s">
+      <c r="N92" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>181</v>
       </c>
@@ -4352,20 +4975,26 @@
       <c r="D93" s="3">
         <v>30.274464999999999</v>
       </c>
-      <c r="E93" s="6">
+      <c r="E93" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G93" s="6">
         <v>45750</v>
       </c>
-      <c r="F93" t="s">
-        <v>3</v>
-      </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
+        <v>3</v>
+      </c>
+      <c r="I93" t="s">
         <v>110</v>
       </c>
-      <c r="H93" t="s">
+      <c r="J93" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>383</v>
       </c>
@@ -4378,20 +5007,26 @@
       <c r="D94" s="4">
         <v>28.607748999999998</v>
       </c>
-      <c r="E94" s="6">
+      <c r="E94" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="G94" s="6">
         <v>45750</v>
       </c>
-      <c r="F94" t="s">
+      <c r="H94" t="s">
         <v>265</v>
       </c>
-      <c r="G94" t="s">
+      <c r="I94" t="s">
         <v>110</v>
       </c>
-      <c r="H94" t="s">
+      <c r="J94" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>165</v>
       </c>
@@ -4404,20 +5039,26 @@
       <c r="D95" s="3">
         <v>30.277411000000001</v>
       </c>
-      <c r="E95" s="6">
+      <c r="E95" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="G95" s="6">
         <v>45752</v>
       </c>
-      <c r="F95" t="s">
-        <v>3</v>
-      </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
+        <v>3</v>
+      </c>
+      <c r="I95" t="s">
         <v>110</v>
       </c>
-      <c r="H95" t="s">
+      <c r="J95" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>178</v>
       </c>
@@ -4430,20 +5071,26 @@
       <c r="D96" s="3">
         <v>30.222946</v>
       </c>
-      <c r="E96" s="6">
+      <c r="E96" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G96" s="6">
         <v>45752</v>
       </c>
-      <c r="F96" t="s">
-        <v>3</v>
-      </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
+        <v>3</v>
+      </c>
+      <c r="I96" t="s">
         <v>110</v>
       </c>
-      <c r="H96" t="s">
+      <c r="J96" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>190</v>
       </c>
@@ -4456,20 +5103,26 @@
       <c r="D97" s="3">
         <v>30.243804999999998</v>
       </c>
-      <c r="E97" s="6">
+      <c r="E97" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="G97" s="6">
         <v>45752</v>
       </c>
-      <c r="F97" t="s">
-        <v>3</v>
-      </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
+        <v>3</v>
+      </c>
+      <c r="I97" t="s">
         <v>110</v>
       </c>
-      <c r="H97" t="s">
+      <c r="J97" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>139</v>
       </c>
@@ -4482,20 +5135,26 @@
       <c r="D98" s="3">
         <v>30.210629999999998</v>
       </c>
-      <c r="E98" s="6">
+      <c r="E98" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G98" s="6">
         <v>45753</v>
       </c>
-      <c r="F98" t="s">
-        <v>3</v>
-      </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
+        <v>3</v>
+      </c>
+      <c r="I98" t="s">
         <v>110</v>
       </c>
-      <c r="H98" t="s">
+      <c r="J98" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>158</v>
       </c>
@@ -4508,20 +5167,26 @@
       <c r="D99" s="3">
         <v>30.251135999999999</v>
       </c>
-      <c r="E99" s="6">
+      <c r="E99" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="G99" s="6">
         <v>45753</v>
       </c>
-      <c r="F99" t="s">
-        <v>3</v>
-      </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
+        <v>3</v>
+      </c>
+      <c r="I99" t="s">
         <v>110</v>
       </c>
-      <c r="H99" t="s">
+      <c r="J99" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>199</v>
       </c>
@@ -4534,20 +5199,26 @@
       <c r="D100" s="3">
         <v>30.473980999999998</v>
       </c>
-      <c r="E100" s="6">
+      <c r="E100" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="G100" s="6">
         <v>45753</v>
       </c>
-      <c r="F100" t="s">
+      <c r="H100" t="s">
         <v>265</v>
       </c>
-      <c r="G100" t="s">
+      <c r="I100" t="s">
         <v>110</v>
       </c>
-      <c r="H100" t="s">
+      <c r="J100" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>226</v>
       </c>
@@ -4560,32 +5231,38 @@
       <c r="D101" s="3">
         <v>28.346626000000001</v>
       </c>
-      <c r="E101" s="6">
+      <c r="E101" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="G101" s="6">
         <v>45754</v>
       </c>
-      <c r="F101" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101" t="s">
-        <v>109</v>
-      </c>
       <c r="H101" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" t="s">
+        <v>109</v>
+      </c>
+      <c r="J101" t="s">
         <v>397</v>
       </c>
-      <c r="I101" s="6">
+      <c r="K101" s="6">
         <v>45696</v>
       </c>
-      <c r="J101" t="s">
+      <c r="L101" t="s">
         <v>5</v>
       </c>
-      <c r="K101" t="s">
-        <v>109</v>
-      </c>
-      <c r="L101" t="s">
+      <c r="M101" t="s">
+        <v>109</v>
+      </c>
+      <c r="N101" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>228</v>
       </c>
@@ -4598,32 +5275,38 @@
       <c r="D102" s="3">
         <v>28.272282000000001</v>
       </c>
-      <c r="E102" s="6">
+      <c r="E102" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="G102" s="6">
         <v>45754</v>
       </c>
-      <c r="F102" t="s">
+      <c r="H102" t="s">
         <v>265</v>
       </c>
-      <c r="G102" t="s">
-        <v>109</v>
-      </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
+        <v>109</v>
+      </c>
+      <c r="J102" t="s">
         <v>395</v>
       </c>
-      <c r="I102" s="6">
+      <c r="K102" s="6">
         <v>45696</v>
       </c>
-      <c r="J102" t="s">
+      <c r="L102" t="s">
         <v>5</v>
       </c>
-      <c r="K102" t="s">
-        <v>109</v>
-      </c>
-      <c r="L102" t="s">
+      <c r="M102" t="s">
+        <v>109</v>
+      </c>
+      <c r="N102" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>143</v>
       </c>
@@ -4636,32 +5319,38 @@
       <c r="D103" s="3">
         <v>30.346698</v>
       </c>
-      <c r="E103" s="6">
+      <c r="E103" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G103" s="6">
         <v>45754</v>
       </c>
-      <c r="F103" t="s">
+      <c r="H103" t="s">
         <v>265</v>
       </c>
-      <c r="G103" t="s">
+      <c r="I103" t="s">
         <v>110</v>
       </c>
-      <c r="H103" t="s">
+      <c r="J103" t="s">
         <v>398</v>
       </c>
-      <c r="I103" s="6">
+      <c r="K103" s="6">
         <v>45714</v>
       </c>
-      <c r="J103" t="s">
+      <c r="L103" t="s">
         <v>5</v>
       </c>
-      <c r="K103" t="s">
-        <v>109</v>
-      </c>
-      <c r="L103" t="s">
+      <c r="M103" t="s">
+        <v>109</v>
+      </c>
+      <c r="N103" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>163</v>
       </c>
@@ -4674,20 +5363,26 @@
       <c r="D104" s="3">
         <v>30.353408999999999</v>
       </c>
-      <c r="E104" s="6">
+      <c r="E104" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G104" s="6">
         <v>45754</v>
       </c>
-      <c r="F104" t="s">
+      <c r="H104" t="s">
         <v>128</v>
       </c>
-      <c r="G104" t="s">
+      <c r="I104" t="s">
         <v>110</v>
       </c>
-      <c r="H104" t="s">
+      <c r="J104" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>239</v>
       </c>
@@ -4700,20 +5395,26 @@
       <c r="D105" s="3">
         <v>29.843686999999999</v>
       </c>
-      <c r="E105" s="6">
+      <c r="E105" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="G105" s="6">
         <v>45754</v>
       </c>
-      <c r="F105" t="s">
-        <v>3</v>
-      </c>
-      <c r="G105" t="s">
+      <c r="H105" t="s">
+        <v>3</v>
+      </c>
+      <c r="I105" t="s">
         <v>110</v>
       </c>
-      <c r="H105" t="s">
+      <c r="J105" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>212</v>
       </c>
@@ -4726,20 +5427,26 @@
       <c r="D106" s="9">
         <v>30.251090999999999</v>
       </c>
-      <c r="E106" s="6">
+      <c r="E106" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="G106" s="6">
         <v>45755</v>
       </c>
-      <c r="F106" t="s">
-        <v>3</v>
-      </c>
-      <c r="G106" t="s">
-        <v>109</v>
-      </c>
       <c r="H106" t="s">
+        <v>3</v>
+      </c>
+      <c r="I106" t="s">
+        <v>109</v>
+      </c>
+      <c r="J106" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>240</v>
       </c>
@@ -4752,20 +5459,26 @@
       <c r="D107" s="3">
         <v>30.127715999999999</v>
       </c>
-      <c r="E107" s="6">
+      <c r="E107" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="G107" s="6">
         <v>45755</v>
       </c>
-      <c r="F107" t="s">
-        <v>3</v>
-      </c>
-      <c r="G107" t="s">
-        <v>109</v>
-      </c>
       <c r="H107" t="s">
+        <v>3</v>
+      </c>
+      <c r="I107" t="s">
+        <v>109</v>
+      </c>
+      <c r="J107" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>144</v>
       </c>
@@ -4778,32 +5491,38 @@
       <c r="D108" s="3">
         <v>30.307361</v>
       </c>
-      <c r="E108" s="6">
+      <c r="E108" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="G108" s="6">
         <v>45756</v>
       </c>
-      <c r="F108" t="s">
-        <v>3</v>
-      </c>
-      <c r="G108" t="s">
-        <v>109</v>
-      </c>
       <c r="H108" t="s">
+        <v>3</v>
+      </c>
+      <c r="I108" t="s">
+        <v>109</v>
+      </c>
+      <c r="J108" t="s">
         <v>399</v>
       </c>
-      <c r="I108" s="6">
+      <c r="K108" s="6">
         <v>45715</v>
       </c>
-      <c r="J108" t="s">
+      <c r="L108" t="s">
         <v>5</v>
       </c>
-      <c r="K108" t="s">
+      <c r="M108" t="s">
         <v>110</v>
       </c>
-      <c r="L108" t="s">
+      <c r="N108" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>218</v>
       </c>
@@ -4816,20 +5535,26 @@
       <c r="D109" s="3">
         <v>30.317547999999999</v>
       </c>
-      <c r="E109" s="6">
+      <c r="E109" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="G109" s="6">
         <v>45756</v>
       </c>
-      <c r="F109" t="s">
-        <v>3</v>
-      </c>
-      <c r="G109" t="s">
-        <v>109</v>
-      </c>
       <c r="H109" t="s">
+        <v>3</v>
+      </c>
+      <c r="I109" t="s">
+        <v>109</v>
+      </c>
+      <c r="J109" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>238</v>
       </c>
@@ -4842,20 +5567,26 @@
       <c r="D110" s="3">
         <v>33.547027</v>
       </c>
-      <c r="E110" s="6">
+      <c r="E110" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="G110" s="6">
         <v>45759</v>
       </c>
-      <c r="F110" t="s">
-        <v>3</v>
-      </c>
-      <c r="G110" t="s">
+      <c r="H110" t="s">
+        <v>3</v>
+      </c>
+      <c r="I110" t="s">
         <v>110</v>
       </c>
-      <c r="H110" t="s">
+      <c r="J110" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>404</v>
       </c>
@@ -4868,20 +5599,26 @@
       <c r="D111" s="4">
         <v>37.920817</v>
       </c>
-      <c r="E111" s="6">
+      <c r="E111" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="G111" s="6">
         <v>45759</v>
       </c>
-      <c r="F111" t="s">
-        <v>3</v>
-      </c>
-      <c r="G111" t="s">
+      <c r="H111" t="s">
+        <v>3</v>
+      </c>
+      <c r="I111" t="s">
         <v>403</v>
       </c>
-      <c r="H111" t="s">
+      <c r="J111" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>382</v>
       </c>
@@ -4894,20 +5631,26 @@
       <c r="D112" s="4">
         <v>37.915553000000003</v>
       </c>
-      <c r="E112" s="6">
+      <c r="E112" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="G112" s="6">
         <v>45759</v>
       </c>
-      <c r="F112" t="s">
+      <c r="H112" t="s">
         <v>265</v>
       </c>
-      <c r="G112" t="s">
+      <c r="I112" t="s">
         <v>403</v>
       </c>
-      <c r="H112" t="s">
+      <c r="J112" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>246</v>
       </c>
@@ -4920,20 +5663,26 @@
       <c r="D113" s="4">
         <v>39.812596999999997</v>
       </c>
-      <c r="E113" s="6">
+      <c r="E113" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G113" s="6">
         <v>45760</v>
       </c>
-      <c r="F113" t="s">
-        <v>3</v>
-      </c>
-      <c r="G113" t="s">
+      <c r="H113" t="s">
+        <v>3</v>
+      </c>
+      <c r="I113" t="s">
         <v>403</v>
       </c>
-      <c r="H113" t="s">
+      <c r="J113" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>134</v>
       </c>
@@ -4946,20 +5695,26 @@
       <c r="D114" s="3">
         <v>30.319182999999999</v>
       </c>
-      <c r="E114" s="6">
+      <c r="E114" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="G114" s="6">
         <v>45768</v>
       </c>
-      <c r="F114" t="s">
-        <v>3</v>
-      </c>
-      <c r="G114" t="s">
-        <v>109</v>
-      </c>
       <c r="H114" t="s">
+        <v>3</v>
+      </c>
+      <c r="I114" t="s">
+        <v>109</v>
+      </c>
+      <c r="J114" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>170</v>
       </c>
@@ -4972,20 +5727,26 @@
       <c r="D115" s="3">
         <v>30.317252</v>
       </c>
-      <c r="E115" s="6">
+      <c r="E115" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="G115" s="6">
         <v>45768</v>
       </c>
-      <c r="F115" t="s">
-        <v>3</v>
-      </c>
-      <c r="G115" t="s">
-        <v>109</v>
-      </c>
       <c r="H115" t="s">
+        <v>3</v>
+      </c>
+      <c r="I115" t="s">
+        <v>109</v>
+      </c>
+      <c r="J115" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>198</v>
       </c>
@@ -4998,20 +5759,26 @@
       <c r="D116" s="3">
         <v>30.350265</v>
       </c>
-      <c r="E116" s="6">
+      <c r="E116" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="G116" s="6">
         <v>45770</v>
       </c>
-      <c r="F116" t="s">
-        <v>3</v>
-      </c>
-      <c r="G116" t="s">
-        <v>109</v>
-      </c>
       <c r="H116" t="s">
+        <v>3</v>
+      </c>
+      <c r="I116" t="s">
+        <v>109</v>
+      </c>
+      <c r="J116" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>262</v>
       </c>
@@ -5024,20 +5791,26 @@
       <c r="D117" s="4">
         <v>39.774903000000002</v>
       </c>
-      <c r="E117" s="6">
+      <c r="E117" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="G117" s="6">
         <v>45771</v>
       </c>
-      <c r="F117" t="s">
+      <c r="H117" t="s">
         <v>265</v>
       </c>
-      <c r="G117" t="s">
-        <v>109</v>
-      </c>
-      <c r="H117" t="s">
+      <c r="I117" t="s">
+        <v>109</v>
+      </c>
+      <c r="J117" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>162</v>
       </c>
@@ -5050,17 +5823,23 @@
       <c r="D118" s="3">
         <v>30.497157000000001</v>
       </c>
-      <c r="E118" s="6">
+      <c r="E118" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="G118" s="6">
         <v>45773</v>
       </c>
-      <c r="F118" t="s">
-        <v>3</v>
-      </c>
-      <c r="G118" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H118" t="s">
+        <v>3</v>
+      </c>
+      <c r="I118" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>210</v>
       </c>
@@ -5073,17 +5852,23 @@
       <c r="D119" s="3">
         <v>30.431221000000001</v>
       </c>
-      <c r="E119" s="6">
+      <c r="E119" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="G119" s="6">
         <v>45773</v>
       </c>
-      <c r="F119" t="s">
-        <v>3</v>
-      </c>
-      <c r="G119" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H119" t="s">
+        <v>3</v>
+      </c>
+      <c r="I119" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>133</v>
       </c>
@@ -5096,8 +5881,14 @@
       <c r="D120" s="3">
         <v>30.259732</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E120" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>136</v>
       </c>
@@ -5110,8 +5901,14 @@
       <c r="D121" s="3">
         <v>30.272632000000002</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E121" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>151</v>
       </c>
@@ -5124,8 +5921,14 @@
       <c r="D122" s="3">
         <v>30.257289</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E122" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>166</v>
       </c>
@@ -5138,8 +5941,14 @@
       <c r="D123" s="3">
         <v>30.498647999999999</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E123" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>167</v>
       </c>
@@ -5152,8 +5961,14 @@
       <c r="D124" s="3">
         <v>30.080950000000001</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E124" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>233</v>
       </c>
@@ -5166,8 +5981,14 @@
       <c r="D125" s="3">
         <v>30.435487999999999</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E125" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>237</v>
       </c>
@@ -5180,8 +6001,14 @@
       <c r="D126" s="3">
         <v>32.042394000000002</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E126" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>263</v>
       </c>
@@ -5194,25 +6021,31 @@
       <c r="D127" s="4">
         <v>40.615519999999997</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E127" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P127" xr:uid="{E6C7E0F2-4CF5-4E0D-8C81-180A66B4648E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P127">
-      <sortCondition ref="E1:E127"/>
+  <autoFilter ref="A1:R127" xr:uid="{E6C7E0F2-4CF5-4E0D-8C81-180A66B4648E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R127">
+      <sortCondition ref="G1:G127"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P127">
-    <sortCondition ref="E1:E127"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R127">
+    <sortCondition ref="G1:G127"/>
   </sortState>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F42 J2:J12 N89 J36 J19:J20 J41 J15:J17 J25:J34 J22 J43:J44 J46:J1048576" xr:uid="{03745927-94AE-4209-8723-9E55A3D49B44}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H42 L2:L12 P89 L36 L19:L20 L41 L15:L17 L25:L34 L22 L43:L44 L46:L1048576" xr:uid="{03745927-94AE-4209-8723-9E55A3D49B44}">
       <formula1>"Зеленый , Красный"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N42 F2:F41 J42 J13:J14 J37:J40 J18 J21 J35 J23:J24 J45 F43:F1048576" xr:uid="{211AAABF-0A7D-4C24-BC69-0BF1E1114FDC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P42 H2:H41 L42 L13:L14 L37:L40 L18 L21 L35 L23:L24 L45 H43:H1048576" xr:uid="{211AAABF-0A7D-4C24-BC69-0BF1E1114FDC}">
       <formula1>"Зеленый , Красный , Золотой"</formula1>
     </dataValidation>
   </dataValidations>

--- a/restaurants.xlsx
+++ b/restaurants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kroli\PycharmProjects\MAP_JS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C477C8-13A4-4C3C-9F0C-5A9A5C860383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA48A6B-76B5-4227-AC1D-6E2983620016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{38334122-D6CB-41C0-898C-DC56B1951378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{38334122-D6CB-41C0-898C-DC56B1951378}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="437">
   <si>
     <t>Дата аудита</t>
   </si>
@@ -1771,8 +1771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C7E0F2-4CF5-4E0D-8C81-180A66B4648E}">
   <dimension ref="A1:R128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F114" sqref="F114"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2445,15 +2445,24 @@
         <v>422</v>
       </c>
       <c r="G20" s="6">
+        <v>45774</v>
+      </c>
+      <c r="H20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" s="6">
         <v>45687</v>
       </c>
-      <c r="H20" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" t="s">
-        <v>109</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" t="s">
+        <v>109</v>
+      </c>
+      <c r="N20" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5966,6 +5975,15 @@
       </c>
       <c r="F124" s="3" t="s">
         <v>429</v>
+      </c>
+      <c r="G124" s="6">
+        <v>45774</v>
+      </c>
+      <c r="H124" t="s">
+        <v>265</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -6042,10 +6060,10 @@
     <sortCondition ref="G1:G127"/>
   </sortState>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H42 L2:L12 P89 L36 L19:L20 L41 L15:L17 L25:L34 L22 L43:L44 L46:L1048576" xr:uid="{03745927-94AE-4209-8723-9E55A3D49B44}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H42 L2:L12 P89 L36 L46:L1048576 L41 L15:L17 L25:L34 L22 L43:L44 L19" xr:uid="{03745927-94AE-4209-8723-9E55A3D49B44}">
       <formula1>"Зеленый , Красный"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P42 H2:H41 L42 L13:L14 L37:L40 L18 L21 L35 L23:L24 L45 H43:H1048576" xr:uid="{211AAABF-0A7D-4C24-BC69-0BF1E1114FDC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P42 H2:H41 L42 L13:L14 L37:L40 L18 L20:L21 L35 L23:L24 L45 H43:H1048576" xr:uid="{211AAABF-0A7D-4C24-BC69-0BF1E1114FDC}">
       <formula1>"Зеленый , Красный , Золотой"</formula1>
     </dataValidation>
   </dataValidations>

--- a/restaurants.xlsx
+++ b/restaurants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kroli\PycharmProjects\MAP_JS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA48A6B-76B5-4227-AC1D-6E2983620016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2788281E-6031-4602-B886-594801225377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{38334122-D6CB-41C0-898C-DC56B1951378}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{38334122-D6CB-41C0-898C-DC56B1951378}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="441">
   <si>
     <t>Дата аудита</t>
   </si>
@@ -1348,6 +1348,18 @@
   </si>
   <si>
     <t>Шевченко Татьяна Викторовна</t>
+  </si>
+  <si>
+    <t>https://portal.irb.rest/view_play_resource.html?object_id=7150885275936083804</t>
+  </si>
+  <si>
+    <t>https://portal.irb.rest/view_play_resource.html?object_id=7150885277984345243</t>
+  </si>
+  <si>
+    <t>https://portal.irb.rest/view_play_resource.html?object_id=7150885278020468234</t>
+  </si>
+  <si>
+    <t>https://portal.irb.rest/view_play_resource.html?object_id=7150885277651533113</t>
   </si>
 </sst>
 </file>
@@ -1772,17 +1784,17 @@
   <dimension ref="A1:R128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="117.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="117.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="34" style="4" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" customWidth="1"/>
     <col min="10" max="10" width="74.85546875" bestFit="1" customWidth="1"/>
@@ -1851,473 +1863,479 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C2" s="3">
-        <v>59.854359000000002</v>
+        <v>60.007587000000001</v>
       </c>
       <c r="D2" s="3">
-        <v>30.371158999999999</v>
+        <v>30.259732</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>416</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="G2" s="6">
-        <v>45667</v>
+        <v>45775</v>
       </c>
       <c r="H2" t="s">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>268</v>
-      </c>
-      <c r="J2" t="s">
-        <v>269</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="C3" s="3">
-        <v>59.863328000000003</v>
+        <v>59.989381999999999</v>
       </c>
       <c r="D3" s="3">
-        <v>30.404083</v>
+        <v>30.257289</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>416</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="G3" s="6">
-        <v>45667</v>
+        <v>45775</v>
       </c>
       <c r="H3" t="s">
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>268</v>
-      </c>
-      <c r="J3" t="s">
-        <v>270</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3">
-        <v>59.8521</v>
+        <v>59.840347000000001</v>
       </c>
       <c r="D4" s="3">
-        <v>30.349509999999999</v>
+        <v>30.114124</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>417</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G4" s="6">
-        <v>45667</v>
+        <v>45774</v>
       </c>
       <c r="H4" t="s">
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>268</v>
+        <v>109</v>
       </c>
       <c r="J4" t="s">
-        <v>271</v>
+        <v>439</v>
+      </c>
+      <c r="K4" s="6">
+        <v>45687</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" t="s">
+        <v>109</v>
+      </c>
+      <c r="N4" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C5" s="3">
-        <v>59.858607800000001</v>
+        <v>59.723677000000002</v>
       </c>
       <c r="D5" s="3">
-        <v>30.248172032325829</v>
+        <v>30.080950000000001</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="G5" s="6">
-        <v>45668</v>
+        <v>45774</v>
       </c>
       <c r="H5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" t="s">
-        <v>268</v>
+        <v>265</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="J5" t="s">
-        <v>272</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="C6" s="3">
-        <v>59.852615</v>
+        <v>59.746709000000003</v>
       </c>
       <c r="D6" s="3">
-        <v>30.268383</v>
+        <v>30.497157000000001</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G6" s="6">
-        <v>45668</v>
+        <v>45773</v>
       </c>
       <c r="H6" t="s">
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>268</v>
+        <v>109</v>
       </c>
       <c r="J6" t="s">
-        <v>273</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3">
-        <v>59.855882000000001</v>
+        <v>59.844054</v>
       </c>
       <c r="D7" s="3">
-        <v>30.224481999999998</v>
+        <v>30.431221000000001</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G7" s="6">
-        <v>45668</v>
+        <v>45773</v>
       </c>
       <c r="H7" t="s">
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>268</v>
+        <v>109</v>
       </c>
       <c r="J7" t="s">
-        <v>274</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>262</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3">
-        <v>59.867922</v>
-      </c>
-      <c r="D8" s="3">
-        <v>30.261116000000001</v>
+        <v>259</v>
+      </c>
+      <c r="C8" s="4">
+        <v>64.557015000000007</v>
+      </c>
+      <c r="D8" s="4">
+        <v>39.774903000000002</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>424</v>
+      <c r="F8" s="4" t="s">
+        <v>434</v>
       </c>
       <c r="G8" s="6">
-        <v>45669</v>
+        <v>45771</v>
       </c>
       <c r="H8" t="s">
-        <v>3</v>
+        <v>265</v>
       </c>
       <c r="I8" t="s">
-        <v>268</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>275</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C9" s="3">
-        <v>57.823453999999998</v>
+        <v>59.868921</v>
       </c>
       <c r="D9" s="3">
-        <v>28.289952</v>
+        <v>30.350265</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G9" s="6">
-        <v>45670</v>
+        <v>45770</v>
       </c>
       <c r="H9" t="s">
         <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>268</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>277</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>227</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C10" s="3">
-        <v>57.793869000000001</v>
+        <v>59.823701999999997</v>
       </c>
       <c r="D10" s="3">
-        <v>28.416497</v>
+        <v>30.319182999999999</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="G10" s="6">
-        <v>45670</v>
+        <v>45768</v>
       </c>
       <c r="H10" t="s">
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>268</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>278</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C11" s="3">
-        <v>59.807608999999999</v>
+        <v>59.819806999999997</v>
       </c>
       <c r="D11" s="3">
-        <v>30.374600000000001</v>
+        <v>30.317252</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>417</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G11" s="6">
-        <v>45671</v>
+        <v>45768</v>
       </c>
       <c r="H11" t="s">
         <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>268</v>
+        <v>109</v>
       </c>
       <c r="J11" t="s">
-        <v>279</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="3">
-        <v>58.525534999999998</v>
-      </c>
-      <c r="D12" s="3">
-        <v>31.231593</v>
+        <v>127</v>
+      </c>
+      <c r="C12" s="4">
+        <v>59.202885999999999</v>
+      </c>
+      <c r="D12" s="4">
+        <v>39.812596999999997</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>425</v>
+      <c r="F12" s="4" t="s">
+        <v>421</v>
       </c>
       <c r="G12" s="6">
-        <v>45682</v>
+        <v>45760</v>
       </c>
       <c r="H12" t="s">
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>403</v>
       </c>
       <c r="J12" t="s">
-        <v>288</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>238</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="C13" s="3">
-        <v>59.9327817</v>
+        <v>59.642857999999997</v>
       </c>
       <c r="D13" s="3">
-        <v>30.354575928408831</v>
+        <v>33.547027</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G13" s="6">
-        <v>45684</v>
+        <v>45759</v>
       </c>
       <c r="H13" t="s">
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J13" t="s">
-        <v>293</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>194</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="3">
-        <v>59.929727</v>
-      </c>
-      <c r="D14" s="3">
-        <v>30.359607</v>
+      <c r="A14" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C14" s="4">
+        <v>59.126367000000002</v>
+      </c>
+      <c r="D14" s="4">
+        <v>37.920817</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>425</v>
+        <v>416</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>424</v>
       </c>
       <c r="G14" s="6">
-        <v>45684</v>
+        <v>45759</v>
       </c>
       <c r="H14" t="s">
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>109</v>
+        <v>403</v>
       </c>
       <c r="J14" t="s">
-        <v>294</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="3">
-        <v>59.987605000000002</v>
-      </c>
-      <c r="D15" s="3">
-        <v>30.353912000000001</v>
+      <c r="A15" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C15" s="4">
+        <v>59.089959</v>
+      </c>
+      <c r="D15" s="4">
+        <v>37.915553000000003</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>420</v>
+      <c r="F15" s="4" t="s">
+        <v>424</v>
       </c>
       <c r="G15" s="6">
-        <v>45685</v>
+        <v>45759</v>
       </c>
       <c r="H15" t="s">
-        <v>128</v>
+        <v>265</v>
       </c>
       <c r="I15" t="s">
-        <v>109</v>
+        <v>403</v>
       </c>
       <c r="J15" t="s">
-        <v>295</v>
+        <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3">
-        <v>59.986694999999997</v>
+        <v>59.908104999999999</v>
       </c>
       <c r="D16" s="3">
-        <v>30.367647000000002</v>
+        <v>30.307361</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="G16" s="6">
-        <v>45685</v>
+        <v>45756</v>
       </c>
       <c r="H16" t="s">
         <v>3</v>
@@ -2326,30 +2344,42 @@
         <v>109</v>
       </c>
       <c r="J16" t="s">
-        <v>296</v>
+        <v>399</v>
+      </c>
+      <c r="K16" s="6">
+        <v>45715</v>
+      </c>
+      <c r="L16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" t="s">
+        <v>110</v>
+      </c>
+      <c r="N16" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="C17" s="3">
-        <v>59.877696</v>
+        <v>59.881005999999999</v>
       </c>
       <c r="D17" s="3">
-        <v>30.443258</v>
+        <v>30.317547999999999</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>417</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="G17" s="6">
-        <v>45686</v>
+        <v>45756</v>
       </c>
       <c r="H17" t="s">
         <v>3</v>
@@ -2358,62 +2388,62 @@
         <v>109</v>
       </c>
       <c r="J17" t="s">
-        <v>298</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="3">
-        <v>59.893503000000003</v>
-      </c>
-      <c r="D18" s="3">
-        <v>30.514641999999998</v>
+        <v>66</v>
+      </c>
+      <c r="C18" s="9">
+        <v>59.832213000000003</v>
+      </c>
+      <c r="D18" s="9">
+        <v>30.251090999999999</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>428</v>
+        <v>417</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>421</v>
       </c>
       <c r="G18" s="6">
-        <v>45686</v>
+        <v>45755</v>
       </c>
       <c r="H18" t="s">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="I18" t="s">
         <v>109</v>
       </c>
       <c r="J18" t="s">
-        <v>300</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>148</v>
+        <v>240</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="C19" s="3">
-        <v>59.863726</v>
+        <v>59.574654000000002</v>
       </c>
       <c r="D19" s="3">
-        <v>30.165687999999999</v>
+        <v>30.127715999999999</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="G19" s="6">
-        <v>45687</v>
+        <v>45755</v>
       </c>
       <c r="H19" t="s">
         <v>3</v>
@@ -2422,30 +2452,30 @@
         <v>109</v>
       </c>
       <c r="J19" t="s">
-        <v>301</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="C20" s="3">
-        <v>59.840347000000001</v>
+        <v>57.812677000000001</v>
       </c>
       <c r="D20" s="3">
-        <v>30.114124</v>
+        <v>28.346626000000001</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G20" s="6">
-        <v>45774</v>
+        <v>45754</v>
       </c>
       <c r="H20" t="s">
         <v>3</v>
@@ -2453,480 +2483,495 @@
       <c r="I20" t="s">
         <v>109</v>
       </c>
+      <c r="J20" t="s">
+        <v>397</v>
+      </c>
       <c r="K20" s="6">
-        <v>45687</v>
+        <v>45696</v>
       </c>
       <c r="L20" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M20" t="s">
         <v>109</v>
       </c>
       <c r="N20" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="C21" s="3">
-        <v>59.966444000000003</v>
+        <v>57.807676999999998</v>
       </c>
       <c r="D21" s="3">
-        <v>30.311420999999999</v>
+        <v>28.272282000000001</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G21" s="6">
-        <v>45688</v>
+        <v>45754</v>
       </c>
       <c r="H21" t="s">
-        <v>3</v>
+        <v>265</v>
       </c>
       <c r="I21" t="s">
         <v>109</v>
       </c>
       <c r="J21" t="s">
-        <v>305</v>
+        <v>395</v>
+      </c>
+      <c r="K21" s="6">
+        <v>45696</v>
+      </c>
+      <c r="L21" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" t="s">
+        <v>109</v>
+      </c>
+      <c r="N21" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="C22" s="3">
-        <v>59.959471000000001</v>
+        <v>59.927616999999998</v>
       </c>
       <c r="D22" s="3">
-        <v>30.289556000000001</v>
+        <v>30.346698</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G22" s="6">
-        <v>45688</v>
+        <v>45754</v>
       </c>
       <c r="H22" t="s">
-        <v>3</v>
+        <v>265</v>
       </c>
       <c r="I22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J22" t="s">
-        <v>304</v>
+        <v>398</v>
+      </c>
+      <c r="K22" s="6">
+        <v>45714</v>
+      </c>
+      <c r="L22" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" t="s">
+        <v>109</v>
+      </c>
+      <c r="N22" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="C23" s="3">
-        <v>59.828572999999999</v>
+        <v>59.955696000000003</v>
       </c>
       <c r="D23" s="3">
-        <v>30.377960000000002</v>
+        <v>30.353408999999999</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G23" s="6">
-        <v>45697</v>
+        <v>45754</v>
       </c>
       <c r="H23" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="I23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J23" t="s">
-        <v>308</v>
+        <v>394</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="C24" s="3">
-        <v>59.833329999999997</v>
+        <v>58.731769</v>
       </c>
       <c r="D24" s="3">
-        <v>30.390364999999999</v>
+        <v>29.843686999999999</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="G24" s="6">
-        <v>45697</v>
+        <v>45754</v>
       </c>
       <c r="H24" t="s">
         <v>3</v>
       </c>
       <c r="I24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J24" t="s">
-        <v>309</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C25" s="3">
-        <v>59.882699000000002</v>
+        <v>60.006179000000003</v>
       </c>
       <c r="D25" s="3">
-        <v>30.370504</v>
+        <v>30.210629999999998</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="G25" s="6">
-        <v>45698</v>
+        <v>45753</v>
       </c>
       <c r="H25" t="s">
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J25" t="s">
-        <v>310</v>
+        <v>388</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="C26" s="3">
-        <v>59.870013999999998</v>
+        <v>60.008485999999998</v>
       </c>
       <c r="D26" s="3">
-        <v>30.379325000000001</v>
+        <v>30.251135999999999</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G26" s="6">
-        <v>45698</v>
+        <v>45753</v>
       </c>
       <c r="H26" t="s">
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J26" t="s">
-        <v>311</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C27" s="3">
-        <v>59.878670999999997</v>
+        <v>59.946174999999997</v>
       </c>
       <c r="D27" s="3">
-        <v>30.370405000000002</v>
+        <v>30.473980999999998</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>418</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G27" s="6">
-        <v>45698</v>
+        <v>45753</v>
       </c>
       <c r="H27" t="s">
-        <v>128</v>
+        <v>265</v>
       </c>
       <c r="I27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J27" t="s">
-        <v>312</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C28" s="3">
-        <v>59.832231</v>
+        <v>60.011139999999997</v>
       </c>
       <c r="D28" s="3">
-        <v>30.347363000000001</v>
+        <v>30.277411000000001</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>417</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="G28" s="6">
-        <v>45700</v>
+        <v>45752</v>
       </c>
       <c r="H28" t="s">
         <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J28" t="s">
-        <v>313</v>
+        <v>389</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C29" s="3">
-        <v>59.737372999999998</v>
+        <v>60.022171</v>
       </c>
       <c r="D29" s="3">
-        <v>30.572095000000001</v>
+        <v>30.222946</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="G29" s="6">
-        <v>45709</v>
+        <v>45752</v>
       </c>
       <c r="H29" t="s">
         <v>3</v>
       </c>
       <c r="I29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J29" t="s">
-        <v>314</v>
-      </c>
-      <c r="K29" s="6">
-        <v>45666</v>
-      </c>
-      <c r="L29" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" t="s">
-        <v>268</v>
-      </c>
-      <c r="N29" t="s">
-        <v>267</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="C30" s="3">
-        <v>59.735762999999999</v>
+        <v>60.039791000000001</v>
       </c>
       <c r="D30" s="3">
-        <v>30.471869999999999</v>
+        <v>30.243804999999998</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="G30" s="6">
-        <v>45709</v>
+        <v>45752</v>
       </c>
       <c r="H30" t="s">
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J30" t="s">
-        <v>317</v>
-      </c>
-      <c r="K30" s="6">
-        <v>45671</v>
-      </c>
-      <c r="L30" t="s">
-        <v>5</v>
-      </c>
-      <c r="M30" t="s">
-        <v>268</v>
-      </c>
-      <c r="N30" t="s">
-        <v>280</v>
+        <v>391</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C31" s="3">
-        <v>59.961087999999997</v>
+        <v>59.901846999999997</v>
       </c>
       <c r="D31" s="3">
-        <v>30.406616</v>
+        <v>30.274464999999999</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="G31" s="6">
-        <v>45712</v>
+        <v>45750</v>
       </c>
       <c r="H31" t="s">
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J31" t="s">
-        <v>321</v>
+        <v>386</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>189</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="3">
-        <v>59.940150000000003</v>
-      </c>
-      <c r="D32" s="3">
-        <v>30.418365999999999</v>
+      <c r="A32" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="C32" s="4">
+        <v>59.376403000000003</v>
+      </c>
+      <c r="D32" s="4">
+        <v>28.607748999999998</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>432</v>
+      <c r="F32" s="4" t="s">
+        <v>422</v>
       </c>
       <c r="G32" s="6">
-        <v>45712</v>
+        <v>45750</v>
       </c>
       <c r="H32" t="s">
-        <v>3</v>
+        <v>265</v>
       </c>
       <c r="I32" t="s">
         <v>110</v>
       </c>
       <c r="J32" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C33" s="3">
-        <v>60.001747999999999</v>
+        <v>59.885579999999997</v>
       </c>
       <c r="D33" s="3">
-        <v>30.256830999999998</v>
+        <v>30.490016000000001</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="G33" s="6">
-        <v>45713</v>
+        <v>45749</v>
       </c>
       <c r="H33" t="s">
-        <v>3</v>
+        <v>265</v>
       </c>
       <c r="I33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J33" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+      <c r="K33" s="6">
+        <v>45686</v>
+      </c>
+      <c r="L33" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" t="s">
+        <v>109</v>
+      </c>
+      <c r="N33" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C34" s="3">
-        <v>60.045084000000003</v>
+        <v>59.934911999999997</v>
       </c>
       <c r="D34" s="3">
-        <v>30.375803999999999</v>
+        <v>30.442944000000001</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G34" s="6">
-        <v>45713</v>
+        <v>45749</v>
       </c>
       <c r="H34" t="s">
         <v>3</v>
@@ -2935,85 +2980,121 @@
         <v>110</v>
       </c>
       <c r="J34" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="K34" s="6">
+        <v>45712</v>
+      </c>
+      <c r="L34" t="s">
+        <v>3</v>
+      </c>
+      <c r="M34" t="s">
+        <v>110</v>
+      </c>
+      <c r="N34" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>169</v>
+        <v>224</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="C35" s="3">
-        <v>60.037255999999999</v>
+        <v>59.730629</v>
       </c>
       <c r="D35" s="3">
-        <v>30.367889999999999</v>
+        <v>30.613292000000001</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="G35" s="6">
+        <v>45748</v>
+      </c>
+      <c r="H35" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" t="s">
+        <v>109</v>
+      </c>
+      <c r="J35" t="s">
+        <v>378</v>
+      </c>
+      <c r="K35" s="6">
+        <v>45709</v>
+      </c>
+      <c r="L35" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" t="s">
+        <v>109</v>
+      </c>
+      <c r="N35" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="3">
+        <v>59.933027000000003</v>
+      </c>
+      <c r="D36" s="3">
+        <v>30.437643999999999</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="G35" s="6">
-        <v>45713</v>
-      </c>
-      <c r="H35" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="F36" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="G36" s="6">
+        <v>45748</v>
+      </c>
+      <c r="H36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36" t="s">
         <v>110</v>
       </c>
-      <c r="J35" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>188</v>
-      </c>
-      <c r="B36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="3">
-        <v>60.099086</v>
-      </c>
-      <c r="D36" s="3">
-        <v>30.260352000000001</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="G36" s="6">
-        <v>45713</v>
-      </c>
-      <c r="H36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I36" t="s">
-        <v>109</v>
-      </c>
       <c r="J36" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+      <c r="K36" s="6">
+        <v>45712</v>
+      </c>
+      <c r="L36" t="s">
+        <v>3</v>
+      </c>
+      <c r="M36" t="s">
+        <v>110</v>
+      </c>
+      <c r="N36" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>204</v>
+        <v>135</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C37" s="3">
-        <v>60.082470999999998</v>
+        <v>59.916649</v>
       </c>
       <c r="D37" s="3">
-        <v>29.957279</v>
+        <v>30.454792999999999</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>417</v>
@@ -3022,94 +3103,106 @@
         <v>432</v>
       </c>
       <c r="G37" s="6">
-        <v>45713</v>
+        <v>45748</v>
       </c>
       <c r="H37" t="s">
-        <v>3</v>
+        <v>265</v>
       </c>
       <c r="I37" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J37" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="C38" s="3">
-        <v>59.944575999999998</v>
+        <v>59.917834999999997</v>
       </c>
       <c r="D38" s="3">
-        <v>30.358781</v>
+        <v>30.424205000000001</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>416</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="G38" s="6">
-        <v>45714</v>
+        <v>45748</v>
       </c>
       <c r="H38" t="s">
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J38" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="C39" s="3">
-        <v>59.990898999999999</v>
+        <v>59.849201999999998</v>
       </c>
       <c r="D39" s="3">
-        <v>30.205788999999999</v>
+        <v>30.144245000000002</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="G39" s="6">
-        <v>45714</v>
+        <v>45747</v>
       </c>
       <c r="H39" t="s">
-        <v>3</v>
+        <v>265</v>
       </c>
       <c r="I39" t="s">
         <v>110</v>
       </c>
       <c r="J39" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+      <c r="K39" s="6">
+        <v>45687</v>
+      </c>
+      <c r="L39" t="s">
+        <v>3</v>
+      </c>
+      <c r="M39" t="s">
+        <v>109</v>
+      </c>
+      <c r="N39" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C40" s="3">
-        <v>59.981459999999998</v>
+        <v>59.942025000000001</v>
       </c>
       <c r="D40" s="3">
-        <v>30.210315999999999</v>
+        <v>30.276001000000001</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>417</v>
@@ -3118,255 +3211,255 @@
         <v>427</v>
       </c>
       <c r="G40" s="6">
-        <v>45714</v>
+        <v>45747</v>
       </c>
       <c r="H40" t="s">
         <v>3</v>
       </c>
       <c r="I40" t="s">
+        <v>109</v>
+      </c>
+      <c r="J40" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="3">
+        <v>59.927562999999999</v>
+      </c>
+      <c r="D41" s="3">
+        <v>30.360613000000001</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="G41" s="6">
+        <v>45746</v>
+      </c>
+      <c r="H41" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" t="s">
+        <v>109</v>
+      </c>
+      <c r="J41" t="s">
+        <v>370</v>
+      </c>
+      <c r="K41" s="6">
+        <v>45710</v>
+      </c>
+      <c r="L41" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" t="s">
+        <v>109</v>
+      </c>
+      <c r="N41" t="s">
+        <v>316</v>
+      </c>
+      <c r="O41" s="6">
+        <v>45681</v>
+      </c>
+      <c r="P41" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>109</v>
+      </c>
+      <c r="R41" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>196</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="3">
+        <v>59.948540999999999</v>
+      </c>
+      <c r="D42" s="3">
+        <v>30.233115000000002</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="G42" s="6">
+        <v>45746</v>
+      </c>
+      <c r="H42" t="s">
+        <v>265</v>
+      </c>
+      <c r="I42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J42" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>203</v>
+      </c>
+      <c r="B43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="3">
+        <v>60.053224</v>
+      </c>
+      <c r="D43" s="3">
+        <v>30.389655999999999</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="G43" s="6">
+        <v>45746</v>
+      </c>
+      <c r="H43" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" t="s">
         <v>110</v>
       </c>
-      <c r="J40" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>195</v>
-      </c>
-      <c r="B41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="3">
-        <v>59.988945999999999</v>
-      </c>
-      <c r="D41" s="3">
-        <v>30.226108</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="J43" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>205</v>
+      </c>
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="3">
+        <v>60.005482000000001</v>
+      </c>
+      <c r="D44" s="3">
+        <v>30.299060999999998</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="G41" s="6">
-        <v>45714</v>
-      </c>
-      <c r="H41" t="s">
-        <v>128</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="F44" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="G44" s="6">
+        <v>45746</v>
+      </c>
+      <c r="H44" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" t="s">
         <v>110</v>
       </c>
-      <c r="J41" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>186</v>
-      </c>
-      <c r="B42" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="3">
-        <v>60.038280999999998</v>
-      </c>
-      <c r="D42" s="3">
-        <v>30.320665000000002</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="G42" s="6">
-        <v>45715</v>
-      </c>
-      <c r="H42" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" t="s">
-        <v>109</v>
-      </c>
-      <c r="J42" t="s">
-        <v>332</v>
-      </c>
-      <c r="K42" s="6">
-        <v>45683</v>
-      </c>
-      <c r="L42" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" t="s">
-        <v>109</v>
-      </c>
-      <c r="N42" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>191</v>
-      </c>
-      <c r="B43" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="3">
-        <v>60.066958</v>
-      </c>
-      <c r="D43" s="3">
-        <v>30.336296000000001</v>
-      </c>
-      <c r="E43" s="3" t="s">
+      <c r="J44" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>202</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="3">
+        <v>59.832186</v>
+      </c>
+      <c r="D45" s="3">
+        <v>30.505673000000002</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="G45" s="6">
+        <v>45746</v>
+      </c>
+      <c r="H45" t="s">
+        <v>265</v>
+      </c>
+      <c r="I45" t="s">
+        <v>109</v>
+      </c>
+      <c r="J45" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>264</v>
+      </c>
+      <c r="B46" t="s">
+        <v>261</v>
+      </c>
+      <c r="C46" s="4">
+        <v>64.541949000000002</v>
+      </c>
+      <c r="D46" s="4">
+        <v>40.535030999999996</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="G43" s="6">
-        <v>45715</v>
-      </c>
-      <c r="H43" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" t="s">
-        <v>109</v>
-      </c>
-      <c r="J43" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>221</v>
-      </c>
-      <c r="B44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="3">
-        <v>60.057357000000003</v>
-      </c>
-      <c r="D44" s="3">
-        <v>30.308394</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="G44" s="6">
-        <v>45715</v>
-      </c>
-      <c r="H44" t="s">
-        <v>3</v>
-      </c>
-      <c r="I44" t="s">
-        <v>109</v>
-      </c>
-      <c r="J44" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>232</v>
-      </c>
-      <c r="B45" t="s">
-        <v>108</v>
-      </c>
-      <c r="C45" s="3">
-        <v>59.901142999999998</v>
-      </c>
-      <c r="D45" s="3">
-        <v>29.085877</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="G45" s="6">
-        <v>45715</v>
-      </c>
-      <c r="H45" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" t="s">
-        <v>110</v>
-      </c>
-      <c r="J45" t="s">
-        <v>334</v>
-      </c>
-      <c r="K45" s="6">
-        <v>45669</v>
-      </c>
-      <c r="L45" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" t="s">
-        <v>111</v>
-      </c>
-      <c r="N45" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>161</v>
-      </c>
-      <c r="B46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="3">
-        <v>59.935839999999999</v>
-      </c>
-      <c r="D46" s="3">
-        <v>30.315885999999999</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>432</v>
+      <c r="F46" s="4" t="s">
+        <v>434</v>
       </c>
       <c r="G46" s="6">
-        <v>45716</v>
+        <v>45745</v>
       </c>
       <c r="H46" t="s">
-        <v>3</v>
+        <v>265</v>
       </c>
       <c r="I46" t="s">
         <v>110</v>
       </c>
       <c r="J46" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47" s="3">
-        <v>59.914614999999998</v>
-      </c>
-      <c r="D47" s="3">
-        <v>30.349142000000001</v>
+        <v>254</v>
+      </c>
+      <c r="C47" s="4">
+        <v>68.960651999999996</v>
+      </c>
+      <c r="D47" s="4">
+        <v>33.110868000000004</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>436</v>
+        <v>418</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>426</v>
       </c>
       <c r="G47" s="6">
-        <v>45716</v>
+        <v>45744</v>
       </c>
       <c r="H47" t="s">
         <v>3</v>
@@ -3375,159 +3468,150 @@
         <v>110</v>
       </c>
       <c r="J47" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>201</v>
+        <v>256</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="3">
-        <v>58.53302</v>
-      </c>
-      <c r="D48" s="3">
-        <v>31.267274</v>
+        <v>255</v>
+      </c>
+      <c r="C48" s="4">
+        <v>68.956546000000003</v>
+      </c>
+      <c r="D48" s="4">
+        <v>33.070579000000002</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>425</v>
+        <v>418</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>426</v>
       </c>
       <c r="G48" s="6">
-        <v>45716</v>
+        <v>45744</v>
       </c>
       <c r="H48" t="s">
-        <v>3</v>
+        <v>265</v>
       </c>
       <c r="I48" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J48" t="s">
-        <v>340</v>
-      </c>
-      <c r="K48" s="6">
-        <v>45682</v>
-      </c>
-      <c r="L48" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" t="s">
-        <v>109</v>
-      </c>
-      <c r="N48" t="s">
-        <v>289</v>
+        <v>366</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" s="3">
-        <v>58.505611000000002</v>
-      </c>
-      <c r="D49" s="3">
-        <v>31.231107999999999</v>
+        <v>253</v>
+      </c>
+      <c r="C49" s="4">
+        <v>68.970376000000002</v>
+      </c>
+      <c r="D49" s="4">
+        <v>33.096037000000003</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>425</v>
+        <v>418</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>426</v>
       </c>
       <c r="G49" s="6">
-        <v>45716</v>
+        <v>45743</v>
       </c>
       <c r="H49" t="s">
         <v>3</v>
       </c>
       <c r="I49" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J49" t="s">
-        <v>338</v>
-      </c>
-      <c r="K49" s="6">
-        <v>45682</v>
-      </c>
-      <c r="L49" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" t="s">
-        <v>109</v>
-      </c>
-      <c r="N49" t="s">
-        <v>287</v>
+        <v>365</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C50" s="3">
-        <v>59.912914000000001</v>
+        <v>60.052703000000001</v>
       </c>
       <c r="D50" s="3">
-        <v>30.446878000000002</v>
+        <v>30.331202000000001</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="G50" s="6">
-        <v>45719</v>
+        <v>45734</v>
       </c>
       <c r="H50" t="s">
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>110</v>
+        <v>130</v>
+      </c>
+      <c r="J50" t="s">
+        <v>364</v>
+      </c>
+      <c r="K50" s="6">
+        <v>45683</v>
+      </c>
+      <c r="L50" t="s">
+        <v>5</v>
+      </c>
+      <c r="M50" t="s">
+        <v>109</v>
+      </c>
+      <c r="N50" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C51" s="3">
-        <v>59.979565000000001</v>
+        <v>60.036731000000003</v>
       </c>
       <c r="D51" s="3">
-        <v>30.377905999999999</v>
+        <v>30.345880999999999</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="G51" s="6">
-        <v>45719</v>
+        <v>45734</v>
       </c>
       <c r="H51" t="s">
         <v>3</v>
       </c>
       <c r="I51" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="J51" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="K51" s="6">
-        <v>45685</v>
+        <v>45683</v>
       </c>
       <c r="L51" t="s">
         <v>5</v>
@@ -3536,181 +3620,193 @@
         <v>109</v>
       </c>
       <c r="N51" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="B52" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="C52" s="3">
-        <v>59.882739999999998</v>
+        <v>59.908740999999999</v>
       </c>
       <c r="D52" s="3">
-        <v>30.985507999999999</v>
+        <v>30.483539</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="G52" s="6">
-        <v>45719</v>
+        <v>45731</v>
       </c>
       <c r="H52" t="s">
         <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="J52" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>243</v>
+        <v>187</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
-      </c>
-      <c r="C53" s="4">
-        <v>61.774921999999997</v>
-      </c>
-      <c r="D53" s="4">
-        <v>34.30782</v>
+        <v>88</v>
+      </c>
+      <c r="C53" s="3">
+        <v>59.912610999999998</v>
+      </c>
+      <c r="D53" s="3">
+        <v>30.480449</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>429</v>
+        <v>416</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>434</v>
       </c>
       <c r="G53" s="6">
-        <v>45720</v>
+        <v>45731</v>
       </c>
       <c r="H53" t="s">
         <v>3</v>
       </c>
       <c r="I53" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="J53" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B54" t="s">
-        <v>123</v>
-      </c>
-      <c r="C54" s="4">
-        <v>61.787666999999999</v>
-      </c>
-      <c r="D54" s="4">
-        <v>34.356696999999997</v>
+        <v>120</v>
+      </c>
+      <c r="C54" s="3">
+        <v>59.914250000000003</v>
+      </c>
+      <c r="D54" s="3">
+        <v>30.511538999999999</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>429</v>
+      <c r="F54" s="3" t="s">
+        <v>428</v>
       </c>
       <c r="G54" s="6">
-        <v>45720</v>
+        <v>45731</v>
       </c>
       <c r="H54" t="s">
         <v>3</v>
       </c>
       <c r="I54" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="J54" t="s">
-        <v>344</v>
+        <v>266</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>245</v>
+        <v>157</v>
       </c>
       <c r="B55" t="s">
-        <v>124</v>
-      </c>
-      <c r="C55" s="4">
-        <v>61.777292000000003</v>
-      </c>
-      <c r="D55" s="4">
-        <v>34.30782</v>
+        <v>6</v>
+      </c>
+      <c r="C55" s="3">
+        <v>59.916279000000003</v>
+      </c>
+      <c r="D55" s="3">
+        <v>30.309086000000001</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>429</v>
+      <c r="F55" s="3" t="s">
+        <v>426</v>
       </c>
       <c r="G55" s="6">
-        <v>45720</v>
+        <v>45730</v>
       </c>
       <c r="H55" t="s">
         <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="J55" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C56" s="3">
-        <v>60.059013999999998</v>
+        <v>59.925502000000002</v>
       </c>
       <c r="D56" s="3">
-        <v>30.335011000000002</v>
+        <v>30.358125000000001</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="G56" s="6">
-        <v>45721</v>
+        <v>45730</v>
       </c>
       <c r="H56" t="s">
+        <v>3</v>
+      </c>
+      <c r="I56" t="s">
+        <v>130</v>
+      </c>
+      <c r="J56" t="s">
+        <v>360</v>
+      </c>
+      <c r="K56" s="6">
+        <v>45681</v>
+      </c>
+      <c r="L56" t="s">
         <v>5</v>
       </c>
-      <c r="I56" t="s">
-        <v>109</v>
-      </c>
-      <c r="J56" t="s">
-        <v>346</v>
+      <c r="M56" t="s">
+        <v>109</v>
+      </c>
+      <c r="N56" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C57" s="3">
-        <v>60.015098000000002</v>
+        <v>60.011539999999997</v>
       </c>
       <c r="D57" s="3">
-        <v>30.378786000000002</v>
+        <v>30.397811999999998</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>417</v>
@@ -3719,30 +3815,30 @@
         <v>430</v>
       </c>
       <c r="G57" s="6">
-        <v>45722</v>
+        <v>45729</v>
       </c>
       <c r="H57" t="s">
         <v>3</v>
       </c>
       <c r="I57" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="J57" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>234</v>
+        <v>149</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="C58" s="3">
-        <v>59.987434</v>
+        <v>60.036096999999998</v>
       </c>
       <c r="D58" s="3">
-        <v>30.655791000000001</v>
+        <v>30.414521000000001</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>416</v>
@@ -3751,112 +3847,112 @@
         <v>433</v>
       </c>
       <c r="G58" s="6">
-        <v>45722</v>
+        <v>45729</v>
       </c>
       <c r="H58" t="s">
         <v>3</v>
       </c>
       <c r="I58" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="J58" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B59" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C59" s="3">
-        <v>60.031485000000004</v>
+        <v>60.049253</v>
       </c>
       <c r="D59" s="3">
-        <v>30.628446</v>
+        <v>30.443977</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>416</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="G59" s="6">
-        <v>45722</v>
+        <v>45729</v>
       </c>
       <c r="H59" t="s">
         <v>3</v>
       </c>
       <c r="I59" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="J59" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="B60" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C60" s="3">
-        <v>59.934227</v>
+        <v>59.809173999999999</v>
       </c>
       <c r="D60" s="3">
-        <v>30.338137</v>
+        <v>30.320799999999998</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G60" s="6">
-        <v>45723</v>
+        <v>45728</v>
       </c>
       <c r="H60" t="s">
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="J60" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>247</v>
+        <v>179</v>
       </c>
       <c r="B61" t="s">
-        <v>129</v>
-      </c>
-      <c r="C61" s="4">
-        <v>60.714761000000003</v>
-      </c>
-      <c r="D61" s="4">
-        <v>28.749079999999999</v>
+        <v>78</v>
+      </c>
+      <c r="C61" s="3">
+        <v>59.925358000000003</v>
+      </c>
+      <c r="D61" s="3">
+        <v>30.318006</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>434</v>
+        <v>418</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>426</v>
       </c>
       <c r="G61" s="6">
-        <v>45723</v>
+        <v>45726</v>
       </c>
       <c r="H61" t="s">
         <v>3</v>
       </c>
       <c r="I61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J61" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -3925,80 +4021,80 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C64" s="3">
-        <v>59.925358000000003</v>
+        <v>59.934227</v>
       </c>
       <c r="D64" s="3">
-        <v>30.318006</v>
+        <v>30.338137</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="G64" s="6">
-        <v>45726</v>
+        <v>45723</v>
       </c>
       <c r="H64" t="s">
         <v>3</v>
       </c>
       <c r="I64" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J64" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="B65" t="s">
-        <v>53</v>
-      </c>
-      <c r="C65" s="3">
-        <v>59.809173999999999</v>
-      </c>
-      <c r="D65" s="3">
-        <v>30.320799999999998</v>
+        <v>129</v>
+      </c>
+      <c r="C65" s="4">
+        <v>60.714761000000003</v>
+      </c>
+      <c r="D65" s="4">
+        <v>28.749079999999999</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>424</v>
+      <c r="F65" s="4" t="s">
+        <v>434</v>
       </c>
       <c r="G65" s="6">
-        <v>45728</v>
+        <v>45723</v>
       </c>
       <c r="H65" t="s">
         <v>3</v>
       </c>
       <c r="I65" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="J65" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C66" s="3">
-        <v>60.011539999999997</v>
+        <v>60.015098000000002</v>
       </c>
       <c r="D66" s="3">
-        <v>30.397811999999998</v>
+        <v>30.378786000000002</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>417</v>
@@ -4007,30 +4103,30 @@
         <v>430</v>
       </c>
       <c r="G66" s="6">
-        <v>45729</v>
+        <v>45722</v>
       </c>
       <c r="H66" t="s">
         <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="J66" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>149</v>
+        <v>234</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="C67" s="3">
-        <v>60.036096999999998</v>
+        <v>59.987434</v>
       </c>
       <c r="D67" s="3">
-        <v>30.414521000000001</v>
+        <v>30.655791000000001</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>416</v>
@@ -4039,255 +4135,240 @@
         <v>433</v>
       </c>
       <c r="G67" s="6">
-        <v>45729</v>
+        <v>45722</v>
       </c>
       <c r="H67" t="s">
         <v>3</v>
       </c>
       <c r="I67" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="J67" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B68" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="3">
-        <v>60.049253</v>
+        <v>60.031485000000004</v>
       </c>
       <c r="D68" s="3">
-        <v>30.443977</v>
+        <v>30.628446</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>416</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G68" s="6">
-        <v>45729</v>
+        <v>45722</v>
       </c>
       <c r="H68" t="s">
         <v>3</v>
       </c>
       <c r="I68" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="J68" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="C69" s="3">
-        <v>59.916279000000003</v>
+        <v>60.059013999999998</v>
       </c>
       <c r="D69" s="3">
-        <v>30.309086000000001</v>
+        <v>30.335011000000002</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>418</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="G69" s="6">
-        <v>45730</v>
+        <v>45721</v>
       </c>
       <c r="H69" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I69" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="J69" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="B70" t="s">
-        <v>82</v>
-      </c>
-      <c r="C70" s="3">
-        <v>59.925502000000002</v>
-      </c>
-      <c r="D70" s="3">
-        <v>30.358125000000001</v>
+        <v>122</v>
+      </c>
+      <c r="C70" s="4">
+        <v>61.774921999999997</v>
+      </c>
+      <c r="D70" s="4">
+        <v>34.30782</v>
       </c>
       <c r="E70" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="G70" s="6">
+        <v>45720</v>
+      </c>
+      <c r="H70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I70" t="s">
+        <v>110</v>
+      </c>
+      <c r="J70" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>244</v>
+      </c>
+      <c r="B71" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" s="4">
+        <v>61.787666999999999</v>
+      </c>
+      <c r="D71" s="4">
+        <v>34.356696999999997</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="G71" s="6">
+        <v>45720</v>
+      </c>
+      <c r="H71" t="s">
+        <v>3</v>
+      </c>
+      <c r="I71" t="s">
+        <v>110</v>
+      </c>
+      <c r="J71" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>245</v>
+      </c>
+      <c r="B72" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" s="4">
+        <v>61.777292000000003</v>
+      </c>
+      <c r="D72" s="4">
+        <v>34.30782</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="G72" s="6">
+        <v>45720</v>
+      </c>
+      <c r="H72" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" t="s">
+        <v>110</v>
+      </c>
+      <c r="J72" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>173</v>
+      </c>
+      <c r="B73" t="s">
+        <v>63</v>
+      </c>
+      <c r="C73" s="3">
+        <v>59.912914000000001</v>
+      </c>
+      <c r="D73" s="3">
+        <v>30.446878000000002</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="G70" s="6">
-        <v>45730</v>
-      </c>
-      <c r="H70" t="s">
-        <v>3</v>
-      </c>
-      <c r="I70" t="s">
-        <v>130</v>
-      </c>
-      <c r="J70" t="s">
-        <v>360</v>
-      </c>
-      <c r="K70" s="6">
-        <v>45681</v>
-      </c>
-      <c r="L70" t="s">
-        <v>5</v>
-      </c>
-      <c r="M70" t="s">
-        <v>109</v>
-      </c>
-      <c r="N70" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>152</v>
-      </c>
-      <c r="B71" t="s">
-        <v>65</v>
-      </c>
-      <c r="C71" s="3">
-        <v>59.908740999999999</v>
-      </c>
-      <c r="D71" s="3">
-        <v>30.483539</v>
-      </c>
-      <c r="E71" s="3" t="s">
+      <c r="F73" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G73" s="6">
+        <v>45719</v>
+      </c>
+      <c r="H73" t="s">
+        <v>3</v>
+      </c>
+      <c r="I73" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>216</v>
+      </c>
+      <c r="B74" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="3">
+        <v>59.979565000000001</v>
+      </c>
+      <c r="D74" s="3">
+        <v>30.377905999999999</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="G71" s="6">
-        <v>45731</v>
-      </c>
-      <c r="H71" t="s">
-        <v>3</v>
-      </c>
-      <c r="I71" t="s">
-        <v>130</v>
-      </c>
-      <c r="J71" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>187</v>
-      </c>
-      <c r="B72" t="s">
-        <v>88</v>
-      </c>
-      <c r="C72" s="3">
-        <v>59.912610999999998</v>
-      </c>
-      <c r="D72" s="3">
-        <v>30.480449</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="G72" s="6">
-        <v>45731</v>
-      </c>
-      <c r="H72" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" t="s">
-        <v>130</v>
-      </c>
-      <c r="J72" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>241</v>
-      </c>
-      <c r="B73" t="s">
-        <v>120</v>
-      </c>
-      <c r="C73" s="3">
-        <v>59.914250000000003</v>
-      </c>
-      <c r="D73" s="3">
-        <v>30.511538999999999</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="G73" s="6">
-        <v>45731</v>
-      </c>
-      <c r="H73" t="s">
-        <v>3</v>
-      </c>
-      <c r="I73" t="s">
-        <v>130</v>
-      </c>
-      <c r="J73" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>184</v>
-      </c>
-      <c r="B74" t="s">
-        <v>49</v>
-      </c>
-      <c r="C74" s="3">
-        <v>60.052703000000001</v>
-      </c>
-      <c r="D74" s="3">
-        <v>30.331202000000001</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>418</v>
-      </c>
       <c r="F74" s="3" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G74" s="6">
-        <v>45734</v>
+        <v>45719</v>
       </c>
       <c r="H74" t="s">
         <v>3</v>
       </c>
       <c r="I74" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="J74" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="K74" s="6">
-        <v>45683</v>
+        <v>45685</v>
       </c>
       <c r="L74" t="s">
         <v>5</v>
@@ -4296,21 +4377,21 @@
         <v>109</v>
       </c>
       <c r="N74" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="B75" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="C75" s="3">
-        <v>60.036731000000003</v>
+        <v>59.882739999999998</v>
       </c>
       <c r="D75" s="3">
-        <v>30.345880999999999</v>
+        <v>30.985507999999999</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>418</v>
@@ -4319,51 +4400,39 @@
         <v>431</v>
       </c>
       <c r="G75" s="6">
-        <v>45734</v>
+        <v>45719</v>
       </c>
       <c r="H75" t="s">
         <v>3</v>
       </c>
       <c r="I75" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="J75" t="s">
-        <v>363</v>
-      </c>
-      <c r="K75" s="6">
-        <v>45683</v>
-      </c>
-      <c r="L75" t="s">
-        <v>5</v>
-      </c>
-      <c r="M75" t="s">
-        <v>109</v>
-      </c>
-      <c r="N75" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>258</v>
+        <v>161</v>
       </c>
       <c r="B76" t="s">
-        <v>253</v>
-      </c>
-      <c r="C76" s="4">
-        <v>68.970376000000002</v>
-      </c>
-      <c r="D76" s="4">
-        <v>33.096037000000003</v>
+        <v>33</v>
+      </c>
+      <c r="C76" s="3">
+        <v>59.935839999999999</v>
+      </c>
+      <c r="D76" s="3">
+        <v>30.315885999999999</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>426</v>
+        <v>417</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>432</v>
       </c>
       <c r="G76" s="6">
-        <v>45743</v>
+        <v>45716</v>
       </c>
       <c r="H76" t="s">
         <v>3</v>
@@ -4372,30 +4441,30 @@
         <v>110</v>
       </c>
       <c r="J76" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>257</v>
+        <v>185</v>
       </c>
       <c r="B77" t="s">
-        <v>254</v>
-      </c>
-      <c r="C77" s="4">
-        <v>68.960651999999996</v>
-      </c>
-      <c r="D77" s="4">
-        <v>33.110868000000004</v>
+        <v>85</v>
+      </c>
+      <c r="C77" s="3">
+        <v>59.914614999999998</v>
+      </c>
+      <c r="D77" s="3">
+        <v>30.349142000000001</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>426</v>
+        <v>416</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>436</v>
       </c>
       <c r="G77" s="6">
-        <v>45744</v>
+        <v>45716</v>
       </c>
       <c r="H77" t="s">
         <v>3</v>
@@ -4404,94 +4473,118 @@
         <v>110</v>
       </c>
       <c r="J77" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="B78" t="s">
-        <v>255</v>
-      </c>
-      <c r="C78" s="4">
-        <v>68.956546000000003</v>
-      </c>
-      <c r="D78" s="4">
-        <v>33.070579000000002</v>
+        <v>25</v>
+      </c>
+      <c r="C78" s="3">
+        <v>58.53302</v>
+      </c>
+      <c r="D78" s="3">
+        <v>31.267274</v>
       </c>
       <c r="E78" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="G78" s="6">
+        <v>45716</v>
+      </c>
+      <c r="H78" t="s">
+        <v>3</v>
+      </c>
+      <c r="I78" t="s">
+        <v>109</v>
+      </c>
+      <c r="J78" t="s">
+        <v>340</v>
+      </c>
+      <c r="K78" s="6">
+        <v>45682</v>
+      </c>
+      <c r="L78" t="s">
+        <v>3</v>
+      </c>
+      <c r="M78" t="s">
+        <v>109</v>
+      </c>
+      <c r="N78" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>231</v>
+      </c>
+      <c r="B79" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79" s="3">
+        <v>58.505611000000002</v>
+      </c>
+      <c r="D79" s="3">
+        <v>31.231107999999999</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="G79" s="6">
+        <v>45716</v>
+      </c>
+      <c r="H79" t="s">
+        <v>3</v>
+      </c>
+      <c r="I79" t="s">
+        <v>109</v>
+      </c>
+      <c r="J79" t="s">
+        <v>338</v>
+      </c>
+      <c r="K79" s="6">
+        <v>45682</v>
+      </c>
+      <c r="L79" t="s">
+        <v>5</v>
+      </c>
+      <c r="M79" t="s">
+        <v>109</v>
+      </c>
+      <c r="N79" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>186</v>
+      </c>
+      <c r="B80" t="s">
+        <v>52</v>
+      </c>
+      <c r="C80" s="3">
+        <v>60.038280999999998</v>
+      </c>
+      <c r="D80" s="3">
+        <v>30.320665000000002</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="F78" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="G78" s="6">
-        <v>45744</v>
-      </c>
-      <c r="H78" t="s">
-        <v>265</v>
-      </c>
-      <c r="I78" t="s">
-        <v>110</v>
-      </c>
-      <c r="J78" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>264</v>
-      </c>
-      <c r="B79" t="s">
-        <v>261</v>
-      </c>
-      <c r="C79" s="4">
-        <v>64.541949000000002</v>
-      </c>
-      <c r="D79" s="4">
-        <v>40.535030999999996</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="G79" s="6">
-        <v>45745</v>
-      </c>
-      <c r="H79" t="s">
-        <v>265</v>
-      </c>
-      <c r="I79" t="s">
-        <v>110</v>
-      </c>
-      <c r="J79" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>146</v>
-      </c>
-      <c r="B80" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="3">
-        <v>59.927562999999999</v>
-      </c>
-      <c r="D80" s="3">
-        <v>30.360613000000001</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>416</v>
-      </c>
       <c r="F80" s="3" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="G80" s="6">
-        <v>45746</v>
+        <v>45715</v>
       </c>
       <c r="H80" t="s">
         <v>3</v>
@@ -4500,10 +4593,10 @@
         <v>109</v>
       </c>
       <c r="J80" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="K80" s="6">
-        <v>45710</v>
+        <v>45683</v>
       </c>
       <c r="L80" t="s">
         <v>5</v>
@@ -4512,106 +4605,94 @@
         <v>109</v>
       </c>
       <c r="N80" t="s">
-        <v>316</v>
-      </c>
-      <c r="O80" s="6">
-        <v>45681</v>
-      </c>
-      <c r="P80" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>109</v>
-      </c>
-      <c r="R80" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="C81" s="3">
-        <v>59.948540999999999</v>
+        <v>60.066958</v>
       </c>
       <c r="D81" s="3">
-        <v>30.233115000000002</v>
+        <v>30.336296000000001</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="G81" s="6">
-        <v>45746</v>
+        <v>45715</v>
       </c>
       <c r="H81" t="s">
-        <v>265</v>
+        <v>3</v>
       </c>
       <c r="I81" t="s">
         <v>109</v>
       </c>
       <c r="J81" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="B82" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C82" s="3">
-        <v>60.053224</v>
+        <v>60.057357000000003</v>
       </c>
       <c r="D82" s="3">
-        <v>30.389655999999999</v>
+        <v>30.308394</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="G82" s="6">
-        <v>45746</v>
+        <v>45715</v>
       </c>
       <c r="H82" t="s">
         <v>3</v>
       </c>
       <c r="I82" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J82" t="s">
-        <v>407</v>
+        <v>336</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="B83" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="C83" s="3">
-        <v>60.005482000000001</v>
+        <v>59.901142999999998</v>
       </c>
       <c r="D83" s="3">
-        <v>30.299060999999998</v>
+        <v>29.085877</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="G83" s="6">
-        <v>45746</v>
+        <v>45715</v>
       </c>
       <c r="H83" t="s">
         <v>3</v>
@@ -4620,97 +4701,97 @@
         <v>110</v>
       </c>
       <c r="J83" t="s">
-        <v>369</v>
+        <v>334</v>
+      </c>
+      <c r="K83" s="6">
+        <v>45669</v>
+      </c>
+      <c r="L83" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" t="s">
+        <v>111</v>
+      </c>
+      <c r="N83" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="B84" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C84" s="3">
-        <v>59.832186</v>
+        <v>59.944575999999998</v>
       </c>
       <c r="D84" s="3">
-        <v>30.505673000000002</v>
+        <v>30.358781</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="G84" s="6">
-        <v>45746</v>
+        <v>45714</v>
       </c>
       <c r="H84" t="s">
-        <v>265</v>
+        <v>3</v>
       </c>
       <c r="I84" t="s">
         <v>109</v>
       </c>
       <c r="J84" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="B85" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="C85" s="3">
-        <v>59.849201999999998</v>
+        <v>59.990898999999999</v>
       </c>
       <c r="D85" s="3">
-        <v>30.144245000000002</v>
+        <v>30.205788999999999</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="G85" s="6">
-        <v>45747</v>
+        <v>45714</v>
       </c>
       <c r="H85" t="s">
-        <v>265</v>
+        <v>3</v>
       </c>
       <c r="I85" t="s">
         <v>110</v>
       </c>
       <c r="J85" t="s">
-        <v>373</v>
-      </c>
-      <c r="K85" s="6">
-        <v>45687</v>
-      </c>
-      <c r="L85" t="s">
-        <v>3</v>
-      </c>
-      <c r="M85" t="s">
-        <v>109</v>
-      </c>
-      <c r="N85" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="B86" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C86" s="3">
-        <v>59.942025000000001</v>
+        <v>59.981459999999998</v>
       </c>
       <c r="D86" s="3">
-        <v>30.276001000000001</v>
+        <v>30.210315999999999</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>417</v>
@@ -4719,159 +4800,135 @@
         <v>427</v>
       </c>
       <c r="G86" s="6">
-        <v>45747</v>
+        <v>45714</v>
       </c>
       <c r="H86" t="s">
         <v>3</v>
       </c>
       <c r="I86" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J86" t="s">
-        <v>374</v>
+        <v>328</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="B87" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="C87" s="3">
-        <v>59.730629</v>
+        <v>59.988945999999999</v>
       </c>
       <c r="D87" s="3">
-        <v>30.613292000000001</v>
+        <v>30.226108</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>417</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G87" s="6">
-        <v>45748</v>
+        <v>45714</v>
       </c>
       <c r="H87" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="I87" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J87" t="s">
-        <v>378</v>
-      </c>
-      <c r="K87" s="6">
-        <v>45709</v>
-      </c>
-      <c r="L87" t="s">
-        <v>3</v>
-      </c>
-      <c r="M87" t="s">
-        <v>109</v>
-      </c>
-      <c r="N87" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B88" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="C88" s="3">
-        <v>59.933027000000003</v>
+        <v>60.001747999999999</v>
       </c>
       <c r="D88" s="3">
-        <v>30.437643999999999</v>
+        <v>30.256830999999998</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G88" s="6">
-        <v>45748</v>
+        <v>45713</v>
       </c>
       <c r="H88" t="s">
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J88" t="s">
-        <v>379</v>
-      </c>
-      <c r="K88" s="6">
-        <v>45712</v>
-      </c>
-      <c r="L88" t="s">
-        <v>3</v>
-      </c>
-      <c r="M88" t="s">
-        <v>110</v>
-      </c>
-      <c r="N88" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="B89" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C89" s="3">
-        <v>59.916649</v>
+        <v>60.045084000000003</v>
       </c>
       <c r="D89" s="3">
-        <v>30.454792999999999</v>
+        <v>30.375803999999999</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G89" s="6">
-        <v>45748</v>
+        <v>45713</v>
       </c>
       <c r="H89" t="s">
-        <v>265</v>
+        <v>3</v>
       </c>
       <c r="I89" t="s">
         <v>110</v>
       </c>
       <c r="J89" t="s">
-        <v>380</v>
+        <v>323</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B90" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C90" s="3">
-        <v>59.917834999999997</v>
+        <v>60.037255999999999</v>
       </c>
       <c r="D90" s="3">
-        <v>30.424205000000001</v>
+        <v>30.367889999999999</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="G90" s="6">
-        <v>45748</v>
+        <v>45713</v>
       </c>
       <c r="H90" t="s">
         <v>3</v>
@@ -4880,374 +4937,374 @@
         <v>110</v>
       </c>
       <c r="J90" t="s">
-        <v>381</v>
+        <v>324</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C91" s="3">
-        <v>59.885579999999997</v>
+        <v>60.099086</v>
       </c>
       <c r="D91" s="3">
-        <v>30.490016000000001</v>
+        <v>30.260352000000001</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G91" s="6">
-        <v>45749</v>
+        <v>45713</v>
       </c>
       <c r="H91" t="s">
-        <v>265</v>
+        <v>3</v>
       </c>
       <c r="I91" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J91" t="s">
-        <v>384</v>
-      </c>
-      <c r="K91" s="6">
-        <v>45686</v>
-      </c>
-      <c r="L91" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" t="s">
-        <v>109</v>
-      </c>
-      <c r="N91" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="B92" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C92" s="3">
-        <v>59.934911999999997</v>
+        <v>60.082470999999998</v>
       </c>
       <c r="D92" s="3">
-        <v>30.442944000000001</v>
+        <v>29.957279</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G92" s="6">
-        <v>45749</v>
+        <v>45713</v>
       </c>
       <c r="H92" t="s">
         <v>3</v>
       </c>
       <c r="I92" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J92" t="s">
-        <v>385</v>
-      </c>
-      <c r="K92" s="6">
-        <v>45712</v>
-      </c>
-      <c r="L92" t="s">
-        <v>3</v>
-      </c>
-      <c r="M92" t="s">
-        <v>110</v>
-      </c>
-      <c r="N92" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="B93" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C93" s="3">
-        <v>59.901846999999997</v>
+        <v>59.961087999999997</v>
       </c>
       <c r="D93" s="3">
-        <v>30.274464999999999</v>
+        <v>30.406616</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G93" s="6">
-        <v>45750</v>
+        <v>45712</v>
       </c>
       <c r="H93" t="s">
         <v>3</v>
       </c>
       <c r="I93" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J93" t="s">
-        <v>386</v>
+        <v>321</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="C94" s="4">
-        <v>59.376403000000003</v>
-      </c>
-      <c r="D94" s="4">
-        <v>28.607748999999998</v>
+      <c r="A94" t="s">
+        <v>189</v>
+      </c>
+      <c r="B94" t="s">
+        <v>32</v>
+      </c>
+      <c r="C94" s="3">
+        <v>59.940150000000003</v>
+      </c>
+      <c r="D94" s="3">
+        <v>30.418365999999999</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="F94" s="4" t="s">
-        <v>422</v>
+      <c r="F94" s="3" t="s">
+        <v>432</v>
       </c>
       <c r="G94" s="6">
-        <v>45750</v>
+        <v>45712</v>
       </c>
       <c r="H94" t="s">
-        <v>265</v>
+        <v>3</v>
       </c>
       <c r="I94" t="s">
         <v>110</v>
       </c>
       <c r="J94" t="s">
-        <v>387</v>
+        <v>319</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="B95" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C95" s="3">
-        <v>60.011139999999997</v>
+        <v>59.737372999999998</v>
       </c>
       <c r="D95" s="3">
-        <v>30.277411000000001</v>
+        <v>30.572095000000001</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>417</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="G95" s="6">
-        <v>45752</v>
+        <v>45709</v>
       </c>
       <c r="H95" t="s">
         <v>3</v>
       </c>
       <c r="I95" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J95" t="s">
-        <v>389</v>
+        <v>314</v>
+      </c>
+      <c r="K95" s="6">
+        <v>45666</v>
+      </c>
+      <c r="L95" t="s">
+        <v>5</v>
+      </c>
+      <c r="M95" t="s">
+        <v>268</v>
+      </c>
+      <c r="N95" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="B96" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="C96" s="3">
-        <v>60.022171</v>
+        <v>59.735762999999999</v>
       </c>
       <c r="D96" s="3">
-        <v>30.222946</v>
+        <v>30.471869999999999</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>416</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="G96" s="6">
-        <v>45752</v>
+        <v>45709</v>
       </c>
       <c r="H96" t="s">
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J96" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="K96" s="6">
+        <v>45671</v>
+      </c>
+      <c r="L96" t="s">
+        <v>5</v>
+      </c>
+      <c r="M96" t="s">
+        <v>268</v>
+      </c>
+      <c r="N96" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="B97" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C97" s="3">
-        <v>60.039791000000001</v>
+        <v>59.832231</v>
       </c>
       <c r="D97" s="3">
-        <v>30.243804999999998</v>
+        <v>30.347363000000001</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>417</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G97" s="6">
-        <v>45752</v>
+        <v>45700</v>
       </c>
       <c r="H97" t="s">
         <v>3</v>
       </c>
       <c r="I97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J97" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B98" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C98" s="3">
-        <v>60.006179000000003</v>
+        <v>59.882699000000002</v>
       </c>
       <c r="D98" s="3">
-        <v>30.210629999999998</v>
+        <v>30.370504</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="G98" s="6">
-        <v>45753</v>
+        <v>45698</v>
       </c>
       <c r="H98" t="s">
         <v>3</v>
       </c>
       <c r="I98" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J98" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="B99" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="C99" s="3">
-        <v>60.008485999999998</v>
+        <v>59.870013999999998</v>
       </c>
       <c r="D99" s="3">
-        <v>30.251135999999999</v>
+        <v>30.379325000000001</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G99" s="6">
-        <v>45753</v>
+        <v>45698</v>
       </c>
       <c r="H99" t="s">
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J99" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="B100" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C100" s="3">
-        <v>59.946174999999997</v>
+        <v>59.878670999999997</v>
       </c>
       <c r="D100" s="3">
-        <v>30.473980999999998</v>
+        <v>30.370405000000002</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>418</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G100" s="6">
-        <v>45753</v>
+        <v>45698</v>
       </c>
       <c r="H100" t="s">
-        <v>265</v>
+        <v>128</v>
       </c>
       <c r="I100" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J100" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>226</v>
+        <v>137</v>
       </c>
       <c r="B101" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="C101" s="3">
-        <v>57.812677000000001</v>
+        <v>59.828572999999999</v>
       </c>
       <c r="D101" s="3">
-        <v>28.346626000000001</v>
+        <v>30.377960000000002</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="G101" s="6">
-        <v>45754</v>
+        <v>45697</v>
       </c>
       <c r="H101" t="s">
         <v>3</v>
@@ -5256,194 +5313,158 @@
         <v>109</v>
       </c>
       <c r="J101" t="s">
-        <v>397</v>
-      </c>
-      <c r="K101" s="6">
-        <v>45696</v>
-      </c>
-      <c r="L101" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" t="s">
-        <v>109</v>
-      </c>
-      <c r="N101" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>228</v>
+        <v>147</v>
       </c>
       <c r="B102" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="C102" s="3">
-        <v>57.807676999999998</v>
+        <v>59.833329999999997</v>
       </c>
       <c r="D102" s="3">
-        <v>28.272282000000001</v>
+        <v>30.390364999999999</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="G102" s="6">
-        <v>45754</v>
+        <v>45697</v>
       </c>
       <c r="H102" t="s">
-        <v>265</v>
+        <v>3</v>
       </c>
       <c r="I102" t="s">
         <v>109</v>
       </c>
       <c r="J102" t="s">
-        <v>395</v>
-      </c>
-      <c r="K102" s="6">
-        <v>45696</v>
-      </c>
-      <c r="L102" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" t="s">
-        <v>109</v>
-      </c>
-      <c r="N102" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="B103" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C103" s="3">
-        <v>59.927616999999998</v>
+        <v>59.966444000000003</v>
       </c>
       <c r="D103" s="3">
-        <v>30.346698</v>
+        <v>30.311420999999999</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G103" s="6">
-        <v>45754</v>
+        <v>45688</v>
       </c>
       <c r="H103" t="s">
-        <v>265</v>
+        <v>3</v>
       </c>
       <c r="I103" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J103" t="s">
-        <v>398</v>
-      </c>
-      <c r="K103" s="6">
-        <v>45714</v>
-      </c>
-      <c r="L103" t="s">
-        <v>5</v>
-      </c>
-      <c r="M103" t="s">
-        <v>109</v>
-      </c>
-      <c r="N103" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="B104" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="C104" s="3">
-        <v>59.955696000000003</v>
+        <v>59.959471000000001</v>
       </c>
       <c r="D104" s="3">
-        <v>30.353408999999999</v>
+        <v>30.289556000000001</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G104" s="6">
-        <v>45754</v>
+        <v>45688</v>
       </c>
       <c r="H104" t="s">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="I104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J104" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="B105" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="C105" s="3">
-        <v>58.731769</v>
+        <v>59.863726</v>
       </c>
       <c r="D105" s="3">
-        <v>29.843686999999999</v>
+        <v>30.165687999999999</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="G105" s="6">
-        <v>45754</v>
+        <v>45687</v>
       </c>
       <c r="H105" t="s">
         <v>3</v>
       </c>
       <c r="I105" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J105" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="B106" t="s">
-        <v>66</v>
-      </c>
-      <c r="C106" s="9">
-        <v>59.832213000000003</v>
-      </c>
-      <c r="D106" s="9">
-        <v>30.251090999999999</v>
+        <v>71</v>
+      </c>
+      <c r="C106" s="3">
+        <v>59.877696</v>
+      </c>
+      <c r="D106" s="3">
+        <v>30.443258</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="F106" s="9" t="s">
-        <v>421</v>
+      <c r="F106" s="3" t="s">
+        <v>427</v>
       </c>
       <c r="G106" s="6">
-        <v>45755</v>
+        <v>45686</v>
       </c>
       <c r="H106" t="s">
         <v>3</v>
@@ -5452,538 +5473,559 @@
         <v>109</v>
       </c>
       <c r="J106" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B107" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C107" s="3">
-        <v>59.574654000000002</v>
+        <v>59.893503000000003</v>
       </c>
       <c r="D107" s="3">
-        <v>30.127715999999999</v>
+        <v>30.514641999999998</v>
       </c>
       <c r="E107" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="G107" s="6">
+        <v>45686</v>
+      </c>
+      <c r="H107" t="s">
+        <v>128</v>
+      </c>
+      <c r="I107" t="s">
+        <v>109</v>
+      </c>
+      <c r="J107" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>153</v>
+      </c>
+      <c r="B108" t="s">
+        <v>80</v>
+      </c>
+      <c r="C108" s="3">
+        <v>59.987605000000002</v>
+      </c>
+      <c r="D108" s="3">
+        <v>30.353912000000001</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G108" s="6">
+        <v>45685</v>
+      </c>
+      <c r="H108" t="s">
+        <v>128</v>
+      </c>
+      <c r="I108" t="s">
+        <v>109</v>
+      </c>
+      <c r="J108" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>209</v>
+      </c>
+      <c r="B109" t="s">
+        <v>68</v>
+      </c>
+      <c r="C109" s="3">
+        <v>59.986694999999997</v>
+      </c>
+      <c r="D109" s="3">
+        <v>30.367647000000002</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G109" s="6">
+        <v>45685</v>
+      </c>
+      <c r="H109" t="s">
+        <v>3</v>
+      </c>
+      <c r="I109" t="s">
+        <v>109</v>
+      </c>
+      <c r="J109" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>183</v>
+      </c>
+      <c r="B110" t="s">
+        <v>90</v>
+      </c>
+      <c r="C110" s="3">
+        <v>59.9327817</v>
+      </c>
+      <c r="D110" s="3">
+        <v>30.354575928408831</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="G110" s="6">
+        <v>45684</v>
+      </c>
+      <c r="H110" t="s">
+        <v>3</v>
+      </c>
+      <c r="I110" t="s">
+        <v>109</v>
+      </c>
+      <c r="J110" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>194</v>
+      </c>
+      <c r="B111" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" s="3">
+        <v>59.929727</v>
+      </c>
+      <c r="D111" s="3">
+        <v>30.359607</v>
+      </c>
+      <c r="E111" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="F107" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="G107" s="6">
-        <v>45755</v>
-      </c>
-      <c r="H107" t="s">
-        <v>3</v>
-      </c>
-      <c r="I107" t="s">
-        <v>109</v>
-      </c>
-      <c r="J107" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>144</v>
-      </c>
-      <c r="B108" t="s">
-        <v>31</v>
-      </c>
-      <c r="C108" s="3">
-        <v>59.908104999999999</v>
-      </c>
-      <c r="D108" s="3">
-        <v>30.307361</v>
-      </c>
-      <c r="E108" s="3" t="s">
+      <c r="F111" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="G111" s="6">
+        <v>45684</v>
+      </c>
+      <c r="H111" t="s">
+        <v>3</v>
+      </c>
+      <c r="I111" t="s">
+        <v>109</v>
+      </c>
+      <c r="J111" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>230</v>
+      </c>
+      <c r="B112" t="s">
+        <v>107</v>
+      </c>
+      <c r="C112" s="3">
+        <v>58.525534999999998</v>
+      </c>
+      <c r="D112" s="3">
+        <v>31.231593</v>
+      </c>
+      <c r="E112" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="F108" s="3" t="s">
+      <c r="F112" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="G108" s="6">
-        <v>45756</v>
-      </c>
-      <c r="H108" t="s">
-        <v>3</v>
-      </c>
-      <c r="I108" t="s">
-        <v>109</v>
-      </c>
-      <c r="J108" t="s">
-        <v>399</v>
-      </c>
-      <c r="K108" s="6">
-        <v>45715</v>
-      </c>
-      <c r="L108" t="s">
-        <v>5</v>
-      </c>
-      <c r="M108" t="s">
-        <v>110</v>
-      </c>
-      <c r="N108" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>218</v>
-      </c>
-      <c r="B109" t="s">
-        <v>26</v>
-      </c>
-      <c r="C109" s="3">
-        <v>59.881005999999999</v>
-      </c>
-      <c r="D109" s="3">
-        <v>30.317547999999999</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="G109" s="6">
-        <v>45756</v>
-      </c>
-      <c r="H109" t="s">
-        <v>3</v>
-      </c>
-      <c r="I109" t="s">
-        <v>109</v>
-      </c>
-      <c r="J109" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>238</v>
-      </c>
-      <c r="B110" t="s">
-        <v>117</v>
-      </c>
-      <c r="C110" s="3">
-        <v>59.642857999999997</v>
-      </c>
-      <c r="D110" s="3">
-        <v>33.547027</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="G110" s="6">
-        <v>45759</v>
-      </c>
-      <c r="H110" t="s">
-        <v>3</v>
-      </c>
-      <c r="I110" t="s">
-        <v>110</v>
-      </c>
-      <c r="J110" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="C111" s="4">
-        <v>59.126367000000002</v>
-      </c>
-      <c r="D111" s="4">
-        <v>37.920817</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="G111" s="6">
-        <v>45759</v>
-      </c>
-      <c r="H111" t="s">
-        <v>3</v>
-      </c>
-      <c r="I111" t="s">
-        <v>403</v>
-      </c>
-      <c r="J111" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="C112" s="4">
-        <v>59.089959</v>
-      </c>
-      <c r="D112" s="4">
-        <v>37.915553000000003</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>424</v>
-      </c>
       <c r="G112" s="6">
-        <v>45759</v>
+        <v>45682</v>
       </c>
       <c r="H112" t="s">
-        <v>265</v>
+        <v>3</v>
       </c>
       <c r="I112" t="s">
-        <v>403</v>
+        <v>109</v>
       </c>
       <c r="J112" t="s">
-        <v>411</v>
+        <v>288</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="B113" t="s">
-        <v>127</v>
-      </c>
-      <c r="C113" s="4">
-        <v>59.202885999999999</v>
-      </c>
-      <c r="D113" s="4">
-        <v>39.812596999999997</v>
+        <v>21</v>
+      </c>
+      <c r="C113" s="3">
+        <v>59.807608999999999</v>
+      </c>
+      <c r="D113" s="3">
+        <v>30.374600000000001</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="F113" s="4" t="s">
-        <v>421</v>
+      <c r="F113" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="G113" s="6">
-        <v>45760</v>
+        <v>45671</v>
       </c>
       <c r="H113" t="s">
         <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>403</v>
+        <v>268</v>
       </c>
       <c r="J113" t="s">
-        <v>408</v>
+        <v>279</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c r="B114" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C114" s="3">
-        <v>59.823701999999997</v>
+        <v>57.823453999999998</v>
       </c>
       <c r="D114" s="3">
-        <v>30.319182999999999</v>
+        <v>28.289952</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="G114" s="6">
-        <v>45768</v>
+        <v>45670</v>
       </c>
       <c r="H114" t="s">
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>109</v>
+        <v>268</v>
       </c>
       <c r="J114" t="s">
-        <v>406</v>
+        <v>277</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="B115" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="C115" s="3">
-        <v>59.819806999999997</v>
+        <v>57.793869000000001</v>
       </c>
       <c r="D115" s="3">
-        <v>30.317252</v>
+        <v>28.416497</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G115" s="6">
-        <v>45768</v>
+        <v>45670</v>
       </c>
       <c r="H115" t="s">
         <v>3</v>
       </c>
       <c r="I115" t="s">
-        <v>109</v>
+        <v>268</v>
       </c>
       <c r="J115" t="s">
-        <v>405</v>
+        <v>278</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="B116" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="C116" s="3">
-        <v>59.868921</v>
+        <v>59.867922</v>
       </c>
       <c r="D116" s="3">
-        <v>30.350265</v>
+        <v>30.261116000000001</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="G116" s="6">
-        <v>45770</v>
+        <v>45669</v>
       </c>
       <c r="H116" t="s">
         <v>3</v>
       </c>
       <c r="I116" t="s">
-        <v>109</v>
+        <v>268</v>
       </c>
       <c r="J116" t="s">
-        <v>412</v>
+        <v>275</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>262</v>
+        <v>164</v>
       </c>
       <c r="B117" t="s">
-        <v>259</v>
-      </c>
-      <c r="C117" s="4">
-        <v>64.557015000000007</v>
-      </c>
-      <c r="D117" s="4">
-        <v>39.774903000000002</v>
+        <v>2</v>
+      </c>
+      <c r="C117" s="3">
+        <v>59.858607800000001</v>
+      </c>
+      <c r="D117" s="3">
+        <v>30.248172032325829</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>434</v>
+        <v>417</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="G117" s="6">
-        <v>45771</v>
+        <v>45668</v>
       </c>
       <c r="H117" t="s">
-        <v>265</v>
+        <v>3</v>
       </c>
       <c r="I117" t="s">
-        <v>109</v>
+        <v>268</v>
       </c>
       <c r="J117" t="s">
-        <v>413</v>
+        <v>272</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B118" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="C118" s="3">
-        <v>59.746709000000003</v>
+        <v>59.852615</v>
       </c>
       <c r="D118" s="3">
-        <v>30.497157000000001</v>
+        <v>30.268383</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G118" s="6">
-        <v>45773</v>
+        <v>45668</v>
       </c>
       <c r="H118" t="s">
         <v>3</v>
       </c>
       <c r="I118" t="s">
-        <v>109</v>
+        <v>268</v>
+      </c>
+      <c r="J118" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C119" s="3">
-        <v>59.844054</v>
+        <v>59.855882000000001</v>
       </c>
       <c r="D119" s="3">
-        <v>30.431221000000001</v>
+        <v>30.224481999999998</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G119" s="6">
-        <v>45773</v>
+        <v>45668</v>
       </c>
       <c r="H119" t="s">
         <v>3</v>
       </c>
       <c r="I119" t="s">
-        <v>109</v>
+        <v>268</v>
+      </c>
+      <c r="J119" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="B120" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C120" s="3">
-        <v>60.007587000000001</v>
+        <v>59.854359000000002</v>
       </c>
       <c r="D120" s="3">
-        <v>30.259732</v>
+        <v>30.371158999999999</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>416</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>435</v>
+        <v>419</v>
+      </c>
+      <c r="G120" s="6">
+        <v>45667</v>
+      </c>
+      <c r="H120" t="s">
+        <v>128</v>
+      </c>
+      <c r="I120" t="s">
+        <v>268</v>
+      </c>
+      <c r="J120" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>136</v>
+        <v>220</v>
       </c>
       <c r="B121" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C121" s="3">
-        <v>60.002080999999997</v>
+        <v>59.863328000000003</v>
       </c>
       <c r="D121" s="3">
-        <v>30.272632000000002</v>
+        <v>30.404083</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>416</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>435</v>
+        <v>420</v>
+      </c>
+      <c r="G121" s="6">
+        <v>45667</v>
+      </c>
+      <c r="H121" t="s">
+        <v>3</v>
+      </c>
+      <c r="I121" t="s">
+        <v>268</v>
+      </c>
+      <c r="J121" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>151</v>
+        <v>223</v>
       </c>
       <c r="B122" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C122" s="3">
-        <v>59.989381999999999</v>
+        <v>59.8521</v>
       </c>
       <c r="D122" s="3">
-        <v>30.257289</v>
+        <v>30.349509999999999</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>435</v>
+        <v>421</v>
+      </c>
+      <c r="G122" s="6">
+        <v>45667</v>
+      </c>
+      <c r="H122" t="s">
+        <v>3</v>
+      </c>
+      <c r="I122" t="s">
+        <v>268</v>
+      </c>
+      <c r="J122" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="B123" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="C123" s="3">
-        <v>59.946049000000002</v>
+        <v>60.002080999999997</v>
       </c>
       <c r="D123" s="3">
-        <v>30.498647999999999</v>
+        <v>30.272632000000002</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>416</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B124" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C124" s="3">
-        <v>59.723677000000002</v>
+        <v>59.946049000000002</v>
       </c>
       <c r="D124" s="3">
-        <v>30.080950000000001</v>
+        <v>30.498647999999999</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="G124" s="6">
-        <v>45774</v>
-      </c>
-      <c r="H124" t="s">
-        <v>265</v>
-      </c>
-      <c r="I124" s="3" t="s">
-        <v>109</v>
+        <v>419</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -6053,7 +6095,7 @@
   </sheetData>
   <autoFilter ref="A1:R127" xr:uid="{E6C7E0F2-4CF5-4E0D-8C81-180A66B4648E}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R127">
-      <sortCondition ref="G1:G127"/>
+      <sortCondition descending="1" ref="G1:G127"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R127">

--- a/restaurants.xlsx
+++ b/restaurants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kroli\PycharmProjects\MAP_JS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C477C8-13A4-4C3C-9F0C-5A9A5C860383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2788281E-6031-4602-B886-594801225377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{38334122-D6CB-41C0-898C-DC56B1951378}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{38334122-D6CB-41C0-898C-DC56B1951378}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="441">
   <si>
     <t>Дата аудита</t>
   </si>
@@ -1348,6 +1348,18 @@
   </si>
   <si>
     <t>Шевченко Татьяна Викторовна</t>
+  </si>
+  <si>
+    <t>https://portal.irb.rest/view_play_resource.html?object_id=7150885275936083804</t>
+  </si>
+  <si>
+    <t>https://portal.irb.rest/view_play_resource.html?object_id=7150885277984345243</t>
+  </si>
+  <si>
+    <t>https://portal.irb.rest/view_play_resource.html?object_id=7150885278020468234</t>
+  </si>
+  <si>
+    <t>https://portal.irb.rest/view_play_resource.html?object_id=7150885277651533113</t>
   </si>
 </sst>
 </file>
@@ -1771,18 +1783,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C7E0F2-4CF5-4E0D-8C81-180A66B4648E}">
   <dimension ref="A1:R128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F114" sqref="F114"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="117.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="117.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="34" style="4" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" customWidth="1"/>
     <col min="10" max="10" width="74.85546875" bestFit="1" customWidth="1"/>
@@ -1851,473 +1863,479 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C2" s="3">
-        <v>59.854359000000002</v>
+        <v>60.007587000000001</v>
       </c>
       <c r="D2" s="3">
-        <v>30.371158999999999</v>
+        <v>30.259732</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>416</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="G2" s="6">
-        <v>45667</v>
+        <v>45775</v>
       </c>
       <c r="H2" t="s">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>268</v>
-      </c>
-      <c r="J2" t="s">
-        <v>269</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="C3" s="3">
-        <v>59.863328000000003</v>
+        <v>59.989381999999999</v>
       </c>
       <c r="D3" s="3">
-        <v>30.404083</v>
+        <v>30.257289</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>416</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="G3" s="6">
-        <v>45667</v>
+        <v>45775</v>
       </c>
       <c r="H3" t="s">
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>268</v>
-      </c>
-      <c r="J3" t="s">
-        <v>270</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3">
-        <v>59.8521</v>
+        <v>59.840347000000001</v>
       </c>
       <c r="D4" s="3">
-        <v>30.349509999999999</v>
+        <v>30.114124</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>417</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G4" s="6">
-        <v>45667</v>
+        <v>45774</v>
       </c>
       <c r="H4" t="s">
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>268</v>
+        <v>109</v>
       </c>
       <c r="J4" t="s">
-        <v>271</v>
+        <v>439</v>
+      </c>
+      <c r="K4" s="6">
+        <v>45687</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" t="s">
+        <v>109</v>
+      </c>
+      <c r="N4" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C5" s="3">
-        <v>59.858607800000001</v>
+        <v>59.723677000000002</v>
       </c>
       <c r="D5" s="3">
-        <v>30.248172032325829</v>
+        <v>30.080950000000001</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="G5" s="6">
-        <v>45668</v>
+        <v>45774</v>
       </c>
       <c r="H5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" t="s">
-        <v>268</v>
+        <v>265</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="J5" t="s">
-        <v>272</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="C6" s="3">
-        <v>59.852615</v>
+        <v>59.746709000000003</v>
       </c>
       <c r="D6" s="3">
-        <v>30.268383</v>
+        <v>30.497157000000001</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G6" s="6">
-        <v>45668</v>
+        <v>45773</v>
       </c>
       <c r="H6" t="s">
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>268</v>
+        <v>109</v>
       </c>
       <c r="J6" t="s">
-        <v>273</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3">
-        <v>59.855882000000001</v>
+        <v>59.844054</v>
       </c>
       <c r="D7" s="3">
-        <v>30.224481999999998</v>
+        <v>30.431221000000001</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G7" s="6">
-        <v>45668</v>
+        <v>45773</v>
       </c>
       <c r="H7" t="s">
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>268</v>
+        <v>109</v>
       </c>
       <c r="J7" t="s">
-        <v>274</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>262</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3">
-        <v>59.867922</v>
-      </c>
-      <c r="D8" s="3">
-        <v>30.261116000000001</v>
+        <v>259</v>
+      </c>
+      <c r="C8" s="4">
+        <v>64.557015000000007</v>
+      </c>
+      <c r="D8" s="4">
+        <v>39.774903000000002</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>424</v>
+      <c r="F8" s="4" t="s">
+        <v>434</v>
       </c>
       <c r="G8" s="6">
-        <v>45669</v>
+        <v>45771</v>
       </c>
       <c r="H8" t="s">
-        <v>3</v>
+        <v>265</v>
       </c>
       <c r="I8" t="s">
-        <v>268</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>275</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C9" s="3">
-        <v>57.823453999999998</v>
+        <v>59.868921</v>
       </c>
       <c r="D9" s="3">
-        <v>28.289952</v>
+        <v>30.350265</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G9" s="6">
-        <v>45670</v>
+        <v>45770</v>
       </c>
       <c r="H9" t="s">
         <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>268</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>277</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>227</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C10" s="3">
-        <v>57.793869000000001</v>
+        <v>59.823701999999997</v>
       </c>
       <c r="D10" s="3">
-        <v>28.416497</v>
+        <v>30.319182999999999</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="G10" s="6">
-        <v>45670</v>
+        <v>45768</v>
       </c>
       <c r="H10" t="s">
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>268</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>278</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C11" s="3">
-        <v>59.807608999999999</v>
+        <v>59.819806999999997</v>
       </c>
       <c r="D11" s="3">
-        <v>30.374600000000001</v>
+        <v>30.317252</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>417</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G11" s="6">
-        <v>45671</v>
+        <v>45768</v>
       </c>
       <c r="H11" t="s">
         <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>268</v>
+        <v>109</v>
       </c>
       <c r="J11" t="s">
-        <v>279</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="3">
-        <v>58.525534999999998</v>
-      </c>
-      <c r="D12" s="3">
-        <v>31.231593</v>
+        <v>127</v>
+      </c>
+      <c r="C12" s="4">
+        <v>59.202885999999999</v>
+      </c>
+      <c r="D12" s="4">
+        <v>39.812596999999997</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>425</v>
+      <c r="F12" s="4" t="s">
+        <v>421</v>
       </c>
       <c r="G12" s="6">
-        <v>45682</v>
+        <v>45760</v>
       </c>
       <c r="H12" t="s">
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>403</v>
       </c>
       <c r="J12" t="s">
-        <v>288</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>238</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="C13" s="3">
-        <v>59.9327817</v>
+        <v>59.642857999999997</v>
       </c>
       <c r="D13" s="3">
-        <v>30.354575928408831</v>
+        <v>33.547027</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G13" s="6">
-        <v>45684</v>
+        <v>45759</v>
       </c>
       <c r="H13" t="s">
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J13" t="s">
-        <v>293</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>194</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="3">
-        <v>59.929727</v>
-      </c>
-      <c r="D14" s="3">
-        <v>30.359607</v>
+      <c r="A14" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C14" s="4">
+        <v>59.126367000000002</v>
+      </c>
+      <c r="D14" s="4">
+        <v>37.920817</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>425</v>
+        <v>416</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>424</v>
       </c>
       <c r="G14" s="6">
-        <v>45684</v>
+        <v>45759</v>
       </c>
       <c r="H14" t="s">
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>109</v>
+        <v>403</v>
       </c>
       <c r="J14" t="s">
-        <v>294</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="3">
-        <v>59.987605000000002</v>
-      </c>
-      <c r="D15" s="3">
-        <v>30.353912000000001</v>
+      <c r="A15" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C15" s="4">
+        <v>59.089959</v>
+      </c>
+      <c r="D15" s="4">
+        <v>37.915553000000003</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>420</v>
+      <c r="F15" s="4" t="s">
+        <v>424</v>
       </c>
       <c r="G15" s="6">
-        <v>45685</v>
+        <v>45759</v>
       </c>
       <c r="H15" t="s">
-        <v>128</v>
+        <v>265</v>
       </c>
       <c r="I15" t="s">
-        <v>109</v>
+        <v>403</v>
       </c>
       <c r="J15" t="s">
-        <v>295</v>
+        <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3">
-        <v>59.986694999999997</v>
+        <v>59.908104999999999</v>
       </c>
       <c r="D16" s="3">
-        <v>30.367647000000002</v>
+        <v>30.307361</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="G16" s="6">
-        <v>45685</v>
+        <v>45756</v>
       </c>
       <c r="H16" t="s">
         <v>3</v>
@@ -2326,30 +2344,42 @@
         <v>109</v>
       </c>
       <c r="J16" t="s">
-        <v>296</v>
+        <v>399</v>
+      </c>
+      <c r="K16" s="6">
+        <v>45715</v>
+      </c>
+      <c r="L16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" t="s">
+        <v>110</v>
+      </c>
+      <c r="N16" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="C17" s="3">
-        <v>59.877696</v>
+        <v>59.881005999999999</v>
       </c>
       <c r="D17" s="3">
-        <v>30.443258</v>
+        <v>30.317547999999999</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>417</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="G17" s="6">
-        <v>45686</v>
+        <v>45756</v>
       </c>
       <c r="H17" t="s">
         <v>3</v>
@@ -2358,62 +2388,62 @@
         <v>109</v>
       </c>
       <c r="J17" t="s">
-        <v>298</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="3">
-        <v>59.893503000000003</v>
-      </c>
-      <c r="D18" s="3">
-        <v>30.514641999999998</v>
+        <v>66</v>
+      </c>
+      <c r="C18" s="9">
+        <v>59.832213000000003</v>
+      </c>
+      <c r="D18" s="9">
+        <v>30.251090999999999</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>428</v>
+        <v>417</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>421</v>
       </c>
       <c r="G18" s="6">
-        <v>45686</v>
+        <v>45755</v>
       </c>
       <c r="H18" t="s">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="I18" t="s">
         <v>109</v>
       </c>
       <c r="J18" t="s">
-        <v>300</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>148</v>
+        <v>240</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="C19" s="3">
-        <v>59.863726</v>
+        <v>59.574654000000002</v>
       </c>
       <c r="D19" s="3">
-        <v>30.165687999999999</v>
+        <v>30.127715999999999</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="G19" s="6">
-        <v>45687</v>
+        <v>45755</v>
       </c>
       <c r="H19" t="s">
         <v>3</v>
@@ -2422,30 +2452,30 @@
         <v>109</v>
       </c>
       <c r="J19" t="s">
-        <v>301</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="C20" s="3">
-        <v>59.840347000000001</v>
+        <v>57.812677000000001</v>
       </c>
       <c r="D20" s="3">
-        <v>30.114124</v>
+        <v>28.346626000000001</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G20" s="6">
-        <v>45687</v>
+        <v>45754</v>
       </c>
       <c r="H20" t="s">
         <v>3</v>
@@ -2454,470 +2484,494 @@
         <v>109</v>
       </c>
       <c r="J20" t="s">
-        <v>303</v>
+        <v>397</v>
+      </c>
+      <c r="K20" s="6">
+        <v>45696</v>
+      </c>
+      <c r="L20" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" t="s">
+        <v>109</v>
+      </c>
+      <c r="N20" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="C21" s="3">
-        <v>59.966444000000003</v>
+        <v>57.807676999999998</v>
       </c>
       <c r="D21" s="3">
-        <v>30.311420999999999</v>
+        <v>28.272282000000001</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G21" s="6">
-        <v>45688</v>
+        <v>45754</v>
       </c>
       <c r="H21" t="s">
-        <v>3</v>
+        <v>265</v>
       </c>
       <c r="I21" t="s">
         <v>109</v>
       </c>
       <c r="J21" t="s">
-        <v>305</v>
+        <v>395</v>
+      </c>
+      <c r="K21" s="6">
+        <v>45696</v>
+      </c>
+      <c r="L21" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" t="s">
+        <v>109</v>
+      </c>
+      <c r="N21" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="C22" s="3">
-        <v>59.959471000000001</v>
+        <v>59.927616999999998</v>
       </c>
       <c r="D22" s="3">
-        <v>30.289556000000001</v>
+        <v>30.346698</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G22" s="6">
-        <v>45688</v>
+        <v>45754</v>
       </c>
       <c r="H22" t="s">
-        <v>3</v>
+        <v>265</v>
       </c>
       <c r="I22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J22" t="s">
-        <v>304</v>
+        <v>398</v>
+      </c>
+      <c r="K22" s="6">
+        <v>45714</v>
+      </c>
+      <c r="L22" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" t="s">
+        <v>109</v>
+      </c>
+      <c r="N22" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="C23" s="3">
-        <v>59.828572999999999</v>
+        <v>59.955696000000003</v>
       </c>
       <c r="D23" s="3">
-        <v>30.377960000000002</v>
+        <v>30.353408999999999</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G23" s="6">
-        <v>45697</v>
+        <v>45754</v>
       </c>
       <c r="H23" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="I23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J23" t="s">
-        <v>308</v>
+        <v>394</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="C24" s="3">
-        <v>59.833329999999997</v>
+        <v>58.731769</v>
       </c>
       <c r="D24" s="3">
-        <v>30.390364999999999</v>
+        <v>29.843686999999999</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="G24" s="6">
-        <v>45697</v>
+        <v>45754</v>
       </c>
       <c r="H24" t="s">
         <v>3</v>
       </c>
       <c r="I24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J24" t="s">
-        <v>309</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C25" s="3">
-        <v>59.882699000000002</v>
+        <v>60.006179000000003</v>
       </c>
       <c r="D25" s="3">
-        <v>30.370504</v>
+        <v>30.210629999999998</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="G25" s="6">
-        <v>45698</v>
+        <v>45753</v>
       </c>
       <c r="H25" t="s">
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J25" t="s">
-        <v>310</v>
+        <v>388</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="C26" s="3">
-        <v>59.870013999999998</v>
+        <v>60.008485999999998</v>
       </c>
       <c r="D26" s="3">
-        <v>30.379325000000001</v>
+        <v>30.251135999999999</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G26" s="6">
-        <v>45698</v>
+        <v>45753</v>
       </c>
       <c r="H26" t="s">
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J26" t="s">
-        <v>311</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C27" s="3">
-        <v>59.878670999999997</v>
+        <v>59.946174999999997</v>
       </c>
       <c r="D27" s="3">
-        <v>30.370405000000002</v>
+        <v>30.473980999999998</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>418</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G27" s="6">
-        <v>45698</v>
+        <v>45753</v>
       </c>
       <c r="H27" t="s">
-        <v>128</v>
+        <v>265</v>
       </c>
       <c r="I27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J27" t="s">
-        <v>312</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C28" s="3">
-        <v>59.832231</v>
+        <v>60.011139999999997</v>
       </c>
       <c r="D28" s="3">
-        <v>30.347363000000001</v>
+        <v>30.277411000000001</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>417</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="G28" s="6">
-        <v>45700</v>
+        <v>45752</v>
       </c>
       <c r="H28" t="s">
         <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J28" t="s">
-        <v>313</v>
+        <v>389</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C29" s="3">
-        <v>59.737372999999998</v>
+        <v>60.022171</v>
       </c>
       <c r="D29" s="3">
-        <v>30.572095000000001</v>
+        <v>30.222946</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="G29" s="6">
-        <v>45709</v>
+        <v>45752</v>
       </c>
       <c r="H29" t="s">
         <v>3</v>
       </c>
       <c r="I29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J29" t="s">
-        <v>314</v>
-      </c>
-      <c r="K29" s="6">
-        <v>45666</v>
-      </c>
-      <c r="L29" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" t="s">
-        <v>268</v>
-      </c>
-      <c r="N29" t="s">
-        <v>267</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="C30" s="3">
-        <v>59.735762999999999</v>
+        <v>60.039791000000001</v>
       </c>
       <c r="D30" s="3">
-        <v>30.471869999999999</v>
+        <v>30.243804999999998</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="G30" s="6">
-        <v>45709</v>
+        <v>45752</v>
       </c>
       <c r="H30" t="s">
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J30" t="s">
-        <v>317</v>
-      </c>
-      <c r="K30" s="6">
-        <v>45671</v>
-      </c>
-      <c r="L30" t="s">
-        <v>5</v>
-      </c>
-      <c r="M30" t="s">
-        <v>268</v>
-      </c>
-      <c r="N30" t="s">
-        <v>280</v>
+        <v>391</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C31" s="3">
-        <v>59.961087999999997</v>
+        <v>59.901846999999997</v>
       </c>
       <c r="D31" s="3">
-        <v>30.406616</v>
+        <v>30.274464999999999</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="G31" s="6">
-        <v>45712</v>
+        <v>45750</v>
       </c>
       <c r="H31" t="s">
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J31" t="s">
-        <v>321</v>
+        <v>386</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>189</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="3">
-        <v>59.940150000000003</v>
-      </c>
-      <c r="D32" s="3">
-        <v>30.418365999999999</v>
+      <c r="A32" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="C32" s="4">
+        <v>59.376403000000003</v>
+      </c>
+      <c r="D32" s="4">
+        <v>28.607748999999998</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>432</v>
+      <c r="F32" s="4" t="s">
+        <v>422</v>
       </c>
       <c r="G32" s="6">
-        <v>45712</v>
+        <v>45750</v>
       </c>
       <c r="H32" t="s">
-        <v>3</v>
+        <v>265</v>
       </c>
       <c r="I32" t="s">
         <v>110</v>
       </c>
       <c r="J32" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C33" s="3">
-        <v>60.001747999999999</v>
+        <v>59.885579999999997</v>
       </c>
       <c r="D33" s="3">
-        <v>30.256830999999998</v>
+        <v>30.490016000000001</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="G33" s="6">
-        <v>45713</v>
+        <v>45749</v>
       </c>
       <c r="H33" t="s">
-        <v>3</v>
+        <v>265</v>
       </c>
       <c r="I33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J33" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+      <c r="K33" s="6">
+        <v>45686</v>
+      </c>
+      <c r="L33" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" t="s">
+        <v>109</v>
+      </c>
+      <c r="N33" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C34" s="3">
-        <v>60.045084000000003</v>
+        <v>59.934911999999997</v>
       </c>
       <c r="D34" s="3">
-        <v>30.375803999999999</v>
+        <v>30.442944000000001</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G34" s="6">
-        <v>45713</v>
+        <v>45749</v>
       </c>
       <c r="H34" t="s">
         <v>3</v>
@@ -2926,85 +2980,121 @@
         <v>110</v>
       </c>
       <c r="J34" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="K34" s="6">
+        <v>45712</v>
+      </c>
+      <c r="L34" t="s">
+        <v>3</v>
+      </c>
+      <c r="M34" t="s">
+        <v>110</v>
+      </c>
+      <c r="N34" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>169</v>
+        <v>224</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="C35" s="3">
-        <v>60.037255999999999</v>
+        <v>59.730629</v>
       </c>
       <c r="D35" s="3">
-        <v>30.367889999999999</v>
+        <v>30.613292000000001</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="G35" s="6">
+        <v>45748</v>
+      </c>
+      <c r="H35" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" t="s">
+        <v>109</v>
+      </c>
+      <c r="J35" t="s">
+        <v>378</v>
+      </c>
+      <c r="K35" s="6">
+        <v>45709</v>
+      </c>
+      <c r="L35" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" t="s">
+        <v>109</v>
+      </c>
+      <c r="N35" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="3">
+        <v>59.933027000000003</v>
+      </c>
+      <c r="D36" s="3">
+        <v>30.437643999999999</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="G35" s="6">
-        <v>45713</v>
-      </c>
-      <c r="H35" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="F36" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="G36" s="6">
+        <v>45748</v>
+      </c>
+      <c r="H36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36" t="s">
         <v>110</v>
       </c>
-      <c r="J35" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>188</v>
-      </c>
-      <c r="B36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="3">
-        <v>60.099086</v>
-      </c>
-      <c r="D36" s="3">
-        <v>30.260352000000001</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="G36" s="6">
-        <v>45713</v>
-      </c>
-      <c r="H36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I36" t="s">
-        <v>109</v>
-      </c>
       <c r="J36" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+      <c r="K36" s="6">
+        <v>45712</v>
+      </c>
+      <c r="L36" t="s">
+        <v>3</v>
+      </c>
+      <c r="M36" t="s">
+        <v>110</v>
+      </c>
+      <c r="N36" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>204</v>
+        <v>135</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C37" s="3">
-        <v>60.082470999999998</v>
+        <v>59.916649</v>
       </c>
       <c r="D37" s="3">
-        <v>29.957279</v>
+        <v>30.454792999999999</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>417</v>
@@ -3013,94 +3103,106 @@
         <v>432</v>
       </c>
       <c r="G37" s="6">
-        <v>45713</v>
+        <v>45748</v>
       </c>
       <c r="H37" t="s">
-        <v>3</v>
+        <v>265</v>
       </c>
       <c r="I37" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J37" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="C38" s="3">
-        <v>59.944575999999998</v>
+        <v>59.917834999999997</v>
       </c>
       <c r="D38" s="3">
-        <v>30.358781</v>
+        <v>30.424205000000001</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>416</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="G38" s="6">
-        <v>45714</v>
+        <v>45748</v>
       </c>
       <c r="H38" t="s">
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J38" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="C39" s="3">
-        <v>59.990898999999999</v>
+        <v>59.849201999999998</v>
       </c>
       <c r="D39" s="3">
-        <v>30.205788999999999</v>
+        <v>30.144245000000002</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="G39" s="6">
-        <v>45714</v>
+        <v>45747</v>
       </c>
       <c r="H39" t="s">
-        <v>3</v>
+        <v>265</v>
       </c>
       <c r="I39" t="s">
         <v>110</v>
       </c>
       <c r="J39" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+      <c r="K39" s="6">
+        <v>45687</v>
+      </c>
+      <c r="L39" t="s">
+        <v>3</v>
+      </c>
+      <c r="M39" t="s">
+        <v>109</v>
+      </c>
+      <c r="N39" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C40" s="3">
-        <v>59.981459999999998</v>
+        <v>59.942025000000001</v>
       </c>
       <c r="D40" s="3">
-        <v>30.210315999999999</v>
+        <v>30.276001000000001</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>417</v>
@@ -3109,255 +3211,255 @@
         <v>427</v>
       </c>
       <c r="G40" s="6">
-        <v>45714</v>
+        <v>45747</v>
       </c>
       <c r="H40" t="s">
         <v>3</v>
       </c>
       <c r="I40" t="s">
+        <v>109</v>
+      </c>
+      <c r="J40" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="3">
+        <v>59.927562999999999</v>
+      </c>
+      <c r="D41" s="3">
+        <v>30.360613000000001</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="G41" s="6">
+        <v>45746</v>
+      </c>
+      <c r="H41" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" t="s">
+        <v>109</v>
+      </c>
+      <c r="J41" t="s">
+        <v>370</v>
+      </c>
+      <c r="K41" s="6">
+        <v>45710</v>
+      </c>
+      <c r="L41" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" t="s">
+        <v>109</v>
+      </c>
+      <c r="N41" t="s">
+        <v>316</v>
+      </c>
+      <c r="O41" s="6">
+        <v>45681</v>
+      </c>
+      <c r="P41" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>109</v>
+      </c>
+      <c r="R41" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>196</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="3">
+        <v>59.948540999999999</v>
+      </c>
+      <c r="D42" s="3">
+        <v>30.233115000000002</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="G42" s="6">
+        <v>45746</v>
+      </c>
+      <c r="H42" t="s">
+        <v>265</v>
+      </c>
+      <c r="I42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J42" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>203</v>
+      </c>
+      <c r="B43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="3">
+        <v>60.053224</v>
+      </c>
+      <c r="D43" s="3">
+        <v>30.389655999999999</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="G43" s="6">
+        <v>45746</v>
+      </c>
+      <c r="H43" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" t="s">
         <v>110</v>
       </c>
-      <c r="J40" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>195</v>
-      </c>
-      <c r="B41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="3">
-        <v>59.988945999999999</v>
-      </c>
-      <c r="D41" s="3">
-        <v>30.226108</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="J43" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>205</v>
+      </c>
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="3">
+        <v>60.005482000000001</v>
+      </c>
+      <c r="D44" s="3">
+        <v>30.299060999999998</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="G41" s="6">
-        <v>45714</v>
-      </c>
-      <c r="H41" t="s">
-        <v>128</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="F44" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="G44" s="6">
+        <v>45746</v>
+      </c>
+      <c r="H44" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" t="s">
         <v>110</v>
       </c>
-      <c r="J41" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>186</v>
-      </c>
-      <c r="B42" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="3">
-        <v>60.038280999999998</v>
-      </c>
-      <c r="D42" s="3">
-        <v>30.320665000000002</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="G42" s="6">
-        <v>45715</v>
-      </c>
-      <c r="H42" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" t="s">
-        <v>109</v>
-      </c>
-      <c r="J42" t="s">
-        <v>332</v>
-      </c>
-      <c r="K42" s="6">
-        <v>45683</v>
-      </c>
-      <c r="L42" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" t="s">
-        <v>109</v>
-      </c>
-      <c r="N42" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>191</v>
-      </c>
-      <c r="B43" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="3">
-        <v>60.066958</v>
-      </c>
-      <c r="D43" s="3">
-        <v>30.336296000000001</v>
-      </c>
-      <c r="E43" s="3" t="s">
+      <c r="J44" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>202</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="3">
+        <v>59.832186</v>
+      </c>
+      <c r="D45" s="3">
+        <v>30.505673000000002</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="G45" s="6">
+        <v>45746</v>
+      </c>
+      <c r="H45" t="s">
+        <v>265</v>
+      </c>
+      <c r="I45" t="s">
+        <v>109</v>
+      </c>
+      <c r="J45" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>264</v>
+      </c>
+      <c r="B46" t="s">
+        <v>261</v>
+      </c>
+      <c r="C46" s="4">
+        <v>64.541949000000002</v>
+      </c>
+      <c r="D46" s="4">
+        <v>40.535030999999996</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="G43" s="6">
-        <v>45715</v>
-      </c>
-      <c r="H43" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" t="s">
-        <v>109</v>
-      </c>
-      <c r="J43" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>221</v>
-      </c>
-      <c r="B44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="3">
-        <v>60.057357000000003</v>
-      </c>
-      <c r="D44" s="3">
-        <v>30.308394</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="G44" s="6">
-        <v>45715</v>
-      </c>
-      <c r="H44" t="s">
-        <v>3</v>
-      </c>
-      <c r="I44" t="s">
-        <v>109</v>
-      </c>
-      <c r="J44" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>232</v>
-      </c>
-      <c r="B45" t="s">
-        <v>108</v>
-      </c>
-      <c r="C45" s="3">
-        <v>59.901142999999998</v>
-      </c>
-      <c r="D45" s="3">
-        <v>29.085877</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="G45" s="6">
-        <v>45715</v>
-      </c>
-      <c r="H45" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" t="s">
-        <v>110</v>
-      </c>
-      <c r="J45" t="s">
-        <v>334</v>
-      </c>
-      <c r="K45" s="6">
-        <v>45669</v>
-      </c>
-      <c r="L45" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" t="s">
-        <v>111</v>
-      </c>
-      <c r="N45" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>161</v>
-      </c>
-      <c r="B46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="3">
-        <v>59.935839999999999</v>
-      </c>
-      <c r="D46" s="3">
-        <v>30.315885999999999</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>432</v>
+      <c r="F46" s="4" t="s">
+        <v>434</v>
       </c>
       <c r="G46" s="6">
-        <v>45716</v>
+        <v>45745</v>
       </c>
       <c r="H46" t="s">
-        <v>3</v>
+        <v>265</v>
       </c>
       <c r="I46" t="s">
         <v>110</v>
       </c>
       <c r="J46" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47" s="3">
-        <v>59.914614999999998</v>
-      </c>
-      <c r="D47" s="3">
-        <v>30.349142000000001</v>
+        <v>254</v>
+      </c>
+      <c r="C47" s="4">
+        <v>68.960651999999996</v>
+      </c>
+      <c r="D47" s="4">
+        <v>33.110868000000004</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>436</v>
+        <v>418</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>426</v>
       </c>
       <c r="G47" s="6">
-        <v>45716</v>
+        <v>45744</v>
       </c>
       <c r="H47" t="s">
         <v>3</v>
@@ -3366,159 +3468,150 @@
         <v>110</v>
       </c>
       <c r="J47" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>201</v>
+        <v>256</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="3">
-        <v>58.53302</v>
-      </c>
-      <c r="D48" s="3">
-        <v>31.267274</v>
+        <v>255</v>
+      </c>
+      <c r="C48" s="4">
+        <v>68.956546000000003</v>
+      </c>
+      <c r="D48" s="4">
+        <v>33.070579000000002</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>425</v>
+        <v>418</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>426</v>
       </c>
       <c r="G48" s="6">
-        <v>45716</v>
+        <v>45744</v>
       </c>
       <c r="H48" t="s">
-        <v>3</v>
+        <v>265</v>
       </c>
       <c r="I48" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J48" t="s">
-        <v>340</v>
-      </c>
-      <c r="K48" s="6">
-        <v>45682</v>
-      </c>
-      <c r="L48" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" t="s">
-        <v>109</v>
-      </c>
-      <c r="N48" t="s">
-        <v>289</v>
+        <v>366</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" s="3">
-        <v>58.505611000000002</v>
-      </c>
-      <c r="D49" s="3">
-        <v>31.231107999999999</v>
+        <v>253</v>
+      </c>
+      <c r="C49" s="4">
+        <v>68.970376000000002</v>
+      </c>
+      <c r="D49" s="4">
+        <v>33.096037000000003</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>425</v>
+        <v>418</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>426</v>
       </c>
       <c r="G49" s="6">
-        <v>45716</v>
+        <v>45743</v>
       </c>
       <c r="H49" t="s">
         <v>3</v>
       </c>
       <c r="I49" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J49" t="s">
-        <v>338</v>
-      </c>
-      <c r="K49" s="6">
-        <v>45682</v>
-      </c>
-      <c r="L49" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" t="s">
-        <v>109</v>
-      </c>
-      <c r="N49" t="s">
-        <v>287</v>
+        <v>365</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C50" s="3">
-        <v>59.912914000000001</v>
+        <v>60.052703000000001</v>
       </c>
       <c r="D50" s="3">
-        <v>30.446878000000002</v>
+        <v>30.331202000000001</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="G50" s="6">
-        <v>45719</v>
+        <v>45734</v>
       </c>
       <c r="H50" t="s">
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>110</v>
+        <v>130</v>
+      </c>
+      <c r="J50" t="s">
+        <v>364</v>
+      </c>
+      <c r="K50" s="6">
+        <v>45683</v>
+      </c>
+      <c r="L50" t="s">
+        <v>5</v>
+      </c>
+      <c r="M50" t="s">
+        <v>109</v>
+      </c>
+      <c r="N50" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C51" s="3">
-        <v>59.979565000000001</v>
+        <v>60.036731000000003</v>
       </c>
       <c r="D51" s="3">
-        <v>30.377905999999999</v>
+        <v>30.345880999999999</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="G51" s="6">
-        <v>45719</v>
+        <v>45734</v>
       </c>
       <c r="H51" t="s">
         <v>3</v>
       </c>
       <c r="I51" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="J51" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="K51" s="6">
-        <v>45685</v>
+        <v>45683</v>
       </c>
       <c r="L51" t="s">
         <v>5</v>
@@ -3527,181 +3620,193 @@
         <v>109</v>
       </c>
       <c r="N51" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="B52" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="C52" s="3">
-        <v>59.882739999999998</v>
+        <v>59.908740999999999</v>
       </c>
       <c r="D52" s="3">
-        <v>30.985507999999999</v>
+        <v>30.483539</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="G52" s="6">
-        <v>45719</v>
+        <v>45731</v>
       </c>
       <c r="H52" t="s">
         <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="J52" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>243</v>
+        <v>187</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
-      </c>
-      <c r="C53" s="4">
-        <v>61.774921999999997</v>
-      </c>
-      <c r="D53" s="4">
-        <v>34.30782</v>
+        <v>88</v>
+      </c>
+      <c r="C53" s="3">
+        <v>59.912610999999998</v>
+      </c>
+      <c r="D53" s="3">
+        <v>30.480449</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>429</v>
+        <v>416</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>434</v>
       </c>
       <c r="G53" s="6">
-        <v>45720</v>
+        <v>45731</v>
       </c>
       <c r="H53" t="s">
         <v>3</v>
       </c>
       <c r="I53" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="J53" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B54" t="s">
-        <v>123</v>
-      </c>
-      <c r="C54" s="4">
-        <v>61.787666999999999</v>
-      </c>
-      <c r="D54" s="4">
-        <v>34.356696999999997</v>
+        <v>120</v>
+      </c>
+      <c r="C54" s="3">
+        <v>59.914250000000003</v>
+      </c>
+      <c r="D54" s="3">
+        <v>30.511538999999999</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>429</v>
+      <c r="F54" s="3" t="s">
+        <v>428</v>
       </c>
       <c r="G54" s="6">
-        <v>45720</v>
+        <v>45731</v>
       </c>
       <c r="H54" t="s">
         <v>3</v>
       </c>
       <c r="I54" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="J54" t="s">
-        <v>344</v>
+        <v>266</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>245</v>
+        <v>157</v>
       </c>
       <c r="B55" t="s">
-        <v>124</v>
-      </c>
-      <c r="C55" s="4">
-        <v>61.777292000000003</v>
-      </c>
-      <c r="D55" s="4">
-        <v>34.30782</v>
+        <v>6</v>
+      </c>
+      <c r="C55" s="3">
+        <v>59.916279000000003</v>
+      </c>
+      <c r="D55" s="3">
+        <v>30.309086000000001</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>429</v>
+      <c r="F55" s="3" t="s">
+        <v>426</v>
       </c>
       <c r="G55" s="6">
-        <v>45720</v>
+        <v>45730</v>
       </c>
       <c r="H55" t="s">
         <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="J55" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C56" s="3">
-        <v>60.059013999999998</v>
+        <v>59.925502000000002</v>
       </c>
       <c r="D56" s="3">
-        <v>30.335011000000002</v>
+        <v>30.358125000000001</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="G56" s="6">
-        <v>45721</v>
+        <v>45730</v>
       </c>
       <c r="H56" t="s">
+        <v>3</v>
+      </c>
+      <c r="I56" t="s">
+        <v>130</v>
+      </c>
+      <c r="J56" t="s">
+        <v>360</v>
+      </c>
+      <c r="K56" s="6">
+        <v>45681</v>
+      </c>
+      <c r="L56" t="s">
         <v>5</v>
       </c>
-      <c r="I56" t="s">
-        <v>109</v>
-      </c>
-      <c r="J56" t="s">
-        <v>346</v>
+      <c r="M56" t="s">
+        <v>109</v>
+      </c>
+      <c r="N56" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C57" s="3">
-        <v>60.015098000000002</v>
+        <v>60.011539999999997</v>
       </c>
       <c r="D57" s="3">
-        <v>30.378786000000002</v>
+        <v>30.397811999999998</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>417</v>
@@ -3710,30 +3815,30 @@
         <v>430</v>
       </c>
       <c r="G57" s="6">
-        <v>45722</v>
+        <v>45729</v>
       </c>
       <c r="H57" t="s">
         <v>3</v>
       </c>
       <c r="I57" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="J57" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>234</v>
+        <v>149</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="C58" s="3">
-        <v>59.987434</v>
+        <v>60.036096999999998</v>
       </c>
       <c r="D58" s="3">
-        <v>30.655791000000001</v>
+        <v>30.414521000000001</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>416</v>
@@ -3742,112 +3847,112 @@
         <v>433</v>
       </c>
       <c r="G58" s="6">
-        <v>45722</v>
+        <v>45729</v>
       </c>
       <c r="H58" t="s">
         <v>3</v>
       </c>
       <c r="I58" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="J58" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B59" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C59" s="3">
-        <v>60.031485000000004</v>
+        <v>60.049253</v>
       </c>
       <c r="D59" s="3">
-        <v>30.628446</v>
+        <v>30.443977</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>416</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="G59" s="6">
-        <v>45722</v>
+        <v>45729</v>
       </c>
       <c r="H59" t="s">
         <v>3</v>
       </c>
       <c r="I59" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="J59" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="B60" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C60" s="3">
-        <v>59.934227</v>
+        <v>59.809173999999999</v>
       </c>
       <c r="D60" s="3">
-        <v>30.338137</v>
+        <v>30.320799999999998</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G60" s="6">
-        <v>45723</v>
+        <v>45728</v>
       </c>
       <c r="H60" t="s">
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="J60" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>247</v>
+        <v>179</v>
       </c>
       <c r="B61" t="s">
-        <v>129</v>
-      </c>
-      <c r="C61" s="4">
-        <v>60.714761000000003</v>
-      </c>
-      <c r="D61" s="4">
-        <v>28.749079999999999</v>
+        <v>78</v>
+      </c>
+      <c r="C61" s="3">
+        <v>59.925358000000003</v>
+      </c>
+      <c r="D61" s="3">
+        <v>30.318006</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>434</v>
+        <v>418</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>426</v>
       </c>
       <c r="G61" s="6">
-        <v>45723</v>
+        <v>45726</v>
       </c>
       <c r="H61" t="s">
         <v>3</v>
       </c>
       <c r="I61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J61" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -3916,80 +4021,80 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C64" s="3">
-        <v>59.925358000000003</v>
+        <v>59.934227</v>
       </c>
       <c r="D64" s="3">
-        <v>30.318006</v>
+        <v>30.338137</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="G64" s="6">
-        <v>45726</v>
+        <v>45723</v>
       </c>
       <c r="H64" t="s">
         <v>3</v>
       </c>
       <c r="I64" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J64" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="B65" t="s">
-        <v>53</v>
-      </c>
-      <c r="C65" s="3">
-        <v>59.809173999999999</v>
-      </c>
-      <c r="D65" s="3">
-        <v>30.320799999999998</v>
+        <v>129</v>
+      </c>
+      <c r="C65" s="4">
+        <v>60.714761000000003</v>
+      </c>
+      <c r="D65" s="4">
+        <v>28.749079999999999</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>424</v>
+      <c r="F65" s="4" t="s">
+        <v>434</v>
       </c>
       <c r="G65" s="6">
-        <v>45728</v>
+        <v>45723</v>
       </c>
       <c r="H65" t="s">
         <v>3</v>
       </c>
       <c r="I65" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="J65" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C66" s="3">
-        <v>60.011539999999997</v>
+        <v>60.015098000000002</v>
       </c>
       <c r="D66" s="3">
-        <v>30.397811999999998</v>
+        <v>30.378786000000002</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>417</v>
@@ -3998,30 +4103,30 @@
         <v>430</v>
       </c>
       <c r="G66" s="6">
-        <v>45729</v>
+        <v>45722</v>
       </c>
       <c r="H66" t="s">
         <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="J66" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>149</v>
+        <v>234</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="C67" s="3">
-        <v>60.036096999999998</v>
+        <v>59.987434</v>
       </c>
       <c r="D67" s="3">
-        <v>30.414521000000001</v>
+        <v>30.655791000000001</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>416</v>
@@ -4030,255 +4135,240 @@
         <v>433</v>
       </c>
       <c r="G67" s="6">
-        <v>45729</v>
+        <v>45722</v>
       </c>
       <c r="H67" t="s">
         <v>3</v>
       </c>
       <c r="I67" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="J67" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B68" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="3">
-        <v>60.049253</v>
+        <v>60.031485000000004</v>
       </c>
       <c r="D68" s="3">
-        <v>30.443977</v>
+        <v>30.628446</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>416</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G68" s="6">
-        <v>45729</v>
+        <v>45722</v>
       </c>
       <c r="H68" t="s">
         <v>3</v>
       </c>
       <c r="I68" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="J68" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="C69" s="3">
-        <v>59.916279000000003</v>
+        <v>60.059013999999998</v>
       </c>
       <c r="D69" s="3">
-        <v>30.309086000000001</v>
+        <v>30.335011000000002</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>418</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="G69" s="6">
-        <v>45730</v>
+        <v>45721</v>
       </c>
       <c r="H69" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I69" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="J69" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="B70" t="s">
-        <v>82</v>
-      </c>
-      <c r="C70" s="3">
-        <v>59.925502000000002</v>
-      </c>
-      <c r="D70" s="3">
-        <v>30.358125000000001</v>
+        <v>122</v>
+      </c>
+      <c r="C70" s="4">
+        <v>61.774921999999997</v>
+      </c>
+      <c r="D70" s="4">
+        <v>34.30782</v>
       </c>
       <c r="E70" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="G70" s="6">
+        <v>45720</v>
+      </c>
+      <c r="H70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I70" t="s">
+        <v>110</v>
+      </c>
+      <c r="J70" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>244</v>
+      </c>
+      <c r="B71" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" s="4">
+        <v>61.787666999999999</v>
+      </c>
+      <c r="D71" s="4">
+        <v>34.356696999999997</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="G71" s="6">
+        <v>45720</v>
+      </c>
+      <c r="H71" t="s">
+        <v>3</v>
+      </c>
+      <c r="I71" t="s">
+        <v>110</v>
+      </c>
+      <c r="J71" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>245</v>
+      </c>
+      <c r="B72" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" s="4">
+        <v>61.777292000000003</v>
+      </c>
+      <c r="D72" s="4">
+        <v>34.30782</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="G72" s="6">
+        <v>45720</v>
+      </c>
+      <c r="H72" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" t="s">
+        <v>110</v>
+      </c>
+      <c r="J72" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>173</v>
+      </c>
+      <c r="B73" t="s">
+        <v>63</v>
+      </c>
+      <c r="C73" s="3">
+        <v>59.912914000000001</v>
+      </c>
+      <c r="D73" s="3">
+        <v>30.446878000000002</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="G70" s="6">
-        <v>45730</v>
-      </c>
-      <c r="H70" t="s">
-        <v>3</v>
-      </c>
-      <c r="I70" t="s">
-        <v>130</v>
-      </c>
-      <c r="J70" t="s">
-        <v>360</v>
-      </c>
-      <c r="K70" s="6">
-        <v>45681</v>
-      </c>
-      <c r="L70" t="s">
-        <v>5</v>
-      </c>
-      <c r="M70" t="s">
-        <v>109</v>
-      </c>
-      <c r="N70" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>152</v>
-      </c>
-      <c r="B71" t="s">
-        <v>65</v>
-      </c>
-      <c r="C71" s="3">
-        <v>59.908740999999999</v>
-      </c>
-      <c r="D71" s="3">
-        <v>30.483539</v>
-      </c>
-      <c r="E71" s="3" t="s">
+      <c r="F73" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G73" s="6">
+        <v>45719</v>
+      </c>
+      <c r="H73" t="s">
+        <v>3</v>
+      </c>
+      <c r="I73" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>216</v>
+      </c>
+      <c r="B74" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="3">
+        <v>59.979565000000001</v>
+      </c>
+      <c r="D74" s="3">
+        <v>30.377905999999999</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="G71" s="6">
-        <v>45731</v>
-      </c>
-      <c r="H71" t="s">
-        <v>3</v>
-      </c>
-      <c r="I71" t="s">
-        <v>130</v>
-      </c>
-      <c r="J71" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>187</v>
-      </c>
-      <c r="B72" t="s">
-        <v>88</v>
-      </c>
-      <c r="C72" s="3">
-        <v>59.912610999999998</v>
-      </c>
-      <c r="D72" s="3">
-        <v>30.480449</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="G72" s="6">
-        <v>45731</v>
-      </c>
-      <c r="H72" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" t="s">
-        <v>130</v>
-      </c>
-      <c r="J72" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>241</v>
-      </c>
-      <c r="B73" t="s">
-        <v>120</v>
-      </c>
-      <c r="C73" s="3">
-        <v>59.914250000000003</v>
-      </c>
-      <c r="D73" s="3">
-        <v>30.511538999999999</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="G73" s="6">
-        <v>45731</v>
-      </c>
-      <c r="H73" t="s">
-        <v>3</v>
-      </c>
-      <c r="I73" t="s">
-        <v>130</v>
-      </c>
-      <c r="J73" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>184</v>
-      </c>
-      <c r="B74" t="s">
-        <v>49</v>
-      </c>
-      <c r="C74" s="3">
-        <v>60.052703000000001</v>
-      </c>
-      <c r="D74" s="3">
-        <v>30.331202000000001</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>418</v>
-      </c>
       <c r="F74" s="3" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G74" s="6">
-        <v>45734</v>
+        <v>45719</v>
       </c>
       <c r="H74" t="s">
         <v>3</v>
       </c>
       <c r="I74" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="J74" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="K74" s="6">
-        <v>45683</v>
+        <v>45685</v>
       </c>
       <c r="L74" t="s">
         <v>5</v>
@@ -4287,21 +4377,21 @@
         <v>109</v>
       </c>
       <c r="N74" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="B75" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="C75" s="3">
-        <v>60.036731000000003</v>
+        <v>59.882739999999998</v>
       </c>
       <c r="D75" s="3">
-        <v>30.345880999999999</v>
+        <v>30.985507999999999</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>418</v>
@@ -4310,51 +4400,39 @@
         <v>431</v>
       </c>
       <c r="G75" s="6">
-        <v>45734</v>
+        <v>45719</v>
       </c>
       <c r="H75" t="s">
         <v>3</v>
       </c>
       <c r="I75" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="J75" t="s">
-        <v>363</v>
-      </c>
-      <c r="K75" s="6">
-        <v>45683</v>
-      </c>
-      <c r="L75" t="s">
-        <v>5</v>
-      </c>
-      <c r="M75" t="s">
-        <v>109</v>
-      </c>
-      <c r="N75" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>258</v>
+        <v>161</v>
       </c>
       <c r="B76" t="s">
-        <v>253</v>
-      </c>
-      <c r="C76" s="4">
-        <v>68.970376000000002</v>
-      </c>
-      <c r="D76" s="4">
-        <v>33.096037000000003</v>
+        <v>33</v>
+      </c>
+      <c r="C76" s="3">
+        <v>59.935839999999999</v>
+      </c>
+      <c r="D76" s="3">
+        <v>30.315885999999999</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>426</v>
+        <v>417</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>432</v>
       </c>
       <c r="G76" s="6">
-        <v>45743</v>
+        <v>45716</v>
       </c>
       <c r="H76" t="s">
         <v>3</v>
@@ -4363,30 +4441,30 @@
         <v>110</v>
       </c>
       <c r="J76" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>257</v>
+        <v>185</v>
       </c>
       <c r="B77" t="s">
-        <v>254</v>
-      </c>
-      <c r="C77" s="4">
-        <v>68.960651999999996</v>
-      </c>
-      <c r="D77" s="4">
-        <v>33.110868000000004</v>
+        <v>85</v>
+      </c>
+      <c r="C77" s="3">
+        <v>59.914614999999998</v>
+      </c>
+      <c r="D77" s="3">
+        <v>30.349142000000001</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>426</v>
+        <v>416</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>436</v>
       </c>
       <c r="G77" s="6">
-        <v>45744</v>
+        <v>45716</v>
       </c>
       <c r="H77" t="s">
         <v>3</v>
@@ -4395,94 +4473,118 @@
         <v>110</v>
       </c>
       <c r="J77" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="B78" t="s">
-        <v>255</v>
-      </c>
-      <c r="C78" s="4">
-        <v>68.956546000000003</v>
-      </c>
-      <c r="D78" s="4">
-        <v>33.070579000000002</v>
+        <v>25</v>
+      </c>
+      <c r="C78" s="3">
+        <v>58.53302</v>
+      </c>
+      <c r="D78" s="3">
+        <v>31.267274</v>
       </c>
       <c r="E78" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="G78" s="6">
+        <v>45716</v>
+      </c>
+      <c r="H78" t="s">
+        <v>3</v>
+      </c>
+      <c r="I78" t="s">
+        <v>109</v>
+      </c>
+      <c r="J78" t="s">
+        <v>340</v>
+      </c>
+      <c r="K78" s="6">
+        <v>45682</v>
+      </c>
+      <c r="L78" t="s">
+        <v>3</v>
+      </c>
+      <c r="M78" t="s">
+        <v>109</v>
+      </c>
+      <c r="N78" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>231</v>
+      </c>
+      <c r="B79" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79" s="3">
+        <v>58.505611000000002</v>
+      </c>
+      <c r="D79" s="3">
+        <v>31.231107999999999</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="G79" s="6">
+        <v>45716</v>
+      </c>
+      <c r="H79" t="s">
+        <v>3</v>
+      </c>
+      <c r="I79" t="s">
+        <v>109</v>
+      </c>
+      <c r="J79" t="s">
+        <v>338</v>
+      </c>
+      <c r="K79" s="6">
+        <v>45682</v>
+      </c>
+      <c r="L79" t="s">
+        <v>5</v>
+      </c>
+      <c r="M79" t="s">
+        <v>109</v>
+      </c>
+      <c r="N79" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>186</v>
+      </c>
+      <c r="B80" t="s">
+        <v>52</v>
+      </c>
+      <c r="C80" s="3">
+        <v>60.038280999999998</v>
+      </c>
+      <c r="D80" s="3">
+        <v>30.320665000000002</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="F78" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="G78" s="6">
-        <v>45744</v>
-      </c>
-      <c r="H78" t="s">
-        <v>265</v>
-      </c>
-      <c r="I78" t="s">
-        <v>110</v>
-      </c>
-      <c r="J78" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>264</v>
-      </c>
-      <c r="B79" t="s">
-        <v>261</v>
-      </c>
-      <c r="C79" s="4">
-        <v>64.541949000000002</v>
-      </c>
-      <c r="D79" s="4">
-        <v>40.535030999999996</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="G79" s="6">
-        <v>45745</v>
-      </c>
-      <c r="H79" t="s">
-        <v>265</v>
-      </c>
-      <c r="I79" t="s">
-        <v>110</v>
-      </c>
-      <c r="J79" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>146</v>
-      </c>
-      <c r="B80" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="3">
-        <v>59.927562999999999</v>
-      </c>
-      <c r="D80" s="3">
-        <v>30.360613000000001</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>416</v>
-      </c>
       <c r="F80" s="3" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="G80" s="6">
-        <v>45746</v>
+        <v>45715</v>
       </c>
       <c r="H80" t="s">
         <v>3</v>
@@ -4491,10 +4593,10 @@
         <v>109</v>
       </c>
       <c r="J80" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="K80" s="6">
-        <v>45710</v>
+        <v>45683</v>
       </c>
       <c r="L80" t="s">
         <v>5</v>
@@ -4503,106 +4605,94 @@
         <v>109</v>
       </c>
       <c r="N80" t="s">
-        <v>316</v>
-      </c>
-      <c r="O80" s="6">
-        <v>45681</v>
-      </c>
-      <c r="P80" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>109</v>
-      </c>
-      <c r="R80" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="C81" s="3">
-        <v>59.948540999999999</v>
+        <v>60.066958</v>
       </c>
       <c r="D81" s="3">
-        <v>30.233115000000002</v>
+        <v>30.336296000000001</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="G81" s="6">
-        <v>45746</v>
+        <v>45715</v>
       </c>
       <c r="H81" t="s">
-        <v>265</v>
+        <v>3</v>
       </c>
       <c r="I81" t="s">
         <v>109</v>
       </c>
       <c r="J81" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="B82" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C82" s="3">
-        <v>60.053224</v>
+        <v>60.057357000000003</v>
       </c>
       <c r="D82" s="3">
-        <v>30.389655999999999</v>
+        <v>30.308394</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="G82" s="6">
-        <v>45746</v>
+        <v>45715</v>
       </c>
       <c r="H82" t="s">
         <v>3</v>
       </c>
       <c r="I82" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J82" t="s">
-        <v>407</v>
+        <v>336</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="B83" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="C83" s="3">
-        <v>60.005482000000001</v>
+        <v>59.901142999999998</v>
       </c>
       <c r="D83" s="3">
-        <v>30.299060999999998</v>
+        <v>29.085877</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="G83" s="6">
-        <v>45746</v>
+        <v>45715</v>
       </c>
       <c r="H83" t="s">
         <v>3</v>
@@ -4611,97 +4701,97 @@
         <v>110</v>
       </c>
       <c r="J83" t="s">
-        <v>369</v>
+        <v>334</v>
+      </c>
+      <c r="K83" s="6">
+        <v>45669</v>
+      </c>
+      <c r="L83" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" t="s">
+        <v>111</v>
+      </c>
+      <c r="N83" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="B84" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C84" s="3">
-        <v>59.832186</v>
+        <v>59.944575999999998</v>
       </c>
       <c r="D84" s="3">
-        <v>30.505673000000002</v>
+        <v>30.358781</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="G84" s="6">
-        <v>45746</v>
+        <v>45714</v>
       </c>
       <c r="H84" t="s">
-        <v>265</v>
+        <v>3</v>
       </c>
       <c r="I84" t="s">
         <v>109</v>
       </c>
       <c r="J84" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="B85" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="C85" s="3">
-        <v>59.849201999999998</v>
+        <v>59.990898999999999</v>
       </c>
       <c r="D85" s="3">
-        <v>30.144245000000002</v>
+        <v>30.205788999999999</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="G85" s="6">
-        <v>45747</v>
+        <v>45714</v>
       </c>
       <c r="H85" t="s">
-        <v>265</v>
+        <v>3</v>
       </c>
       <c r="I85" t="s">
         <v>110</v>
       </c>
       <c r="J85" t="s">
-        <v>373</v>
-      </c>
-      <c r="K85" s="6">
-        <v>45687</v>
-      </c>
-      <c r="L85" t="s">
-        <v>3</v>
-      </c>
-      <c r="M85" t="s">
-        <v>109</v>
-      </c>
-      <c r="N85" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="B86" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C86" s="3">
-        <v>59.942025000000001</v>
+        <v>59.981459999999998</v>
       </c>
       <c r="D86" s="3">
-        <v>30.276001000000001</v>
+        <v>30.210315999999999</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>417</v>
@@ -4710,159 +4800,135 @@
         <v>427</v>
       </c>
       <c r="G86" s="6">
-        <v>45747</v>
+        <v>45714</v>
       </c>
       <c r="H86" t="s">
         <v>3</v>
       </c>
       <c r="I86" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J86" t="s">
-        <v>374</v>
+        <v>328</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="B87" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="C87" s="3">
-        <v>59.730629</v>
+        <v>59.988945999999999</v>
       </c>
       <c r="D87" s="3">
-        <v>30.613292000000001</v>
+        <v>30.226108</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>417</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G87" s="6">
-        <v>45748</v>
+        <v>45714</v>
       </c>
       <c r="H87" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="I87" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J87" t="s">
-        <v>378</v>
-      </c>
-      <c r="K87" s="6">
-        <v>45709</v>
-      </c>
-      <c r="L87" t="s">
-        <v>3</v>
-      </c>
-      <c r="M87" t="s">
-        <v>109</v>
-      </c>
-      <c r="N87" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B88" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="C88" s="3">
-        <v>59.933027000000003</v>
+        <v>60.001747999999999</v>
       </c>
       <c r="D88" s="3">
-        <v>30.437643999999999</v>
+        <v>30.256830999999998</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G88" s="6">
-        <v>45748</v>
+        <v>45713</v>
       </c>
       <c r="H88" t="s">
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J88" t="s">
-        <v>379</v>
-      </c>
-      <c r="K88" s="6">
-        <v>45712</v>
-      </c>
-      <c r="L88" t="s">
-        <v>3</v>
-      </c>
-      <c r="M88" t="s">
-        <v>110</v>
-      </c>
-      <c r="N88" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="B89" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C89" s="3">
-        <v>59.916649</v>
+        <v>60.045084000000003</v>
       </c>
       <c r="D89" s="3">
-        <v>30.454792999999999</v>
+        <v>30.375803999999999</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G89" s="6">
-        <v>45748</v>
+        <v>45713</v>
       </c>
       <c r="H89" t="s">
-        <v>265</v>
+        <v>3</v>
       </c>
       <c r="I89" t="s">
         <v>110</v>
       </c>
       <c r="J89" t="s">
-        <v>380</v>
+        <v>323</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B90" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C90" s="3">
-        <v>59.917834999999997</v>
+        <v>60.037255999999999</v>
       </c>
       <c r="D90" s="3">
-        <v>30.424205000000001</v>
+        <v>30.367889999999999</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="G90" s="6">
-        <v>45748</v>
+        <v>45713</v>
       </c>
       <c r="H90" t="s">
         <v>3</v>
@@ -4871,374 +4937,374 @@
         <v>110</v>
       </c>
       <c r="J90" t="s">
-        <v>381</v>
+        <v>324</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C91" s="3">
-        <v>59.885579999999997</v>
+        <v>60.099086</v>
       </c>
       <c r="D91" s="3">
-        <v>30.490016000000001</v>
+        <v>30.260352000000001</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G91" s="6">
-        <v>45749</v>
+        <v>45713</v>
       </c>
       <c r="H91" t="s">
-        <v>265</v>
+        <v>3</v>
       </c>
       <c r="I91" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J91" t="s">
-        <v>384</v>
-      </c>
-      <c r="K91" s="6">
-        <v>45686</v>
-      </c>
-      <c r="L91" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" t="s">
-        <v>109</v>
-      </c>
-      <c r="N91" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="B92" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C92" s="3">
-        <v>59.934911999999997</v>
+        <v>60.082470999999998</v>
       </c>
       <c r="D92" s="3">
-        <v>30.442944000000001</v>
+        <v>29.957279</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G92" s="6">
-        <v>45749</v>
+        <v>45713</v>
       </c>
       <c r="H92" t="s">
         <v>3</v>
       </c>
       <c r="I92" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J92" t="s">
-        <v>385</v>
-      </c>
-      <c r="K92" s="6">
-        <v>45712</v>
-      </c>
-      <c r="L92" t="s">
-        <v>3</v>
-      </c>
-      <c r="M92" t="s">
-        <v>110</v>
-      </c>
-      <c r="N92" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="B93" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C93" s="3">
-        <v>59.901846999999997</v>
+        <v>59.961087999999997</v>
       </c>
       <c r="D93" s="3">
-        <v>30.274464999999999</v>
+        <v>30.406616</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G93" s="6">
-        <v>45750</v>
+        <v>45712</v>
       </c>
       <c r="H93" t="s">
         <v>3</v>
       </c>
       <c r="I93" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J93" t="s">
-        <v>386</v>
+        <v>321</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="C94" s="4">
-        <v>59.376403000000003</v>
-      </c>
-      <c r="D94" s="4">
-        <v>28.607748999999998</v>
+      <c r="A94" t="s">
+        <v>189</v>
+      </c>
+      <c r="B94" t="s">
+        <v>32</v>
+      </c>
+      <c r="C94" s="3">
+        <v>59.940150000000003</v>
+      </c>
+      <c r="D94" s="3">
+        <v>30.418365999999999</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="F94" s="4" t="s">
-        <v>422</v>
+      <c r="F94" s="3" t="s">
+        <v>432</v>
       </c>
       <c r="G94" s="6">
-        <v>45750</v>
+        <v>45712</v>
       </c>
       <c r="H94" t="s">
-        <v>265</v>
+        <v>3</v>
       </c>
       <c r="I94" t="s">
         <v>110</v>
       </c>
       <c r="J94" t="s">
-        <v>387</v>
+        <v>319</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="B95" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C95" s="3">
-        <v>60.011139999999997</v>
+        <v>59.737372999999998</v>
       </c>
       <c r="D95" s="3">
-        <v>30.277411000000001</v>
+        <v>30.572095000000001</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>417</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="G95" s="6">
-        <v>45752</v>
+        <v>45709</v>
       </c>
       <c r="H95" t="s">
         <v>3</v>
       </c>
       <c r="I95" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J95" t="s">
-        <v>389</v>
+        <v>314</v>
+      </c>
+      <c r="K95" s="6">
+        <v>45666</v>
+      </c>
+      <c r="L95" t="s">
+        <v>5</v>
+      </c>
+      <c r="M95" t="s">
+        <v>268</v>
+      </c>
+      <c r="N95" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="B96" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="C96" s="3">
-        <v>60.022171</v>
+        <v>59.735762999999999</v>
       </c>
       <c r="D96" s="3">
-        <v>30.222946</v>
+        <v>30.471869999999999</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>416</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="G96" s="6">
-        <v>45752</v>
+        <v>45709</v>
       </c>
       <c r="H96" t="s">
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J96" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="K96" s="6">
+        <v>45671</v>
+      </c>
+      <c r="L96" t="s">
+        <v>5</v>
+      </c>
+      <c r="M96" t="s">
+        <v>268</v>
+      </c>
+      <c r="N96" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="B97" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C97" s="3">
-        <v>60.039791000000001</v>
+        <v>59.832231</v>
       </c>
       <c r="D97" s="3">
-        <v>30.243804999999998</v>
+        <v>30.347363000000001</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>417</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G97" s="6">
-        <v>45752</v>
+        <v>45700</v>
       </c>
       <c r="H97" t="s">
         <v>3</v>
       </c>
       <c r="I97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J97" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B98" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C98" s="3">
-        <v>60.006179000000003</v>
+        <v>59.882699000000002</v>
       </c>
       <c r="D98" s="3">
-        <v>30.210629999999998</v>
+        <v>30.370504</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="G98" s="6">
-        <v>45753</v>
+        <v>45698</v>
       </c>
       <c r="H98" t="s">
         <v>3</v>
       </c>
       <c r="I98" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J98" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="B99" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="C99" s="3">
-        <v>60.008485999999998</v>
+        <v>59.870013999999998</v>
       </c>
       <c r="D99" s="3">
-        <v>30.251135999999999</v>
+        <v>30.379325000000001</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G99" s="6">
-        <v>45753</v>
+        <v>45698</v>
       </c>
       <c r="H99" t="s">
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J99" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="B100" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C100" s="3">
-        <v>59.946174999999997</v>
+        <v>59.878670999999997</v>
       </c>
       <c r="D100" s="3">
-        <v>30.473980999999998</v>
+        <v>30.370405000000002</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>418</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G100" s="6">
-        <v>45753</v>
+        <v>45698</v>
       </c>
       <c r="H100" t="s">
-        <v>265</v>
+        <v>128</v>
       </c>
       <c r="I100" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J100" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>226</v>
+        <v>137</v>
       </c>
       <c r="B101" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="C101" s="3">
-        <v>57.812677000000001</v>
+        <v>59.828572999999999</v>
       </c>
       <c r="D101" s="3">
-        <v>28.346626000000001</v>
+        <v>30.377960000000002</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="G101" s="6">
-        <v>45754</v>
+        <v>45697</v>
       </c>
       <c r="H101" t="s">
         <v>3</v>
@@ -5247,194 +5313,158 @@
         <v>109</v>
       </c>
       <c r="J101" t="s">
-        <v>397</v>
-      </c>
-      <c r="K101" s="6">
-        <v>45696</v>
-      </c>
-      <c r="L101" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" t="s">
-        <v>109</v>
-      </c>
-      <c r="N101" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>228</v>
+        <v>147</v>
       </c>
       <c r="B102" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="C102" s="3">
-        <v>57.807676999999998</v>
+        <v>59.833329999999997</v>
       </c>
       <c r="D102" s="3">
-        <v>28.272282000000001</v>
+        <v>30.390364999999999</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="G102" s="6">
-        <v>45754</v>
+        <v>45697</v>
       </c>
       <c r="H102" t="s">
-        <v>265</v>
+        <v>3</v>
       </c>
       <c r="I102" t="s">
         <v>109</v>
       </c>
       <c r="J102" t="s">
-        <v>395</v>
-      </c>
-      <c r="K102" s="6">
-        <v>45696</v>
-      </c>
-      <c r="L102" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" t="s">
-        <v>109</v>
-      </c>
-      <c r="N102" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="B103" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C103" s="3">
-        <v>59.927616999999998</v>
+        <v>59.966444000000003</v>
       </c>
       <c r="D103" s="3">
-        <v>30.346698</v>
+        <v>30.311420999999999</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G103" s="6">
-        <v>45754</v>
+        <v>45688</v>
       </c>
       <c r="H103" t="s">
-        <v>265</v>
+        <v>3</v>
       </c>
       <c r="I103" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J103" t="s">
-        <v>398</v>
-      </c>
-      <c r="K103" s="6">
-        <v>45714</v>
-      </c>
-      <c r="L103" t="s">
-        <v>5</v>
-      </c>
-      <c r="M103" t="s">
-        <v>109</v>
-      </c>
-      <c r="N103" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="B104" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="C104" s="3">
-        <v>59.955696000000003</v>
+        <v>59.959471000000001</v>
       </c>
       <c r="D104" s="3">
-        <v>30.353408999999999</v>
+        <v>30.289556000000001</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G104" s="6">
-        <v>45754</v>
+        <v>45688</v>
       </c>
       <c r="H104" t="s">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="I104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J104" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="B105" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="C105" s="3">
-        <v>58.731769</v>
+        <v>59.863726</v>
       </c>
       <c r="D105" s="3">
-        <v>29.843686999999999</v>
+        <v>30.165687999999999</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="G105" s="6">
-        <v>45754</v>
+        <v>45687</v>
       </c>
       <c r="H105" t="s">
         <v>3</v>
       </c>
       <c r="I105" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J105" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="B106" t="s">
-        <v>66</v>
-      </c>
-      <c r="C106" s="9">
-        <v>59.832213000000003</v>
-      </c>
-      <c r="D106" s="9">
-        <v>30.251090999999999</v>
+        <v>71</v>
+      </c>
+      <c r="C106" s="3">
+        <v>59.877696</v>
+      </c>
+      <c r="D106" s="3">
+        <v>30.443258</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="F106" s="9" t="s">
-        <v>421</v>
+      <c r="F106" s="3" t="s">
+        <v>427</v>
       </c>
       <c r="G106" s="6">
-        <v>45755</v>
+        <v>45686</v>
       </c>
       <c r="H106" t="s">
         <v>3</v>
@@ -5443,529 +5473,559 @@
         <v>109</v>
       </c>
       <c r="J106" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B107" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C107" s="3">
-        <v>59.574654000000002</v>
+        <v>59.893503000000003</v>
       </c>
       <c r="D107" s="3">
-        <v>30.127715999999999</v>
+        <v>30.514641999999998</v>
       </c>
       <c r="E107" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="G107" s="6">
+        <v>45686</v>
+      </c>
+      <c r="H107" t="s">
+        <v>128</v>
+      </c>
+      <c r="I107" t="s">
+        <v>109</v>
+      </c>
+      <c r="J107" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>153</v>
+      </c>
+      <c r="B108" t="s">
+        <v>80</v>
+      </c>
+      <c r="C108" s="3">
+        <v>59.987605000000002</v>
+      </c>
+      <c r="D108" s="3">
+        <v>30.353912000000001</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G108" s="6">
+        <v>45685</v>
+      </c>
+      <c r="H108" t="s">
+        <v>128</v>
+      </c>
+      <c r="I108" t="s">
+        <v>109</v>
+      </c>
+      <c r="J108" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>209</v>
+      </c>
+      <c r="B109" t="s">
+        <v>68</v>
+      </c>
+      <c r="C109" s="3">
+        <v>59.986694999999997</v>
+      </c>
+      <c r="D109" s="3">
+        <v>30.367647000000002</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G109" s="6">
+        <v>45685</v>
+      </c>
+      <c r="H109" t="s">
+        <v>3</v>
+      </c>
+      <c r="I109" t="s">
+        <v>109</v>
+      </c>
+      <c r="J109" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>183</v>
+      </c>
+      <c r="B110" t="s">
+        <v>90</v>
+      </c>
+      <c r="C110" s="3">
+        <v>59.9327817</v>
+      </c>
+      <c r="D110" s="3">
+        <v>30.354575928408831</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="G110" s="6">
+        <v>45684</v>
+      </c>
+      <c r="H110" t="s">
+        <v>3</v>
+      </c>
+      <c r="I110" t="s">
+        <v>109</v>
+      </c>
+      <c r="J110" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>194</v>
+      </c>
+      <c r="B111" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" s="3">
+        <v>59.929727</v>
+      </c>
+      <c r="D111" s="3">
+        <v>30.359607</v>
+      </c>
+      <c r="E111" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="F107" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="G107" s="6">
-        <v>45755</v>
-      </c>
-      <c r="H107" t="s">
-        <v>3</v>
-      </c>
-      <c r="I107" t="s">
-        <v>109</v>
-      </c>
-      <c r="J107" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>144</v>
-      </c>
-      <c r="B108" t="s">
-        <v>31</v>
-      </c>
-      <c r="C108" s="3">
-        <v>59.908104999999999</v>
-      </c>
-      <c r="D108" s="3">
-        <v>30.307361</v>
-      </c>
-      <c r="E108" s="3" t="s">
+      <c r="F111" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="G111" s="6">
+        <v>45684</v>
+      </c>
+      <c r="H111" t="s">
+        <v>3</v>
+      </c>
+      <c r="I111" t="s">
+        <v>109</v>
+      </c>
+      <c r="J111" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>230</v>
+      </c>
+      <c r="B112" t="s">
+        <v>107</v>
+      </c>
+      <c r="C112" s="3">
+        <v>58.525534999999998</v>
+      </c>
+      <c r="D112" s="3">
+        <v>31.231593</v>
+      </c>
+      <c r="E112" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="F108" s="3" t="s">
+      <c r="F112" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="G108" s="6">
-        <v>45756</v>
-      </c>
-      <c r="H108" t="s">
-        <v>3</v>
-      </c>
-      <c r="I108" t="s">
-        <v>109</v>
-      </c>
-      <c r="J108" t="s">
-        <v>399</v>
-      </c>
-      <c r="K108" s="6">
-        <v>45715</v>
-      </c>
-      <c r="L108" t="s">
-        <v>5</v>
-      </c>
-      <c r="M108" t="s">
-        <v>110</v>
-      </c>
-      <c r="N108" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>218</v>
-      </c>
-      <c r="B109" t="s">
-        <v>26</v>
-      </c>
-      <c r="C109" s="3">
-        <v>59.881005999999999</v>
-      </c>
-      <c r="D109" s="3">
-        <v>30.317547999999999</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="G109" s="6">
-        <v>45756</v>
-      </c>
-      <c r="H109" t="s">
-        <v>3</v>
-      </c>
-      <c r="I109" t="s">
-        <v>109</v>
-      </c>
-      <c r="J109" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>238</v>
-      </c>
-      <c r="B110" t="s">
-        <v>117</v>
-      </c>
-      <c r="C110" s="3">
-        <v>59.642857999999997</v>
-      </c>
-      <c r="D110" s="3">
-        <v>33.547027</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="G110" s="6">
-        <v>45759</v>
-      </c>
-      <c r="H110" t="s">
-        <v>3</v>
-      </c>
-      <c r="I110" t="s">
-        <v>110</v>
-      </c>
-      <c r="J110" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="C111" s="4">
-        <v>59.126367000000002</v>
-      </c>
-      <c r="D111" s="4">
-        <v>37.920817</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="G111" s="6">
-        <v>45759</v>
-      </c>
-      <c r="H111" t="s">
-        <v>3</v>
-      </c>
-      <c r="I111" t="s">
-        <v>403</v>
-      </c>
-      <c r="J111" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="C112" s="4">
-        <v>59.089959</v>
-      </c>
-      <c r="D112" s="4">
-        <v>37.915553000000003</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>424</v>
-      </c>
       <c r="G112" s="6">
-        <v>45759</v>
+        <v>45682</v>
       </c>
       <c r="H112" t="s">
-        <v>265</v>
+        <v>3</v>
       </c>
       <c r="I112" t="s">
-        <v>403</v>
+        <v>109</v>
       </c>
       <c r="J112" t="s">
-        <v>411</v>
+        <v>288</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="B113" t="s">
-        <v>127</v>
-      </c>
-      <c r="C113" s="4">
-        <v>59.202885999999999</v>
-      </c>
-      <c r="D113" s="4">
-        <v>39.812596999999997</v>
+        <v>21</v>
+      </c>
+      <c r="C113" s="3">
+        <v>59.807608999999999</v>
+      </c>
+      <c r="D113" s="3">
+        <v>30.374600000000001</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="F113" s="4" t="s">
-        <v>421</v>
+      <c r="F113" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="G113" s="6">
-        <v>45760</v>
+        <v>45671</v>
       </c>
       <c r="H113" t="s">
         <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>403</v>
+        <v>268</v>
       </c>
       <c r="J113" t="s">
-        <v>408</v>
+        <v>279</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c r="B114" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C114" s="3">
-        <v>59.823701999999997</v>
+        <v>57.823453999999998</v>
       </c>
       <c r="D114" s="3">
-        <v>30.319182999999999</v>
+        <v>28.289952</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="G114" s="6">
-        <v>45768</v>
+        <v>45670</v>
       </c>
       <c r="H114" t="s">
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>109</v>
+        <v>268</v>
       </c>
       <c r="J114" t="s">
-        <v>406</v>
+        <v>277</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="B115" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="C115" s="3">
-        <v>59.819806999999997</v>
+        <v>57.793869000000001</v>
       </c>
       <c r="D115" s="3">
-        <v>30.317252</v>
+        <v>28.416497</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G115" s="6">
-        <v>45768</v>
+        <v>45670</v>
       </c>
       <c r="H115" t="s">
         <v>3</v>
       </c>
       <c r="I115" t="s">
-        <v>109</v>
+        <v>268</v>
       </c>
       <c r="J115" t="s">
-        <v>405</v>
+        <v>278</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="B116" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="C116" s="3">
-        <v>59.868921</v>
+        <v>59.867922</v>
       </c>
       <c r="D116" s="3">
-        <v>30.350265</v>
+        <v>30.261116000000001</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="G116" s="6">
-        <v>45770</v>
+        <v>45669</v>
       </c>
       <c r="H116" t="s">
         <v>3</v>
       </c>
       <c r="I116" t="s">
-        <v>109</v>
+        <v>268</v>
       </c>
       <c r="J116" t="s">
-        <v>412</v>
+        <v>275</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>262</v>
+        <v>164</v>
       </c>
       <c r="B117" t="s">
-        <v>259</v>
-      </c>
-      <c r="C117" s="4">
-        <v>64.557015000000007</v>
-      </c>
-      <c r="D117" s="4">
-        <v>39.774903000000002</v>
+        <v>2</v>
+      </c>
+      <c r="C117" s="3">
+        <v>59.858607800000001</v>
+      </c>
+      <c r="D117" s="3">
+        <v>30.248172032325829</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>434</v>
+        <v>417</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="G117" s="6">
-        <v>45771</v>
+        <v>45668</v>
       </c>
       <c r="H117" t="s">
-        <v>265</v>
+        <v>3</v>
       </c>
       <c r="I117" t="s">
-        <v>109</v>
+        <v>268</v>
       </c>
       <c r="J117" t="s">
-        <v>413</v>
+        <v>272</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B118" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="C118" s="3">
-        <v>59.746709000000003</v>
+        <v>59.852615</v>
       </c>
       <c r="D118" s="3">
-        <v>30.497157000000001</v>
+        <v>30.268383</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G118" s="6">
-        <v>45773</v>
+        <v>45668</v>
       </c>
       <c r="H118" t="s">
         <v>3</v>
       </c>
       <c r="I118" t="s">
-        <v>109</v>
+        <v>268</v>
+      </c>
+      <c r="J118" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C119" s="3">
-        <v>59.844054</v>
+        <v>59.855882000000001</v>
       </c>
       <c r="D119" s="3">
-        <v>30.431221000000001</v>
+        <v>30.224481999999998</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G119" s="6">
-        <v>45773</v>
+        <v>45668</v>
       </c>
       <c r="H119" t="s">
         <v>3</v>
       </c>
       <c r="I119" t="s">
-        <v>109</v>
+        <v>268</v>
+      </c>
+      <c r="J119" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="B120" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C120" s="3">
-        <v>60.007587000000001</v>
+        <v>59.854359000000002</v>
       </c>
       <c r="D120" s="3">
-        <v>30.259732</v>
+        <v>30.371158999999999</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>416</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>435</v>
+        <v>419</v>
+      </c>
+      <c r="G120" s="6">
+        <v>45667</v>
+      </c>
+      <c r="H120" t="s">
+        <v>128</v>
+      </c>
+      <c r="I120" t="s">
+        <v>268</v>
+      </c>
+      <c r="J120" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>136</v>
+        <v>220</v>
       </c>
       <c r="B121" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C121" s="3">
-        <v>60.002080999999997</v>
+        <v>59.863328000000003</v>
       </c>
       <c r="D121" s="3">
-        <v>30.272632000000002</v>
+        <v>30.404083</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>416</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>435</v>
+        <v>420</v>
+      </c>
+      <c r="G121" s="6">
+        <v>45667</v>
+      </c>
+      <c r="H121" t="s">
+        <v>3</v>
+      </c>
+      <c r="I121" t="s">
+        <v>268</v>
+      </c>
+      <c r="J121" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>151</v>
+        <v>223</v>
       </c>
       <c r="B122" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C122" s="3">
-        <v>59.989381999999999</v>
+        <v>59.8521</v>
       </c>
       <c r="D122" s="3">
-        <v>30.257289</v>
+        <v>30.349509999999999</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>435</v>
+        <v>421</v>
+      </c>
+      <c r="G122" s="6">
+        <v>45667</v>
+      </c>
+      <c r="H122" t="s">
+        <v>3</v>
+      </c>
+      <c r="I122" t="s">
+        <v>268</v>
+      </c>
+      <c r="J122" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="B123" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="C123" s="3">
-        <v>59.946049000000002</v>
+        <v>60.002080999999997</v>
       </c>
       <c r="D123" s="3">
-        <v>30.498647999999999</v>
+        <v>30.272632000000002</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>416</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B124" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C124" s="3">
-        <v>59.723677000000002</v>
+        <v>59.946049000000002</v>
       </c>
       <c r="D124" s="3">
-        <v>30.080950000000001</v>
+        <v>30.498647999999999</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -6035,17 +6095,17 @@
   </sheetData>
   <autoFilter ref="A1:R127" xr:uid="{E6C7E0F2-4CF5-4E0D-8C81-180A66B4648E}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R127">
-      <sortCondition ref="G1:G127"/>
+      <sortCondition descending="1" ref="G1:G127"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R127">
     <sortCondition ref="G1:G127"/>
   </sortState>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H42 L2:L12 P89 L36 L19:L20 L41 L15:L17 L25:L34 L22 L43:L44 L46:L1048576" xr:uid="{03745927-94AE-4209-8723-9E55A3D49B44}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H42 L2:L12 P89 L36 L46:L1048576 L41 L15:L17 L25:L34 L22 L43:L44 L19" xr:uid="{03745927-94AE-4209-8723-9E55A3D49B44}">
       <formula1>"Зеленый , Красный"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P42 H2:H41 L42 L13:L14 L37:L40 L18 L21 L35 L23:L24 L45 H43:H1048576" xr:uid="{211AAABF-0A7D-4C24-BC69-0BF1E1114FDC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P42 H2:H41 L42 L13:L14 L37:L40 L18 L20:L21 L35 L23:L24 L45 H43:H1048576" xr:uid="{211AAABF-0A7D-4C24-BC69-0BF1E1114FDC}">
       <formula1>"Зеленый , Красный , Золотой"</formula1>
     </dataValidation>
   </dataValidations>
